--- a/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
+++ b/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA656D51-B8AC-443A-ACBB-D650964A466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD102DC-F77D-4860-8D64-42E67D99F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1620" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2445" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktname_Erlösvorschau" sheetId="1" r:id="rId1"/>
@@ -790,17 +790,12 @@
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -816,12 +811,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,7 +1185,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="19">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="61"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="44">
         <v>46023</v>
       </c>
@@ -1356,30 +1356,30 @@
       <c r="B6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="56"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="45" t="s">
         <v>42</v>
@@ -1466,7 +1466,7 @@
       <c r="Z7" s="26">
         <v>7.99</v>
       </c>
-      <c r="AA7" s="58"/>
+      <c r="AA7" s="57"/>
       <c r="AB7" s="45" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="Z8" s="13">
         <v>10</v>
       </c>
-      <c r="AA8" s="59"/>
+      <c r="AA8" s="58"/>
       <c r="AB8" s="45" t="s">
         <v>44</v>
       </c>
@@ -1661,7 +1661,7 @@
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="58"/>
       <c r="AB9" s="45" t="s">
         <v>45</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="Z10" s="27">
         <v>30</v>
       </c>
-      <c r="AA10" s="59"/>
+      <c r="AA10" s="58"/>
       <c r="AB10" s="45" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +1855,7 @@
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="AA11" s="59"/>
+      <c r="AA11" s="58"/>
       <c r="AB11" s="45"/>
     </row>
     <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.3">
@@ -2082,30 +2082,30 @@
       <c r="B14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="45" t="s">
         <v>48</v>
@@ -2192,7 +2192,7 @@
       <c r="Z15" s="26">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="58"/>
+      <c r="AA15" s="57"/>
       <c r="AB15" s="45" t="s">
         <v>49</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="Z16" s="13">
         <v>0</v>
       </c>
-      <c r="AA16" s="59"/>
+      <c r="AA16" s="58"/>
       <c r="AB16" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2388,7 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA17" s="59"/>
+      <c r="AA17" s="58"/>
       <c r="AB17" t="s">
         <v>51</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="Z18" s="13">
         <v>0</v>
       </c>
-      <c r="AA18" s="59"/>
+      <c r="AA18" s="58"/>
       <c r="AB18" t="s">
         <v>52</v>
       </c>
@@ -2584,7 +2584,7 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="59"/>
+      <c r="AA19" s="58"/>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
@@ -2674,7 +2674,7 @@
         <f t="shared" ref="AA20:AA21" si="7">SUM(C20:Z20)</f>
         <v>714000</v>
       </c>
-      <c r="AB20" s="65">
+      <c r="AB20" s="49">
         <f>SUM(C20:Z20)</f>
         <v>714000</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>8000</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="C21:Z21" si="8">D19*D20</f>
+        <f t="shared" ref="D21:Z21" si="8">D19*D20</f>
         <v>5000</v>
       </c>
       <c r="E21" s="17">
@@ -2798,30 +2798,30 @@
       <c r="B22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
       <c r="AA22" s="35"/>
       <c r="AD22">
         <f t="shared" si="4"/>
@@ -2905,7 +2905,7 @@
       <c r="Z23" s="26">
         <v>2.99</v>
       </c>
-      <c r="AA23" s="58"/>
+      <c r="AA23" s="57"/>
       <c r="AD23">
         <f t="shared" si="4"/>
         <v>644</v>
@@ -2988,7 +2988,7 @@
       <c r="Z24" s="13">
         <v>0</v>
       </c>
-      <c r="AA24" s="59"/>
+      <c r="AA24" s="58"/>
       <c r="AD24">
         <f t="shared" si="4"/>
         <v>515</v>
@@ -3095,7 +3095,7 @@
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="AA25" s="59"/>
+      <c r="AA25" s="58"/>
       <c r="AD25">
         <f t="shared" si="4"/>
         <v>412</v>
@@ -3178,7 +3178,7 @@
       <c r="Z26" s="27">
         <v>30</v>
       </c>
-      <c r="AA26" s="59"/>
+      <c r="AA26" s="58"/>
       <c r="AD26">
         <f t="shared" si="4"/>
         <v>330</v>
@@ -3285,7 +3285,7 @@
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="AA27" s="59"/>
+      <c r="AA27" s="58"/>
       <c r="AD27">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -3516,30 +3516,30 @@
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="63"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
       <c r="AA30" s="35"/>
       <c r="AD30">
         <f t="shared" si="4"/>
@@ -3623,7 +3623,7 @@
       <c r="Z31" s="26">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA31" s="58"/>
+      <c r="AA31" s="57"/>
       <c r="AD31">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -3706,7 +3706,7 @@
       <c r="Z32" s="13">
         <v>10</v>
       </c>
-      <c r="AA32" s="59"/>
+      <c r="AA32" s="58"/>
       <c r="AD32">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3813,7 +3813,7 @@
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="AA33" s="59"/>
+      <c r="AA33" s="58"/>
       <c r="AD33">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3896,7 +3896,7 @@
       <c r="Z34" s="27">
         <v>30</v>
       </c>
-      <c r="AA34" s="59"/>
+      <c r="AA34" s="58"/>
       <c r="AD34">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4003,7 +4003,7 @@
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="AA35" s="59"/>
+      <c r="AA35" s="58"/>
       <c r="AD35">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -4114,7 +4114,7 @@
         <f>SUM(C36:Z36)</f>
         <v>29855</v>
       </c>
-      <c r="AB36" s="66">
+      <c r="AB36" s="50">
         <f>SUM(C36:Z36)</f>
         <v>29855</v>
       </c>
@@ -4264,30 +4264,30 @@
       <c r="B38" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
       <c r="AA38" s="35"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
@@ -4378,7 +4378,7 @@
       <c r="Z39" s="26">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA39" s="64"/>
+      <c r="AA39" s="63"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7"/>
@@ -4468,7 +4468,7 @@
       <c r="Z40" s="13">
         <v>10</v>
       </c>
-      <c r="AA40" s="64"/>
+      <c r="AA40" s="63"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7"/>
@@ -4582,7 +4582,7 @@
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="AA41" s="64"/>
+      <c r="AA41" s="63"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="7"/>
@@ -4672,8 +4672,8 @@
       <c r="Z42" s="27">
         <v>30</v>
       </c>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="67">
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="51">
         <f>AA37+AA45+AA53</f>
         <v>1018031.1119999995</v>
       </c>
@@ -4790,7 +4790,7 @@
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="AA43" s="64"/>
+      <c r="AA43" s="63"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
       <c r="AS43" s="7"/>
@@ -5042,30 +5042,30 @@
       <c r="B46" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
       <c r="AA46" s="35"/>
     </row>
     <row r="47" spans="1:53" ht="15" x14ac:dyDescent="0.3">
@@ -5145,7 +5145,7 @@
       <c r="Z47" s="26">
         <v>16.989999999999998</v>
       </c>
-      <c r="AA47" s="64"/>
+      <c r="AA47" s="63"/>
     </row>
     <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -5224,7 +5224,7 @@
       <c r="Z48" s="13">
         <v>10</v>
       </c>
-      <c r="AA48" s="64"/>
+      <c r="AA48" s="63"/>
     </row>
     <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -5327,7 +5327,7 @@
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="AA49" s="64"/>
+      <c r="AA49" s="63"/>
     </row>
     <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -5406,7 +5406,7 @@
       <c r="Z50" s="27">
         <v>30</v>
       </c>
-      <c r="AA50" s="64"/>
+      <c r="AA50" s="63"/>
     </row>
     <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -5509,7 +5509,7 @@
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="AA51" s="64"/>
+      <c r="AA51" s="63"/>
     </row>
     <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -6307,21 +6307,21 @@
       <c r="C66" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6342,21 +6342,21 @@
       <c r="C67" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -6377,21 +6377,21 @@
       <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -6412,21 +6412,21 @@
       <c r="C69" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -6447,21 +6447,21 @@
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="65"/>
+      <c r="P70" s="65"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -6482,21 +6482,21 @@
       <c r="C71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -6517,21 +6517,21 @@
       <c r="C72" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -6552,21 +6552,21 @@
       <c r="C73" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -6587,21 +6587,21 @@
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -6622,21 +6622,21 @@
       <c r="C75" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -33331,6 +33331,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="D74:P74"/>
     <mergeCell ref="D66:P66"/>
     <mergeCell ref="C6:Z6"/>
     <mergeCell ref="AA7:AA11"/>
@@ -33345,15 +33354,6 @@
     <mergeCell ref="AA39:AA43"/>
     <mergeCell ref="C46:Z46"/>
     <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="D74:P74"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.51181102362204722" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>

--- a/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
+++ b/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD102DC-F77D-4860-8D64-42E67D99F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF2EDC-105D-4CF6-B734-55458CB9D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2445" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktname_Erlösvorschau" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -338,6 +338,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF434343"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -371,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -453,17 +460,6 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
       <top style="double">
         <color rgb="FF999999"/>
       </top>
@@ -718,30 +714,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -750,46 +745,41 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -797,32 +787,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1092,32 +1087,16 @@
   </sheetPr>
   <dimension ref="A1:BA995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="Q22" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="21" width="9" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
     <col min="28" max="28" width="28.42578125" customWidth="1"/>
   </cols>
@@ -1185,162 +1164,162 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>3</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>4</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>6</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>7</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>8</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>9</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>10</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <v>11</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <v>12</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>13</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <v>14</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>15</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>16</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <v>17</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <v>18</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <v>19</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="18">
         <v>20</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="18">
         <v>21</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="18">
         <v>22</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <v>23</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="19">
         <v>24</v>
       </c>
-      <c r="AA4" s="21"/>
+      <c r="AA4" s="20"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="44">
-        <v>46023</v>
-      </c>
-      <c r="D5" s="44">
+      <c r="B5" s="58"/>
+      <c r="C5" s="41">
         <v>46054</v>
       </c>
-      <c r="E5" s="44">
+      <c r="D5" s="41">
         <v>46082</v>
       </c>
-      <c r="F5" s="44">
+      <c r="E5" s="41">
         <v>46113</v>
       </c>
-      <c r="G5" s="44">
+      <c r="F5" s="41">
         <v>46143</v>
       </c>
-      <c r="H5" s="44">
+      <c r="G5" s="41">
         <v>46174</v>
       </c>
-      <c r="I5" s="44">
+      <c r="H5" s="41">
         <v>46204</v>
       </c>
-      <c r="J5" s="44">
+      <c r="I5" s="41">
         <v>46235</v>
       </c>
-      <c r="K5" s="44">
+      <c r="J5" s="41">
         <v>46266</v>
       </c>
-      <c r="L5" s="44">
+      <c r="K5" s="41">
         <v>46296</v>
       </c>
-      <c r="M5" s="44">
+      <c r="L5" s="41">
         <v>46327</v>
       </c>
-      <c r="N5" s="44">
+      <c r="M5" s="41">
         <v>46357</v>
       </c>
-      <c r="O5" s="44">
+      <c r="N5" s="41">
         <v>46388</v>
       </c>
-      <c r="P5" s="44">
+      <c r="O5" s="41">
         <v>46419</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="P5" s="41">
         <v>46447</v>
       </c>
-      <c r="R5" s="44">
+      <c r="Q5" s="41">
         <v>46478</v>
       </c>
-      <c r="S5" s="44">
+      <c r="R5" s="41">
         <v>46508</v>
       </c>
-      <c r="T5" s="44">
+      <c r="S5" s="41">
         <v>46539</v>
       </c>
-      <c r="U5" s="44">
+      <c r="T5" s="41">
         <v>46569</v>
       </c>
-      <c r="V5" s="44">
+      <c r="U5" s="41">
         <v>46600</v>
       </c>
-      <c r="W5" s="44">
+      <c r="V5" s="41">
         <v>46631</v>
       </c>
-      <c r="X5" s="44">
+      <c r="W5" s="41">
         <v>46661</v>
       </c>
-      <c r="Y5" s="44">
+      <c r="X5" s="41">
         <v>46692</v>
       </c>
-      <c r="Z5" s="44">
+      <c r="Y5" s="41">
         <v>46722</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="Z5" s="41">
+        <v>46753</v>
+      </c>
+      <c r="AA5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AB5" s="45" t="s">
+      <c r="AB5" s="42" t="s">
         <v>41</v>
       </c>
       <c r="AD5">
@@ -1353,35 +1332,35 @@
     </row>
     <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="45" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="42" t="s">
         <v>42</v>
       </c>
       <c r="AD6">
@@ -1391,83 +1370,83 @@
     </row>
     <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>7.99</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>7.99</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>7.99</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>7.99</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>7.99</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>7.99</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>7.99</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>7.99</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>7.99</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>7.99</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>7.99</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>7.99</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <v>7.99</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>7.99</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>7.99</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <v>7.99</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>7.99</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="25">
         <v>7.99</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="25">
         <v>7.99</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="25">
         <v>7.99</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="25">
         <v>7.99</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="25">
         <v>7.99</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="25">
         <v>7.99</v>
       </c>
-      <c r="Z7" s="26">
+      <c r="Z7" s="25">
         <v>7.99</v>
       </c>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="45" t="s">
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="42" t="s">
         <v>43</v>
       </c>
       <c r="AD7">
@@ -1477,83 +1456,83 @@
     </row>
     <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>30</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>10</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>10</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>30</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>10</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>10</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>30</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>10</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>10</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <v>30</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <v>10</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>10</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="26">
         <v>50</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="26">
         <v>10</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>10</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="26">
         <v>50</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="26">
         <v>10</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <v>10</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="26">
         <v>50</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="26">
         <v>10</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="12">
         <v>10</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="26">
         <v>50</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="26">
         <v>10</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="12">
         <v>10</v>
       </c>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="45" t="s">
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AD8">
@@ -1562,107 +1541,107 @@
     </row>
     <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <f t="shared" ref="C9:Z9" si="0">C7-(C7*C8/100)</f>
         <v>5.593</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>5.593</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <f t="shared" si="0"/>
         <v>5.593</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="28">
         <f t="shared" si="0"/>
         <v>5.593</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="28">
         <f t="shared" si="0"/>
         <v>3.9950000000000001</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="28">
         <f t="shared" si="0"/>
         <v>3.9950000000000001</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="28">
         <f t="shared" si="0"/>
         <v>3.9950000000000001</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="28">
         <f t="shared" si="0"/>
         <v>3.9950000000000001</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="28">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="13">
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="45" t="s">
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="42" t="s">
         <v>45</v>
       </c>
       <c r="AD9">
@@ -1671,83 +1650,83 @@
     </row>
     <row r="10" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>30</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>30</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>30</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>30</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>30</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>30</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>30</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>30</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <v>30</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="26">
         <v>30</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <v>30</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <v>30</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <v>30</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="26">
         <v>30</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="26">
         <v>30</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="26">
         <v>30</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="26">
         <v>30</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="26">
         <v>30</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="26">
         <v>30</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="26">
         <v>30</v>
       </c>
-      <c r="W10" s="27">
+      <c r="W10" s="26">
         <v>30</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="26">
         <v>30</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="26">
         <v>30</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="26">
         <v>30</v>
       </c>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="45" t="s">
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="AD10">
@@ -1756,321 +1735,321 @@
     </row>
     <row r="11" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <f t="shared" ref="C11:Z11" si="1">C9-(C9*C10/100)</f>
         <v>3.9150999999999998</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
         <v>3.9150999999999998</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <f t="shared" si="1"/>
         <v>3.9150999999999998</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="28">
         <f t="shared" si="1"/>
         <v>3.9150999999999998</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="28">
         <f t="shared" si="1"/>
         <v>2.7965</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="28">
         <f t="shared" si="1"/>
         <v>2.7965</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="28">
         <f t="shared" si="1"/>
         <v>2.7965</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="28">
         <f t="shared" si="1"/>
         <v>2.7965</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="28">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="45"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="42"/>
     </row>
     <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <f>((AD5)*10)*5</f>
         <v>30000</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <f>((AD6)*10)*5</f>
         <v>4500</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f>((AD7)*10)*5</f>
         <v>1350</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <f>((AD8)*10)*5</f>
         <v>650</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f>((AD9)*10)*5+(AD5*10)</f>
         <v>6350</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f>((AD10)*10)*5+((AD6)*10)</f>
         <v>1050</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <f>((AD7)*10)</f>
         <v>270</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <f>((AD8)*10)</f>
         <v>130</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f>((AD9)*10)+((AD5)*10)</f>
         <v>6070</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <f>((AD10)*10)+((AD6)*10)</f>
         <v>930</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <f>((AD7)*10)</f>
         <v>270</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <f>((AD8)*10)</f>
         <v>130</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="30">
         <f>((AD9)*10)+((AD5)*10)</f>
         <v>6070</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="30">
         <f>((AD10)*10)+((AD6)*10)</f>
         <v>930</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="14">
         <f>((AD7)*10)</f>
         <v>270</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="30">
         <f>((AD8)*10)</f>
         <v>130</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="30">
         <f>((AD9)*10)+((AD5)*10)</f>
         <v>6070</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="14">
         <f>((AD10)*10)+((AD6)*10)</f>
         <v>930</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="30">
         <f>((AD7)*10)</f>
         <v>270</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="30">
         <f>((AD8)*10)</f>
         <v>130</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="14">
         <f>((AD9)*10)+((AD5)*10)</f>
         <v>6070</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="30">
         <f>((AD10)*10)+((AD6)*10)</f>
         <v>930</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="30">
         <f>((AD7)*10)</f>
         <v>270</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="14">
         <f>((AD8)*10)</f>
         <v>130</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="31">
         <f t="shared" ref="AA12:AA13" si="2">SUM(C12:Z12)</f>
         <v>73900</v>
       </c>
-      <c r="AB12" s="45"/>
+      <c r="AB12" s="42"/>
     </row>
     <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <f t="shared" ref="C13:Z13" si="3">C11*C12</f>
         <v>117453</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>D11*D12</f>
         <v>22651.649999999998</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f t="shared" si="3"/>
         <v>6795.4949999999999</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f t="shared" si="3"/>
         <v>2544.8150000000001</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f t="shared" si="3"/>
         <v>31963.994999999999</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="3"/>
         <v>5285.3849999999993</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <f t="shared" si="3"/>
         <v>1057.077</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <f t="shared" si="3"/>
         <v>654.38099999999997</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <f t="shared" si="3"/>
         <v>30554.558999999997</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <f t="shared" si="3"/>
         <v>3641.0429999999997</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <f t="shared" si="3"/>
         <v>1359.0989999999999</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <f t="shared" si="3"/>
         <v>654.38099999999997</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <f t="shared" si="3"/>
         <v>16974.755000000001</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <f t="shared" si="3"/>
         <v>4681.3409999999994</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <f t="shared" si="3"/>
         <v>1359.0989999999999</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="15">
         <f t="shared" si="3"/>
         <v>363.54500000000002</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="15">
         <f t="shared" si="3"/>
         <v>30554.558999999997</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="16">
         <f t="shared" si="3"/>
         <v>4681.3409999999994</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="15">
         <f t="shared" si="3"/>
         <v>755.05499999999995</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="15">
         <f t="shared" si="3"/>
         <v>654.38099999999997</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="16">
         <f t="shared" si="3"/>
         <v>30554.558999999997</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="15">
         <f t="shared" si="3"/>
         <v>2600.7449999999999</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="15">
         <f t="shared" si="3"/>
         <v>1359.0989999999999</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13" s="16">
         <f t="shared" si="3"/>
         <v>654.38099999999997</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13" s="33">
         <f t="shared" si="2"/>
         <v>319807.73999999993</v>
       </c>
-      <c r="AB13" s="45" t="s">
+      <c r="AB13" s="42" t="s">
         <v>47</v>
       </c>
       <c r="AD13">
@@ -2079,35 +2058,35 @@
     </row>
     <row r="14" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="45" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="42" t="s">
         <v>48</v>
       </c>
       <c r="AD14">
@@ -2117,83 +2096,83 @@
     </row>
     <row r="15" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>0.1</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>0.1</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>0.1</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>0.1</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <v>0.1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>0.1</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>0.1</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>0.1</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <v>0.1</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="25">
         <v>0.1</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="25">
         <v>0.1</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>0.1</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <v>0.1</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
         <v>0.1</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="25">
         <v>0.1</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="25">
         <v>0.1</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="25">
         <v>0.1</v>
       </c>
-      <c r="U15" s="26">
+      <c r="U15" s="25">
         <v>0.1</v>
       </c>
-      <c r="V15" s="26">
+      <c r="V15" s="25">
         <v>0.1</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="25">
         <v>0.1</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="25">
         <v>0.1</v>
       </c>
-      <c r="Y15" s="26">
+      <c r="Y15" s="25">
         <v>0.1</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="45" t="s">
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="42" t="s">
         <v>49</v>
       </c>
       <c r="AD15">
@@ -2203,82 +2182,82 @@
     </row>
     <row r="16" spans="1:31" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>0</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>0</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>0</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <v>0</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>0</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="26">
         <v>0</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>0</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <v>0</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="26">
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>0</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="26">
         <v>0</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="26">
         <v>0</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="26">
         <v>0</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="26">
         <v>0</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="12">
         <v>0</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="26">
         <v>0</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="26">
         <v>0</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="12">
         <v>0</v>
       </c>
-      <c r="AA16" s="58"/>
+      <c r="AA16" s="56"/>
       <c r="AB16" t="s">
         <v>50</v>
       </c>
@@ -2289,106 +2268,106 @@
     </row>
     <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <f t="shared" ref="C17:Z17" si="5">C15-(C15*C16/100)</f>
         <v>0.1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="28">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="13">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA17" s="58"/>
+      <c r="AA17" s="56"/>
       <c r="AB17" t="s">
         <v>51</v>
       </c>
@@ -2399,82 +2378,82 @@
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>0</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>0</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>0</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <v>0</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <v>0</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="26">
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="26">
         <v>0</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>0</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="26">
         <v>0</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="26">
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>0</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="26">
         <v>0</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="26">
         <v>0</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="12">
         <v>0</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="26">
         <v>0</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="26">
         <v>0</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="12">
         <v>0</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X18" s="26">
         <v>0</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="Y18" s="26">
         <v>0</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z18" s="12">
         <v>0</v>
       </c>
-      <c r="AA18" s="58"/>
+      <c r="AA18" s="56"/>
       <c r="AB18" t="s">
         <v>52</v>
       </c>
@@ -2485,106 +2464,106 @@
     </row>
     <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <f t="shared" ref="C19:Z19" si="6">C17-(C17*C18/100)</f>
         <v>0.1</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="Y19" s="28">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z19" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="58"/>
+      <c r="AA19" s="56"/>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
@@ -2595,86 +2574,86 @@
     </row>
     <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="30">
         <v>80000</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>50000</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>40000</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>35000</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="30">
         <v>30000</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <v>28000</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="30">
         <v>26000</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="30">
         <v>25000</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>25000</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>25000</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="14">
         <v>25000</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>25000</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <v>25000</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <v>25000</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="14">
         <v>25000</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="14">
         <v>25000</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="14">
         <v>25000</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="14">
         <v>25000</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="14">
         <v>25000</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="14">
         <v>25000</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="14">
         <v>25000</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X20" s="14">
         <v>25000</v>
       </c>
-      <c r="Y20" s="15">
+      <c r="Y20" s="14">
         <v>25000</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="14">
         <v>25000</v>
       </c>
-      <c r="AA20" s="32">
+      <c r="AA20" s="31">
         <f t="shared" ref="AA20:AA21" si="7">SUM(C20:Z20)</f>
         <v>714000</v>
       </c>
-      <c r="AB20" s="49">
+      <c r="AB20" s="43">
         <f>SUM(C20:Z20)</f>
         <v>714000</v>
       </c>
@@ -2685,106 +2664,106 @@
     </row>
     <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <f>C19*C20</f>
         <v>8000</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f t="shared" ref="D21:Z21" si="8">D19*D20</f>
         <v>5000</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <f t="shared" si="8"/>
         <v>2600</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="16">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="16">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="16">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="16">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Y21" s="15">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="Z21" s="17">
+      <c r="Z21" s="16">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="AA21" s="33">
         <f t="shared" si="7"/>
         <v>71400</v>
       </c>
@@ -2795,34 +2774,34 @@
     </row>
     <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="35"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="34"/>
       <c r="AD22">
         <f t="shared" si="4"/>
         <v>805</v>
@@ -2830,82 +2809,82 @@
     </row>
     <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>2.99</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>2.99</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>2.99</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>2.99</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>2.99</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>2.99</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>2.99</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>2.99</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>2.99</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <v>2.99</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>2.99</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="25">
         <v>2.99</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="25">
         <v>2.99</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="25">
         <v>2.99</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="25">
         <v>2.99</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="25">
         <v>2.99</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="25">
         <v>2.99</v>
       </c>
-      <c r="T23" s="26">
+      <c r="T23" s="25">
         <v>2.99</v>
       </c>
-      <c r="U23" s="26">
+      <c r="U23" s="25">
         <v>2.99</v>
       </c>
-      <c r="V23" s="26">
+      <c r="V23" s="25">
         <v>2.99</v>
       </c>
-      <c r="W23" s="26">
+      <c r="W23" s="25">
         <v>2.99</v>
       </c>
-      <c r="X23" s="26">
+      <c r="X23" s="25">
         <v>2.99</v>
       </c>
-      <c r="Y23" s="26">
+      <c r="Y23" s="25">
         <v>2.99</v>
       </c>
-      <c r="Z23" s="26">
+      <c r="Z23" s="25">
         <v>2.99</v>
       </c>
-      <c r="AA23" s="57"/>
+      <c r="AA23" s="55"/>
       <c r="AD23">
         <f t="shared" si="4"/>
         <v>644</v>
@@ -2913,82 +2892,82 @@
     </row>
     <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>0</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>0</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>0</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <v>0</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>0</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>0</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <v>0</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <v>0</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="26">
         <v>0</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="26">
         <v>0</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="12">
         <v>0</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="26">
         <v>0</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="26">
         <v>0</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="12">
         <v>0</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="26">
         <v>0</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="26">
         <v>0</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="12">
         <v>0</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="26">
         <v>0</v>
       </c>
-      <c r="V24" s="27">
+      <c r="V24" s="26">
         <v>0</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="12">
         <v>0</v>
       </c>
-      <c r="X24" s="27">
+      <c r="X24" s="26">
         <v>0</v>
       </c>
-      <c r="Y24" s="27">
+      <c r="Y24" s="26">
         <v>0</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="12">
         <v>0</v>
       </c>
-      <c r="AA24" s="58"/>
+      <c r="AA24" s="56"/>
       <c r="AD24">
         <f t="shared" si="4"/>
         <v>515</v>
@@ -2996,106 +2975,106 @@
     </row>
     <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <f t="shared" ref="C25:Z25" si="9">C23-(C23*C24/100)</f>
         <v>2.99</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="V25" s="29">
+      <c r="V25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="X25" s="29">
+      <c r="X25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="Y25" s="29">
+      <c r="Y25" s="28">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z25" s="13">
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="AA25" s="58"/>
+      <c r="AA25" s="56"/>
       <c r="AD25">
         <f t="shared" si="4"/>
         <v>412</v>
@@ -3103,82 +3082,82 @@
     </row>
     <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>30</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>30</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <v>30</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="26">
         <v>30</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <v>30</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>30</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>30</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>30</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <v>30</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <v>30</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="26">
         <v>30</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="26">
         <v>30</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <v>30</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="26">
         <v>30</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="26">
         <v>30</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="26">
         <v>30</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="26">
         <v>30</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="26">
         <v>30</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="26">
         <v>30</v>
       </c>
-      <c r="V26" s="27">
+      <c r="V26" s="26">
         <v>30</v>
       </c>
-      <c r="W26" s="27">
+      <c r="W26" s="26">
         <v>30</v>
       </c>
-      <c r="X26" s="27">
+      <c r="X26" s="26">
         <v>30</v>
       </c>
-      <c r="Y26" s="27">
+      <c r="Y26" s="26">
         <v>30</v>
       </c>
-      <c r="Z26" s="27">
+      <c r="Z26" s="26">
         <v>30</v>
       </c>
-      <c r="AA26" s="58"/>
+      <c r="AA26" s="56"/>
       <c r="AD26">
         <f t="shared" si="4"/>
         <v>330</v>
@@ -3186,106 +3165,106 @@
     </row>
     <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <f t="shared" ref="C27:Z27" si="10">C25-(C25*C26/100)</f>
         <v>2.093</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="R27" s="29">
+      <c r="R27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="S27" s="29">
+      <c r="S27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="X27" s="29">
+      <c r="X27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="Y27" s="29">
+      <c r="Y27" s="28">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z27" s="13">
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="AA27" s="58"/>
+      <c r="AA27" s="56"/>
       <c r="AD27">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -3293,106 +3272,106 @@
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <f>0.04*80000</f>
         <v>3200</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <f>0.04*50000</f>
         <v>2000</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <f>0.04*40000</f>
         <v>1600</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <f>0.04*35000</f>
         <v>1400</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <f>0.04*30000</f>
         <v>1200</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <f>0.04*28000</f>
         <v>1120</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="30">
         <f>0.04*26000</f>
         <v>1040</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="30">
         <f t="shared" ref="J28:Z28" si="11">0.04*25000</f>
         <v>1000</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="R28" s="31">
+      <c r="R28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="T28" s="31">
+      <c r="T28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="V28" s="31">
+      <c r="V28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="W28" s="31">
+      <c r="W28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="X28" s="31">
+      <c r="X28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="Y28" s="31">
+      <c r="Y28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="Z28" s="31">
+      <c r="Z28" s="30">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
-      <c r="AA28" s="32">
+      <c r="AA28" s="31">
         <f>SUM(C28:Z28)</f>
         <v>28560</v>
       </c>
@@ -3403,106 +3382,106 @@
     </row>
     <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <f t="shared" ref="C29:Z29" si="12">C27*C28</f>
         <v>6697.6</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <f t="shared" si="12"/>
         <v>4186</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f t="shared" si="12"/>
         <v>3348.8</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <f t="shared" si="12"/>
         <v>2930.2</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <f t="shared" si="12"/>
         <v>2511.6</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <f t="shared" si="12"/>
         <v>2344.16</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <f t="shared" si="12"/>
         <v>2176.7199999999998</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="17">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="17">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="R29" s="36">
+      <c r="R29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="S29" s="36">
+      <c r="S29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="17">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="U29" s="36">
+      <c r="U29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="V29" s="36">
+      <c r="V29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="17">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="X29" s="36">
+      <c r="X29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="Y29" s="36">
+      <c r="Y29" s="35">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="17">
         <f t="shared" si="12"/>
         <v>2093</v>
       </c>
-      <c r="AA29" s="37">
+      <c r="AA29" s="36">
         <f>SUM(C29:Z29)</f>
         <v>59776.08</v>
       </c>
@@ -3513,34 +3492,34 @@
     </row>
     <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="35"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="34"/>
       <c r="AD30">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -3548,82 +3527,82 @@
     </row>
     <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="R31" s="26">
+      <c r="R31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="S31" s="26">
+      <c r="S31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="V31" s="26">
+      <c r="V31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="W31" s="26">
+      <c r="W31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="X31" s="26">
+      <c r="X31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="Y31" s="26">
+      <c r="Y31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="Z31" s="26">
+      <c r="Z31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA31" s="57"/>
+      <c r="AA31" s="55"/>
       <c r="AD31">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -3631,82 +3610,82 @@
     </row>
     <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>20</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>10</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>10</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="26">
         <v>20</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="26">
         <v>10</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>10</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="26">
         <v>20</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="26">
         <v>10</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <v>10</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <v>20</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="26">
         <v>10</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="12">
         <v>10</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="26">
         <v>35</v>
       </c>
-      <c r="P32" s="27">
+      <c r="P32" s="26">
         <v>10</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="12">
         <v>10</v>
       </c>
-      <c r="R32" s="27">
+      <c r="R32" s="26">
         <v>35</v>
       </c>
-      <c r="S32" s="27">
+      <c r="S32" s="26">
         <v>10</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="12">
         <v>10</v>
       </c>
-      <c r="U32" s="27">
+      <c r="U32" s="26">
         <v>35</v>
       </c>
-      <c r="V32" s="27">
+      <c r="V32" s="26">
         <v>10</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="12">
         <v>10</v>
       </c>
-      <c r="X32" s="27">
+      <c r="X32" s="26">
         <v>35</v>
       </c>
-      <c r="Y32" s="27">
+      <c r="Y32" s="26">
         <v>10</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="12">
         <v>10</v>
       </c>
-      <c r="AA32" s="58"/>
+      <c r="AA32" s="56"/>
       <c r="AD32">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3714,106 +3693,106 @@
     </row>
     <row r="33" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <f t="shared" ref="C33:Z33" si="13">C31-(C31*C32/100)</f>
         <v>15.991999999999999</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <f t="shared" si="13"/>
         <v>15.991999999999999</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <f t="shared" si="13"/>
         <v>15.991999999999999</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="28">
         <f t="shared" si="13"/>
         <v>15.991999999999999</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="28">
         <f t="shared" si="13"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R33" s="28">
         <f t="shared" si="13"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="S33" s="29">
+      <c r="S33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="U33" s="29">
+      <c r="U33" s="28">
         <f t="shared" si="13"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="V33" s="29">
+      <c r="V33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="X33" s="29">
+      <c r="X33" s="28">
         <f t="shared" si="13"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="Y33" s="29">
+      <c r="Y33" s="28">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="Z33" s="13">
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="AA33" s="58"/>
+      <c r="AA33" s="56"/>
       <c r="AD33">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3821,82 +3800,82 @@
     </row>
     <row r="34" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>30</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>30</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>30</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="26">
         <v>30</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="26">
         <v>30</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <v>30</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="26">
         <v>30</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="26">
         <v>30</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K34" s="26">
         <v>30</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="26">
         <v>30</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M34" s="26">
         <v>30</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="26">
         <v>30</v>
       </c>
-      <c r="O34" s="27">
+      <c r="O34" s="26">
         <v>30</v>
       </c>
-      <c r="P34" s="27">
+      <c r="P34" s="26">
         <v>30</v>
       </c>
-      <c r="Q34" s="27">
+      <c r="Q34" s="26">
         <v>30</v>
       </c>
-      <c r="R34" s="27">
+      <c r="R34" s="26">
         <v>30</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34" s="26">
         <v>30</v>
       </c>
-      <c r="T34" s="27">
+      <c r="T34" s="26">
         <v>30</v>
       </c>
-      <c r="U34" s="27">
+      <c r="U34" s="26">
         <v>30</v>
       </c>
-      <c r="V34" s="27">
+      <c r="V34" s="26">
         <v>30</v>
       </c>
-      <c r="W34" s="27">
+      <c r="W34" s="26">
         <v>30</v>
       </c>
-      <c r="X34" s="27">
+      <c r="X34" s="26">
         <v>30</v>
       </c>
-      <c r="Y34" s="27">
+      <c r="Y34" s="26">
         <v>30</v>
       </c>
-      <c r="Z34" s="27">
+      <c r="Z34" s="26">
         <v>30</v>
       </c>
-      <c r="AA34" s="58"/>
+      <c r="AA34" s="56"/>
       <c r="AD34">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -3904,217 +3883,217 @@
     </row>
     <row r="35" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <f t="shared" ref="C35:Z35" si="14">C33-(C33*C34/100)</f>
         <v>11.194399999999998</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="28">
         <f t="shared" si="14"/>
         <v>11.194399999999998</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <f t="shared" si="14"/>
         <v>11.194399999999998</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="28">
         <f t="shared" si="14"/>
         <v>11.194399999999998</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="28">
         <f t="shared" si="14"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="R35" s="29">
+      <c r="R35" s="28">
         <f t="shared" si="14"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="S35" s="29">
+      <c r="S35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="U35" s="29">
+      <c r="U35" s="28">
         <f t="shared" si="14"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="X35" s="29">
+      <c r="X35" s="28">
         <f t="shared" si="14"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="Y35" s="29">
+      <c r="Y35" s="28">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="Z35" s="14">
+      <c r="Z35" s="13">
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="AA35" s="58"/>
+      <c r="AA35" s="56"/>
       <c r="AD35">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="30" t="s">
+    <row r="36" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <f>AD13</f>
         <v>6000</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <f>AD14</f>
         <v>4800</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <f>AD15</f>
         <v>3840</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <f>AD16</f>
         <v>3072</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <f>AD17</f>
         <v>2458</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <f>AD18</f>
         <v>1966</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="30">
         <f>AD19</f>
         <v>1573</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="30">
         <f>AD20</f>
         <v>1258</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="14">
         <f>AD21</f>
         <v>1006</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <f>AD22</f>
         <v>805</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="30">
         <f>AD23</f>
         <v>644</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="14">
         <f>AD24</f>
         <v>515</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="30">
         <f>AD25</f>
         <v>412</v>
       </c>
-      <c r="P36" s="31">
+      <c r="P36" s="30">
         <f>AD26</f>
         <v>330</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="14">
         <f>AD27</f>
         <v>264</v>
       </c>
-      <c r="R36" s="31">
+      <c r="R36" s="30">
         <f>AD28</f>
         <v>211</v>
       </c>
-      <c r="S36" s="31">
+      <c r="S36" s="30">
         <f>AD29</f>
         <v>169</v>
       </c>
-      <c r="T36" s="15">
+      <c r="T36" s="14">
         <f>AD30</f>
         <v>135</v>
       </c>
-      <c r="U36" s="31">
+      <c r="U36" s="30">
         <f>AD31</f>
         <v>108</v>
       </c>
-      <c r="V36" s="31">
+      <c r="V36" s="30">
         <f>AD32</f>
         <v>86</v>
       </c>
-      <c r="W36" s="15">
+      <c r="W36" s="14">
         <f>AD33</f>
         <v>69</v>
       </c>
-      <c r="X36" s="31">
+      <c r="X36" s="30">
         <f>AD34</f>
         <v>55</v>
       </c>
-      <c r="Y36" s="31">
+      <c r="Y36" s="30">
         <f>AD35</f>
         <v>44</v>
       </c>
-      <c r="Z36" s="15">
+      <c r="Z36" s="14">
         <f>AD36</f>
         <v>35</v>
       </c>
-      <c r="AA36" s="32">
+      <c r="AA36" s="31">
         <f>SUM(C36:Z36)</f>
         <v>29855</v>
       </c>
-      <c r="AB36" s="50">
+      <c r="AB36" s="44">
         <f>SUM(C36:Z36)</f>
         <v>29855</v>
       </c>
@@ -4134,112 +4113,112 @@
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
     </row>
-    <row r="37" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="28" t="s">
+    <row r="37" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="35">
         <f t="shared" ref="C37:Z37" si="15">C35*C36</f>
         <v>67166.399999999994</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <f t="shared" si="15"/>
         <v>60449.759999999995</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <f t="shared" si="15"/>
         <v>48359.80799999999</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <f t="shared" si="15"/>
         <v>34389.196799999991</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <f t="shared" si="15"/>
         <v>30955.314599999994</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <f t="shared" si="15"/>
         <v>24759.214199999999</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="35">
         <f t="shared" si="15"/>
         <v>17608.791199999996</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <f t="shared" si="15"/>
         <v>15842.874599999997</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="17">
         <f t="shared" si="15"/>
         <v>12669.262199999999</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="35">
         <f t="shared" si="15"/>
         <v>9011.4919999999984</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="35">
         <f t="shared" si="15"/>
         <v>8110.3427999999985</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="17">
         <f t="shared" si="15"/>
         <v>6485.7554999999993</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="35">
         <f t="shared" si="15"/>
         <v>3747.3253999999993</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="35">
         <f t="shared" si="15"/>
         <v>4155.9209999999994</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="17">
         <f t="shared" si="15"/>
         <v>3324.7367999999997</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="35">
         <f t="shared" si="15"/>
         <v>1919.1399499999995</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="35">
         <f t="shared" si="15"/>
         <v>2128.3352999999997</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="17">
         <f t="shared" si="15"/>
         <v>1700.1494999999998</v>
       </c>
-      <c r="U37" s="36">
+      <c r="U37" s="35">
         <f t="shared" si="15"/>
         <v>982.30859999999973</v>
       </c>
-      <c r="V37" s="36">
+      <c r="V37" s="35">
         <f t="shared" si="15"/>
         <v>1083.0581999999999</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W37" s="17">
         <f t="shared" si="15"/>
         <v>868.96529999999984</v>
       </c>
-      <c r="X37" s="36">
+      <c r="X37" s="35">
         <f t="shared" si="15"/>
         <v>500.24974999999989</v>
       </c>
-      <c r="Y37" s="36">
+      <c r="Y37" s="35">
         <f t="shared" si="15"/>
         <v>554.12279999999987</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z37" s="17">
         <f t="shared" si="15"/>
         <v>440.77949999999993</v>
       </c>
-      <c r="AA37" s="37">
+      <c r="AA37" s="36">
         <f>SUM(C37:Z37)</f>
         <v>357213.30399999983</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AB37" s="9">
         <f>AB36*3</f>
         <v>89565</v>
       </c>
@@ -4247,1478 +4226,1478 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="AQ37" s="7"/>
-      <c r="AR37" s="7"/>
-      <c r="AS37" s="7"/>
-      <c r="AT37" s="7"/>
-      <c r="AU37" s="7"/>
-      <c r="AV37" s="7"/>
-      <c r="AW37" s="7"/>
-      <c r="AX37" s="7"/>
-      <c r="AY37" s="7"/>
-      <c r="AZ37" s="7"/>
-      <c r="BA37" s="7"/>
-    </row>
-    <row r="38" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="23" t="s">
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+    </row>
+    <row r="38" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="35"/>
-      <c r="AQ38" s="7"/>
-      <c r="AR38" s="7"/>
-      <c r="AS38" s="7"/>
-      <c r="AT38" s="7"/>
-      <c r="AU38" s="7"/>
-      <c r="AV38" s="7"/>
-      <c r="AW38" s="7"/>
-      <c r="AX38" s="7"/>
-      <c r="AY38" s="7"/>
-      <c r="AZ38" s="7"/>
-      <c r="BA38" s="7"/>
-    </row>
-    <row r="39" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="25" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="34"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+    </row>
+    <row r="39" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="N39" s="26">
+      <c r="N39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="T39" s="26">
+      <c r="T39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="V39" s="26">
+      <c r="V39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="W39" s="26">
+      <c r="W39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="X39" s="26">
+      <c r="X39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="Y39" s="26">
+      <c r="Y39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="Z39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA39" s="63"/>
-      <c r="AQ39" s="7"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="7"/>
-      <c r="AT39" s="7"/>
-      <c r="AU39" s="7"/>
-      <c r="AV39" s="7"/>
-      <c r="AW39" s="7"/>
-      <c r="AX39" s="7"/>
-      <c r="AY39" s="7"/>
-      <c r="AZ39" s="7"/>
-      <c r="BA39" s="7"/>
-    </row>
-    <row r="40" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="25" t="s">
+      <c r="AA39" s="61"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+    </row>
+    <row r="40" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <v>20</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <v>10</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>10</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="26">
         <v>20</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="26">
         <v>10</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>10</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="26">
         <v>20</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="26">
         <v>10</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <v>10</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="26">
         <v>20</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="26">
         <v>10</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="12">
         <v>10</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O40" s="26">
         <v>35</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="26">
         <v>10</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="12">
         <v>10</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="26">
         <v>35</v>
       </c>
-      <c r="S40" s="27">
+      <c r="S40" s="26">
         <v>10</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="12">
         <v>10</v>
       </c>
-      <c r="U40" s="27">
+      <c r="U40" s="26">
         <v>35</v>
       </c>
-      <c r="V40" s="27">
+      <c r="V40" s="26">
         <v>10</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="12">
         <v>10</v>
       </c>
-      <c r="X40" s="27">
+      <c r="X40" s="26">
         <v>35</v>
       </c>
-      <c r="Y40" s="27">
+      <c r="Y40" s="26">
         <v>10</v>
       </c>
-      <c r="Z40" s="13">
+      <c r="Z40" s="12">
         <v>10</v>
       </c>
-      <c r="AA40" s="63"/>
-      <c r="AQ40" s="7"/>
-      <c r="AR40" s="7"/>
-      <c r="AS40" s="7"/>
-      <c r="AT40" s="7"/>
-      <c r="AU40" s="7"/>
-      <c r="AV40" s="7"/>
-      <c r="AW40" s="7"/>
-      <c r="AX40" s="7"/>
-      <c r="AY40" s="7"/>
-      <c r="AZ40" s="7"/>
-      <c r="BA40" s="7"/>
-    </row>
-    <row r="41" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="28" t="s">
+      <c r="AA40" s="61"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+    </row>
+    <row r="41" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <f t="shared" ref="C41:Z41" si="16">C39-(C39*C40/100)</f>
         <v>15.991999999999999</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="28">
         <f t="shared" si="16"/>
         <v>15.991999999999999</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="28">
         <f t="shared" si="16"/>
         <v>15.991999999999999</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="28">
         <f t="shared" si="16"/>
         <v>15.991999999999999</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="28">
         <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="P41" s="29">
+      <c r="P41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="R41" s="29">
+      <c r="R41" s="28">
         <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="S41" s="29">
+      <c r="S41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="U41" s="29">
+      <c r="U41" s="28">
         <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="V41" s="29">
+      <c r="V41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="X41" s="29">
+      <c r="X41" s="28">
         <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
-      <c r="Y41" s="29">
+      <c r="Y41" s="28">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="Z41" s="13">
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="AA41" s="63"/>
-      <c r="AQ41" s="7"/>
-      <c r="AR41" s="7"/>
-      <c r="AS41" s="7"/>
-      <c r="AT41" s="7"/>
-      <c r="AU41" s="7"/>
-      <c r="AV41" s="7"/>
-      <c r="AW41" s="7"/>
-      <c r="AX41" s="7"/>
-      <c r="AY41" s="7"/>
-      <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-    </row>
-    <row r="42" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="25" t="s">
+      <c r="AA41" s="61"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6"/>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6"/>
+      <c r="BA41" s="6"/>
+    </row>
+    <row r="42" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <v>30</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="26">
         <v>30</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>30</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="26">
         <v>30</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="26">
         <v>30</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="26">
         <v>30</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="26">
         <v>30</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="26">
         <v>30</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="26">
         <v>30</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="26">
         <v>30</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="26">
         <v>30</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="26">
         <v>30</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O42" s="26">
         <v>30</v>
       </c>
-      <c r="P42" s="27">
+      <c r="P42" s="26">
         <v>30</v>
       </c>
-      <c r="Q42" s="27">
+      <c r="Q42" s="26">
         <v>30</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="26">
         <v>30</v>
       </c>
-      <c r="S42" s="27">
+      <c r="S42" s="26">
         <v>30</v>
       </c>
-      <c r="T42" s="27">
+      <c r="T42" s="26">
         <v>30</v>
       </c>
-      <c r="U42" s="27">
+      <c r="U42" s="26">
         <v>30</v>
       </c>
-      <c r="V42" s="27">
+      <c r="V42" s="26">
         <v>30</v>
       </c>
-      <c r="W42" s="27">
+      <c r="W42" s="26">
         <v>30</v>
       </c>
-      <c r="X42" s="27">
+      <c r="X42" s="26">
         <v>30</v>
       </c>
-      <c r="Y42" s="27">
+      <c r="Y42" s="26">
         <v>30</v>
       </c>
-      <c r="Z42" s="27">
+      <c r="Z42" s="26">
         <v>30</v>
       </c>
-      <c r="AA42" s="63"/>
-      <c r="AB42" s="51">
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="45">
         <f>AA37+AA45+AA53</f>
         <v>1018031.1119999995</v>
       </c>
-      <c r="AQ42" s="7"/>
-      <c r="AR42" s="7"/>
-      <c r="AS42" s="7"/>
-      <c r="AT42" s="7"/>
-      <c r="AU42" s="7"/>
-      <c r="AV42" s="7"/>
-      <c r="AW42" s="7"/>
-      <c r="AX42" s="7"/>
-      <c r="AY42" s="7"/>
-      <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-    </row>
-    <row r="43" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="28" t="s">
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="6"/>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="6"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="6"/>
+      <c r="AZ42" s="6"/>
+      <c r="BA42" s="6"/>
+    </row>
+    <row r="43" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <f t="shared" ref="C43:Z43" si="17">C41-(C41*C42/100)</f>
         <v>11.194399999999998</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="28">
         <f t="shared" si="17"/>
         <v>11.194399999999998</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="28">
         <f t="shared" si="17"/>
         <v>11.194399999999998</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="L43" s="29">
+      <c r="L43" s="28">
         <f t="shared" si="17"/>
         <v>11.194399999999998</v>
       </c>
-      <c r="M43" s="29">
+      <c r="M43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="28">
         <f t="shared" si="17"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="P43" s="29">
+      <c r="P43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="R43" s="29">
+      <c r="R43" s="28">
         <f t="shared" si="17"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="S43" s="29">
+      <c r="S43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="U43" s="29">
+      <c r="U43" s="28">
         <f t="shared" si="17"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="W43" s="14">
+      <c r="W43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="X43" s="29">
+      <c r="X43" s="28">
         <f t="shared" si="17"/>
         <v>9.0954499999999978</v>
       </c>
-      <c r="Y43" s="29">
+      <c r="Y43" s="28">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="Z43" s="13">
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="AA43" s="63"/>
-      <c r="AQ43" s="7"/>
-      <c r="AR43" s="7"/>
-      <c r="AS43" s="7"/>
-      <c r="AT43" s="7"/>
-      <c r="AU43" s="7"/>
-      <c r="AV43" s="7"/>
-      <c r="AW43" s="7"/>
-      <c r="AX43" s="7"/>
-      <c r="AY43" s="7"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-    </row>
-    <row r="44" spans="1:53" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="30" t="s">
+      <c r="AA43" s="61"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="6"/>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="6"/>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="6"/>
+    </row>
+    <row r="44" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <f>AD13</f>
         <v>6000</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="30">
         <f>AD14</f>
         <v>4800</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <f>AD15</f>
         <v>3840</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="30">
         <f>AD16</f>
         <v>3072</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="30">
         <f>AD17</f>
         <v>2458</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <f>AD18</f>
         <v>1966</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="30">
         <f>AD19</f>
         <v>1573</v>
       </c>
-      <c r="J44" s="31">
+      <c r="J44" s="30">
         <f>AD20</f>
         <v>1258</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="14">
         <f>AD21</f>
         <v>1006</v>
       </c>
-      <c r="L44" s="31">
+      <c r="L44" s="30">
         <f>AD22</f>
         <v>805</v>
       </c>
-      <c r="M44" s="31">
+      <c r="M44" s="30">
         <f>AD23</f>
         <v>644</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="14">
         <f>AD24</f>
         <v>515</v>
       </c>
-      <c r="O44" s="31">
+      <c r="O44" s="30">
         <f>AD25</f>
         <v>412</v>
       </c>
-      <c r="P44" s="31">
+      <c r="P44" s="30">
         <f>AD26</f>
         <v>330</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="14">
         <f>AD27</f>
         <v>264</v>
       </c>
-      <c r="R44" s="31">
+      <c r="R44" s="30">
         <f>AD28</f>
         <v>211</v>
       </c>
-      <c r="S44" s="31">
+      <c r="S44" s="30">
         <f>AD29</f>
         <v>169</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="14">
         <f>AD30</f>
         <v>135</v>
       </c>
-      <c r="U44" s="31">
+      <c r="U44" s="30">
         <f>AD31</f>
         <v>108</v>
       </c>
-      <c r="V44" s="31">
+      <c r="V44" s="30">
         <f>AD32</f>
         <v>86</v>
       </c>
-      <c r="W44" s="15">
+      <c r="W44" s="14">
         <f>AD33</f>
         <v>69</v>
       </c>
-      <c r="X44" s="31">
+      <c r="X44" s="30">
         <f>AD34</f>
         <v>55</v>
       </c>
-      <c r="Y44" s="31">
+      <c r="Y44" s="30">
         <f>AD35</f>
         <v>44</v>
       </c>
-      <c r="Z44" s="15">
+      <c r="Z44" s="14">
         <f>AD36</f>
         <v>35</v>
       </c>
-      <c r="AA44" s="32">
+      <c r="AA44" s="31">
         <f>SUM(C44:Z44)</f>
         <v>29855</v>
       </c>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
-      <c r="AX44" s="7"/>
-      <c r="AY44" s="7"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
+      <c r="AQ44" s="6"/>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="6"/>
+      <c r="AT44" s="6"/>
+      <c r="AU44" s="6"/>
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="6"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="6"/>
+      <c r="AZ44" s="6"/>
+      <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="35">
         <f t="shared" ref="C45:Z45" si="18">C43*C44</f>
         <v>67166.399999999994</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <f t="shared" si="18"/>
         <v>60449.759999999995</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="17">
         <f t="shared" si="18"/>
         <v>48359.80799999999</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <f t="shared" si="18"/>
         <v>34389.196799999991</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="35">
         <f t="shared" si="18"/>
         <v>30955.314599999994</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="17">
         <f t="shared" si="18"/>
         <v>24759.214199999999</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <f t="shared" si="18"/>
         <v>17608.791199999996</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <f t="shared" si="18"/>
         <v>15842.874599999997</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="17">
         <f t="shared" si="18"/>
         <v>12669.262199999999</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <f t="shared" si="18"/>
         <v>9011.4919999999984</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="35">
         <f t="shared" si="18"/>
         <v>8110.3427999999985</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="17">
         <f t="shared" si="18"/>
         <v>6485.7554999999993</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="35">
         <f t="shared" si="18"/>
         <v>3747.3253999999993</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="35">
         <f t="shared" si="18"/>
         <v>4155.9209999999994</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="Q45" s="17">
         <f t="shared" si="18"/>
         <v>3324.7367999999997</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="35">
         <f t="shared" si="18"/>
         <v>1919.1399499999995</v>
       </c>
-      <c r="S45" s="36">
+      <c r="S45" s="35">
         <f t="shared" si="18"/>
         <v>2128.3352999999997</v>
       </c>
-      <c r="T45" s="18">
+      <c r="T45" s="17">
         <f t="shared" si="18"/>
         <v>1700.1494999999998</v>
       </c>
-      <c r="U45" s="36">
+      <c r="U45" s="35">
         <f t="shared" si="18"/>
         <v>982.30859999999973</v>
       </c>
-      <c r="V45" s="36">
+      <c r="V45" s="35">
         <f t="shared" si="18"/>
         <v>1083.0581999999999</v>
       </c>
-      <c r="W45" s="18">
+      <c r="W45" s="17">
         <f t="shared" si="18"/>
         <v>868.96529999999984</v>
       </c>
-      <c r="X45" s="36">
+      <c r="X45" s="35">
         <f t="shared" si="18"/>
         <v>500.24974999999989</v>
       </c>
-      <c r="Y45" s="36">
+      <c r="Y45" s="35">
         <f t="shared" si="18"/>
         <v>554.12279999999987</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="Z45" s="17">
         <f t="shared" si="18"/>
         <v>440.77949999999993</v>
       </c>
-      <c r="AA45" s="37">
+      <c r="AA45" s="36">
         <f>SUM(C45:Z45)</f>
         <v>357213.30399999983</v>
       </c>
-      <c r="AQ45" s="7"/>
-      <c r="AR45" s="7"/>
-      <c r="AS45" s="7"/>
-      <c r="AT45" s="7"/>
-      <c r="AU45" s="7"/>
-      <c r="AV45" s="7"/>
-      <c r="AW45" s="7"/>
-      <c r="AX45" s="7"/>
-      <c r="AY45" s="7"/>
-      <c r="AZ45" s="7"/>
-      <c r="BA45" s="7"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+      <c r="BA45" s="6"/>
     </row>
     <row r="46" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="35"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="59"/>
+      <c r="V46" s="59"/>
+      <c r="W46" s="59"/>
+      <c r="X46" s="59"/>
+      <c r="Y46" s="59"/>
+      <c r="Z46" s="59"/>
+      <c r="AA46" s="34"/>
     </row>
     <row r="47" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="N47" s="26">
+      <c r="N47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="O47" s="26">
+      <c r="O47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="P47" s="26">
+      <c r="P47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="R47" s="26">
+      <c r="R47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="S47" s="26">
+      <c r="S47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="T47" s="26">
+      <c r="T47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="U47" s="26">
+      <c r="U47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="V47" s="26">
+      <c r="V47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="W47" s="26">
+      <c r="W47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="X47" s="26">
+      <c r="X47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="Y47" s="26">
+      <c r="Y47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="Z47" s="26">
+      <c r="Z47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="AA47" s="63"/>
+      <c r="AA47" s="61"/>
     </row>
     <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="26">
         <v>20</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="26">
         <v>10</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>10</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>20</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="26">
         <v>10</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <v>10</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="26">
         <v>20</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J48" s="26">
         <v>10</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="12">
         <v>10</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="26">
         <v>20</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="26">
         <v>10</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="12">
         <v>10</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="26">
         <v>35</v>
       </c>
-      <c r="P48" s="27">
+      <c r="P48" s="26">
         <v>10</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="12">
         <v>10</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="26">
         <v>35</v>
       </c>
-      <c r="S48" s="27">
+      <c r="S48" s="26">
         <v>10</v>
       </c>
-      <c r="T48" s="13">
+      <c r="T48" s="12">
         <v>10</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="26">
         <v>35</v>
       </c>
-      <c r="V48" s="27">
+      <c r="V48" s="26">
         <v>10</v>
       </c>
-      <c r="W48" s="13">
+      <c r="W48" s="12">
         <v>10</v>
       </c>
-      <c r="X48" s="27">
+      <c r="X48" s="26">
         <v>35</v>
       </c>
-      <c r="Y48" s="27">
+      <c r="Y48" s="26">
         <v>10</v>
       </c>
-      <c r="Z48" s="13">
+      <c r="Z48" s="12">
         <v>10</v>
       </c>
-      <c r="AA48" s="63"/>
+      <c r="AA48" s="61"/>
     </row>
     <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="28">
         <f t="shared" ref="C49:Z49" si="19">C47-(C47*C48/100)</f>
         <v>13.591999999999999</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <f t="shared" si="19"/>
         <v>13.591999999999999</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="28">
         <f t="shared" si="19"/>
         <v>13.591999999999999</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L49" s="28">
         <f t="shared" si="19"/>
         <v>13.591999999999999</v>
       </c>
-      <c r="M49" s="29">
+      <c r="M49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="28">
         <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
-      <c r="P49" s="29">
+      <c r="P49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="R49" s="29">
+      <c r="R49" s="28">
         <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
-      <c r="S49" s="29">
+      <c r="S49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="U49" s="29">
+      <c r="U49" s="28">
         <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
-      <c r="V49" s="29">
+      <c r="V49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="W49" s="14">
+      <c r="W49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="X49" s="29">
+      <c r="X49" s="28">
         <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
-      <c r="Y49" s="29">
+      <c r="Y49" s="28">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="Z49" s="14">
+      <c r="Z49" s="13">
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="AA49" s="63"/>
+      <c r="AA49" s="61"/>
     </row>
     <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="26">
         <v>30</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>30</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <v>30</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="26">
         <v>30</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="26">
         <v>30</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="26">
         <v>30</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="26">
         <v>30</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="26">
         <v>30</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K50" s="26">
         <v>30</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="26">
         <v>30</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="26">
         <v>30</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="26">
         <v>30</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="26">
         <v>30</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P50" s="26">
         <v>30</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q50" s="26">
         <v>30</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="26">
         <v>30</v>
       </c>
-      <c r="S50" s="27">
+      <c r="S50" s="26">
         <v>30</v>
       </c>
-      <c r="T50" s="27">
+      <c r="T50" s="26">
         <v>30</v>
       </c>
-      <c r="U50" s="27">
+      <c r="U50" s="26">
         <v>30</v>
       </c>
-      <c r="V50" s="27">
+      <c r="V50" s="26">
         <v>30</v>
       </c>
-      <c r="W50" s="27">
+      <c r="W50" s="26">
         <v>30</v>
       </c>
-      <c r="X50" s="27">
+      <c r="X50" s="26">
         <v>30</v>
       </c>
-      <c r="Y50" s="27">
+      <c r="Y50" s="26">
         <v>30</v>
       </c>
-      <c r="Z50" s="27">
+      <c r="Z50" s="26">
         <v>30</v>
       </c>
-      <c r="AA50" s="63"/>
+      <c r="AA50" s="61"/>
     </row>
     <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="28">
         <f t="shared" ref="C51:Z51" si="20">C49-(C49*C50/100)</f>
         <v>9.5143999999999984</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="28">
         <f t="shared" si="20"/>
         <v>9.5143999999999984</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="28">
         <f t="shared" si="20"/>
         <v>9.5143999999999984</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="28">
         <f t="shared" si="20"/>
         <v>9.5143999999999984</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="O51" s="29">
+      <c r="O51" s="28">
         <f t="shared" si="20"/>
         <v>7.7304499999999985</v>
       </c>
-      <c r="P51" s="29">
+      <c r="P51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="R51" s="29">
+      <c r="R51" s="28">
         <f t="shared" si="20"/>
         <v>7.7304499999999985</v>
       </c>
-      <c r="S51" s="29">
+      <c r="S51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="U51" s="29">
+      <c r="U51" s="28">
         <f t="shared" si="20"/>
         <v>7.7304499999999985</v>
       </c>
-      <c r="V51" s="29">
+      <c r="V51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="W51" s="14">
+      <c r="W51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="X51" s="29">
+      <c r="X51" s="28">
         <f t="shared" si="20"/>
         <v>7.7304499999999985</v>
       </c>
-      <c r="Y51" s="29">
+      <c r="Y51" s="28">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="Z51" s="14">
+      <c r="Z51" s="13">
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="AA51" s="63"/>
+      <c r="AA51" s="61"/>
     </row>
     <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="30">
         <f>AD13</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="30">
         <f>AD14</f>
         <v>4800</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <f>AD15</f>
         <v>3840</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="30">
         <f>AD16</f>
         <v>3072</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="30">
         <f>AD17</f>
         <v>2458</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="14">
         <f>AD18</f>
         <v>1966</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="30">
         <f>AD19</f>
         <v>1573</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="30">
         <f>AD20</f>
         <v>1258</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <f>AD21</f>
         <v>1006</v>
       </c>
-      <c r="L52" s="31">
+      <c r="L52" s="30">
         <f>AD22</f>
         <v>805</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M52" s="30">
         <f>AD23</f>
         <v>644</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="14">
         <f>AD24</f>
         <v>515</v>
       </c>
-      <c r="O52" s="31">
+      <c r="O52" s="30">
         <f>AD25</f>
         <v>412</v>
       </c>
-      <c r="P52" s="31">
+      <c r="P52" s="30">
         <f>AD26</f>
         <v>330</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="Q52" s="14">
         <f>AD27</f>
         <v>264</v>
       </c>
-      <c r="R52" s="31">
+      <c r="R52" s="30">
         <f>AD28</f>
         <v>211</v>
       </c>
-      <c r="S52" s="31">
+      <c r="S52" s="30">
         <f>AD29</f>
         <v>169</v>
       </c>
-      <c r="T52" s="15">
+      <c r="T52" s="14">
         <f>AD30</f>
         <v>135</v>
       </c>
-      <c r="U52" s="31">
+      <c r="U52" s="30">
         <f>AD31</f>
         <v>108</v>
       </c>
-      <c r="V52" s="31">
+      <c r="V52" s="30">
         <f>AD32</f>
         <v>86</v>
       </c>
-      <c r="W52" s="15">
+      <c r="W52" s="14">
         <f>AD33</f>
         <v>69</v>
       </c>
-      <c r="X52" s="31">
+      <c r="X52" s="30">
         <f>AD34</f>
         <v>55</v>
       </c>
-      <c r="Y52" s="31">
+      <c r="Y52" s="30">
         <f>AD35</f>
         <v>44</v>
       </c>
-      <c r="Z52" s="15">
+      <c r="Z52" s="14">
         <f>AD36</f>
         <v>35</v>
       </c>
-      <c r="AA52" s="32">
+      <c r="AA52" s="31">
         <f>SUM(C52:Z52)</f>
         <v>29855</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="35">
         <f t="shared" ref="C53:Z53" si="21">C51*C52</f>
         <v>57086.399999999987</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <f t="shared" si="21"/>
         <v>51377.759999999987</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <f t="shared" si="21"/>
         <v>41102.207999999991</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="35">
         <f t="shared" si="21"/>
         <v>29228.236799999995</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="35">
         <f t="shared" si="21"/>
         <v>26309.694599999995</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="17">
         <f t="shared" si="21"/>
         <v>21043.474199999997</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="35">
         <f t="shared" si="21"/>
         <v>14966.151199999997</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <f t="shared" si="21"/>
         <v>13465.254599999997</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="17">
         <f t="shared" si="21"/>
         <v>10767.922199999997</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="35">
         <f t="shared" si="21"/>
         <v>7659.0919999999987</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="35">
         <f t="shared" si="21"/>
         <v>6893.1827999999987</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="17">
         <f t="shared" si="21"/>
         <v>5512.4054999999989</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="35">
         <f t="shared" si="21"/>
         <v>3184.9453999999992</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53" s="35">
         <f t="shared" si="21"/>
         <v>3532.2209999999991</v>
       </c>
-      <c r="Q53" s="18">
+      <c r="Q53" s="17">
         <f t="shared" si="21"/>
         <v>2825.7767999999996</v>
       </c>
-      <c r="R53" s="36">
+      <c r="R53" s="35">
         <f t="shared" si="21"/>
         <v>1631.1249499999997</v>
       </c>
-      <c r="S53" s="36">
+      <c r="S53" s="35">
         <f t="shared" si="21"/>
         <v>1808.9252999999997</v>
       </c>
-      <c r="T53" s="18">
+      <c r="T53" s="17">
         <f t="shared" si="21"/>
         <v>1444.9994999999997</v>
       </c>
-      <c r="U53" s="36">
+      <c r="U53" s="35">
         <f t="shared" si="21"/>
         <v>834.88859999999988</v>
       </c>
-      <c r="V53" s="36">
+      <c r="V53" s="35">
         <f t="shared" si="21"/>
         <v>920.51819999999975</v>
       </c>
-      <c r="W53" s="18">
+      <c r="W53" s="17">
         <f t="shared" si="21"/>
         <v>738.55529999999987</v>
       </c>
-      <c r="X53" s="36">
+      <c r="X53" s="35">
         <f t="shared" si="21"/>
         <v>425.1747499999999</v>
       </c>
-      <c r="Y53" s="36">
+      <c r="Y53" s="35">
         <f t="shared" si="21"/>
         <v>470.9627999999999</v>
       </c>
-      <c r="Z53" s="18">
+      <c r="Z53" s="17">
         <f t="shared" si="21"/>
         <v>374.62949999999989</v>
       </c>
-      <c r="AA53" s="37">
+      <c r="AA53" s="36">
         <f>SUM(C53:Z53)</f>
         <v>303604.5039999999</v>
       </c>
@@ -5899,318 +5878,318 @@
     </row>
     <row r="60" spans="1:27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" ref="C60:Z60" si="22">C28+C20+C12</f>
-        <v>113200</v>
+        <f>C28+C12+C36+C44+C52</f>
+        <v>51200</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="22"/>
-        <v>56500</v>
-      </c>
-      <c r="E60" s="6">
-        <f t="shared" si="22"/>
-        <v>42950</v>
+        <f>D28+D12+D36+D44+D52</f>
+        <v>20900</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" ref="E60:Z60" si="22">E28+E12+E36+E44+E52</f>
+        <v>14470</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="22"/>
-        <v>37050</v>
+        <v>11266</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="22"/>
-        <v>37550</v>
-      </c>
-      <c r="H60" s="6">
+        <v>14924</v>
+      </c>
+      <c r="H60" s="5">
         <f t="shared" si="22"/>
-        <v>30170</v>
+        <v>8068</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" si="22"/>
-        <v>27310</v>
+        <v>6029</v>
       </c>
       <c r="J60" s="5">
         <f t="shared" si="22"/>
-        <v>26130</v>
-      </c>
-      <c r="K60" s="6">
+        <v>4904</v>
+      </c>
+      <c r="K60" s="5">
         <f t="shared" si="22"/>
-        <v>32070</v>
+        <v>10088</v>
       </c>
       <c r="L60" s="5">
         <f t="shared" si="22"/>
-        <v>26930</v>
+        <v>4345</v>
       </c>
       <c r="M60" s="5">
         <f t="shared" si="22"/>
-        <v>26270</v>
-      </c>
-      <c r="N60" s="6">
+        <v>3202</v>
+      </c>
+      <c r="N60" s="5">
         <f t="shared" si="22"/>
-        <v>26130</v>
+        <v>2675</v>
       </c>
       <c r="O60" s="5">
         <f t="shared" si="22"/>
-        <v>32070</v>
+        <v>8306</v>
       </c>
       <c r="P60" s="5">
         <f t="shared" si="22"/>
-        <v>26930</v>
-      </c>
-      <c r="Q60" s="6">
+        <v>2920</v>
+      </c>
+      <c r="Q60" s="5">
         <f t="shared" si="22"/>
-        <v>26270</v>
+        <v>2062</v>
       </c>
       <c r="R60" s="5">
         <f t="shared" si="22"/>
-        <v>26130</v>
+        <v>1763</v>
       </c>
       <c r="S60" s="5">
         <f t="shared" si="22"/>
-        <v>32070</v>
-      </c>
-      <c r="T60" s="6">
+        <v>7577</v>
+      </c>
+      <c r="T60" s="5">
         <f t="shared" si="22"/>
-        <v>26930</v>
+        <v>2335</v>
       </c>
       <c r="U60" s="5">
         <f t="shared" si="22"/>
-        <v>26270</v>
+        <v>1594</v>
       </c>
       <c r="V60" s="5">
         <f t="shared" si="22"/>
-        <v>26130</v>
-      </c>
-      <c r="W60" s="6">
+        <v>1388</v>
+      </c>
+      <c r="W60" s="5">
         <f t="shared" si="22"/>
-        <v>32070</v>
+        <v>7277</v>
       </c>
       <c r="X60" s="5">
         <f t="shared" si="22"/>
-        <v>26930</v>
+        <v>2095</v>
       </c>
       <c r="Y60" s="5">
         <f t="shared" si="22"/>
-        <v>26270</v>
-      </c>
-      <c r="Z60" s="6">
+        <v>1402</v>
+      </c>
+      <c r="Z60" s="5">
         <f t="shared" si="22"/>
-        <v>26130</v>
-      </c>
-      <c r="AA60" s="39">
+        <v>1235</v>
+      </c>
+      <c r="AA60" s="38">
         <f>SUM(C60:Z60)</f>
-        <v>816460</v>
+        <v>192025</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="62">
         <f>C13+C21+C29+C37+C45+C53</f>
         <v>323569.8</v>
       </c>
-      <c r="D61" s="46">
+      <c r="D61" s="62">
         <f>D13+D21+D29+D37+D45+D53</f>
         <v>204114.92999999996</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="62">
         <f t="shared" ref="E61:Z61" si="23">E13+E21+E29+E37+E45+E53</f>
         <v>151966.11899999998</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F61" s="62">
         <f t="shared" si="23"/>
         <v>106981.64539999998</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="62">
         <f>G13+G21+G29+G37+G45+G53</f>
         <v>125695.91879999998</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="62">
         <f t="shared" si="23"/>
         <v>80991.4476</v>
       </c>
-      <c r="I61" s="46">
+      <c r="I61" s="62">
         <f t="shared" si="23"/>
         <v>56017.530599999984</v>
       </c>
-      <c r="J61" s="46">
+      <c r="J61" s="62">
         <f t="shared" si="23"/>
         <v>50398.384799999985</v>
       </c>
-      <c r="K61" s="46">
+      <c r="K61" s="62">
         <f t="shared" si="23"/>
         <v>71254.005599999989</v>
       </c>
-      <c r="L61" s="46">
+      <c r="L61" s="62">
         <f t="shared" si="23"/>
         <v>33916.118999999992</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61" s="62">
         <f t="shared" si="23"/>
         <v>29065.967399999998</v>
       </c>
-      <c r="N61" s="46">
+      <c r="N61" s="62">
         <f t="shared" si="23"/>
         <v>23731.297500000001</v>
       </c>
-      <c r="O61" s="46">
+      <c r="O61" s="62">
         <f t="shared" si="23"/>
         <v>32247.351199999997</v>
       </c>
-      <c r="P61" s="46">
+      <c r="P61" s="62">
         <f t="shared" si="23"/>
         <v>21118.403999999995</v>
       </c>
-      <c r="Q61" s="46">
+      <c r="Q61" s="62">
         <f t="shared" si="23"/>
         <v>15427.349399999999</v>
       </c>
-      <c r="R61" s="46">
+      <c r="R61" s="62">
         <f t="shared" si="23"/>
         <v>10425.949849999999</v>
       </c>
-      <c r="S61" s="46">
+      <c r="S61" s="62">
         <f t="shared" si="23"/>
         <v>41213.154899999994</v>
       </c>
-      <c r="T61" s="46">
+      <c r="T61" s="62">
         <f t="shared" si="23"/>
         <v>14119.639499999999</v>
       </c>
-      <c r="U61" s="46">
+      <c r="U61" s="62">
         <f t="shared" si="23"/>
         <v>8147.5607999999993</v>
       </c>
-      <c r="V61" s="46">
+      <c r="V61" s="62">
         <f t="shared" si="23"/>
         <v>8334.0155999999988</v>
       </c>
-      <c r="W61" s="46">
+      <c r="W61" s="62">
         <f t="shared" si="23"/>
         <v>37624.044899999986</v>
       </c>
-      <c r="X61" s="46">
+      <c r="X61" s="62">
         <f t="shared" si="23"/>
         <v>8619.419249999999</v>
       </c>
-      <c r="Y61" s="46">
+      <c r="Y61" s="62">
         <f t="shared" si="23"/>
         <v>7531.3074000000006</v>
       </c>
-      <c r="Z61" s="46">
+      <c r="Z61" s="62">
         <f t="shared" si="23"/>
         <v>6503.5694999999987</v>
       </c>
-      <c r="AA61" s="41">
+      <c r="AA61" s="63">
         <f>SUM(C61:Z61)</f>
         <v>1469014.932</v>
       </c>
     </row>
     <row r="62" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="47">
+      <c r="C62" s="64">
         <f>C61</f>
         <v>323569.8</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="64">
         <f t="shared" ref="D62:Z62" si="24">D61+C62</f>
         <v>527684.73</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="65">
         <f t="shared" si="24"/>
         <v>679650.84899999993</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="64">
         <f t="shared" si="24"/>
         <v>786632.49439999997</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="64">
         <f t="shared" si="24"/>
         <v>912328.41319999995</v>
       </c>
-      <c r="H62" s="48">
+      <c r="H62" s="65">
         <f t="shared" si="24"/>
         <v>993319.86079999991</v>
       </c>
-      <c r="I62" s="47">
+      <c r="I62" s="64">
         <f t="shared" si="24"/>
         <v>1049337.3913999998</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="64">
         <f t="shared" si="24"/>
         <v>1099735.7761999997</v>
       </c>
-      <c r="K62" s="48">
+      <c r="K62" s="65">
         <f t="shared" si="24"/>
         <v>1170989.7817999998</v>
       </c>
-      <c r="L62" s="47">
+      <c r="L62" s="64">
         <f t="shared" si="24"/>
         <v>1204905.9007999997</v>
       </c>
-      <c r="M62" s="47">
+      <c r="M62" s="64">
         <f t="shared" si="24"/>
         <v>1233971.8681999997</v>
       </c>
-      <c r="N62" s="48">
+      <c r="N62" s="65">
         <f t="shared" si="24"/>
         <v>1257703.1656999998</v>
       </c>
-      <c r="O62" s="47">
+      <c r="O62" s="64">
         <f t="shared" si="24"/>
         <v>1289950.5168999997</v>
       </c>
-      <c r="P62" s="47">
+      <c r="P62" s="64">
         <f t="shared" si="24"/>
         <v>1311068.9208999998</v>
       </c>
-      <c r="Q62" s="48">
+      <c r="Q62" s="65">
         <f t="shared" si="24"/>
         <v>1326496.2702999997</v>
       </c>
-      <c r="R62" s="47">
+      <c r="R62" s="64">
         <f t="shared" si="24"/>
         <v>1336922.2201499997</v>
       </c>
-      <c r="S62" s="47">
+      <c r="S62" s="64">
         <f t="shared" si="24"/>
         <v>1378135.3750499997</v>
       </c>
-      <c r="T62" s="48">
+      <c r="T62" s="65">
         <f t="shared" si="24"/>
         <v>1392255.0145499997</v>
       </c>
-      <c r="U62" s="47">
+      <c r="U62" s="64">
         <f t="shared" si="24"/>
         <v>1400402.5753499998</v>
       </c>
-      <c r="V62" s="47">
+      <c r="V62" s="64">
         <f t="shared" si="24"/>
         <v>1408736.5909499999</v>
       </c>
-      <c r="W62" s="48">
+      <c r="W62" s="65">
         <f t="shared" si="24"/>
         <v>1446360.63585</v>
       </c>
-      <c r="X62" s="47">
+      <c r="X62" s="64">
         <f t="shared" si="24"/>
         <v>1454980.0551</v>
       </c>
-      <c r="Y62" s="47">
+      <c r="Y62" s="64">
         <f t="shared" si="24"/>
         <v>1462511.3625</v>
       </c>
-      <c r="Z62" s="48">
+      <c r="Z62" s="65">
         <f t="shared" si="24"/>
         <v>1469014.932</v>
       </c>
-      <c r="AA62" s="43"/>
+      <c r="AA62" s="66"/>
     </row>
     <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
@@ -6307,21 +6286,21 @@
       <c r="C66" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6336,27 +6315,27 @@
     </row>
     <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="64" t="s">
+      <c r="D67" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -6371,27 +6350,27 @@
     </row>
     <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="D68" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -6406,27 +6385,27 @@
     </row>
     <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="65"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -6441,27 +6420,27 @@
     </row>
     <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
-      <c r="O70" s="65"/>
-      <c r="P70" s="65"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -6476,27 +6455,27 @@
     </row>
     <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="64" t="s">
+      <c r="D71" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -6511,27 +6490,27 @@
     </row>
     <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="D72" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -6546,27 +6525,27 @@
     </row>
     <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="65"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -6581,27 +6560,27 @@
     </row>
     <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="64" t="s">
+      <c r="D74" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
-      <c r="N74" s="65"/>
-      <c r="O74" s="65"/>
-      <c r="P74" s="65"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -6616,27 +6595,27 @@
     </row>
     <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -33331,15 +33310,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="D74:P74"/>
     <mergeCell ref="D66:P66"/>
     <mergeCell ref="C6:Z6"/>
     <mergeCell ref="AA7:AA11"/>
@@ -33354,8 +33324,17 @@
     <mergeCell ref="AA39:AA43"/>
     <mergeCell ref="C46:Z46"/>
     <mergeCell ref="AA47:AA51"/>
+    <mergeCell ref="D75:P75"/>
+    <mergeCell ref="D69:P69"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="D68:P68"/>
+    <mergeCell ref="D70:P70"/>
+    <mergeCell ref="D71:P71"/>
+    <mergeCell ref="D73:P73"/>
+    <mergeCell ref="D72:P72"/>
+    <mergeCell ref="D74:P74"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.51181102362204722" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;9&amp;K000000Screw Drivers&amp;C&amp;9Creactstudios&amp;R12.01.2025</oddHeader>

--- a/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
+++ b/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF2EDC-105D-4CF6-B734-55458CB9D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1DF34-4028-466A-817C-83C338491221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1095" windowWidth="52755" windowHeight="27525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktname_Erlösvorschau" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,18 +787,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -813,11 +806,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1087,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:BA995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
@@ -1243,7 +1246,7 @@
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="41">
         <v>46054</v>
       </c>
@@ -1335,30 +1338,30 @@
       <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="54"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="55"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="42" t="s">
         <v>42</v>
@@ -1445,7 +1448,7 @@
       <c r="Z7" s="25">
         <v>7.99</v>
       </c>
-      <c r="AA7" s="55"/>
+      <c r="AA7" s="56"/>
       <c r="AB7" s="42" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1534,7 @@
       <c r="Z8" s="12">
         <v>10</v>
       </c>
-      <c r="AA8" s="56"/>
+      <c r="AA8" s="57"/>
       <c r="AB8" s="42" t="s">
         <v>44</v>
       </c>
@@ -1640,7 +1643,7 @@
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="AA9" s="56"/>
+      <c r="AA9" s="57"/>
       <c r="AB9" s="42" t="s">
         <v>45</v>
       </c>
@@ -1725,7 +1728,7 @@
       <c r="Z10" s="26">
         <v>30</v>
       </c>
-      <c r="AA10" s="56"/>
+      <c r="AA10" s="57"/>
       <c r="AB10" s="42" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1837,7 @@
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="AA11" s="56"/>
+      <c r="AA11" s="57"/>
       <c r="AB11" s="42"/>
     </row>
     <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.3">
@@ -2061,30 +2064,30 @@
       <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="42" t="s">
         <v>48</v>
@@ -2171,7 +2174,7 @@
       <c r="Z15" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="55"/>
+      <c r="AA15" s="56"/>
       <c r="AB15" s="42" t="s">
         <v>49</v>
       </c>
@@ -2257,7 +2260,7 @@
       <c r="Z16" s="12">
         <v>0</v>
       </c>
-      <c r="AA16" s="56"/>
+      <c r="AA16" s="57"/>
       <c r="AB16" t="s">
         <v>50</v>
       </c>
@@ -2367,7 +2370,7 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA17" s="56"/>
+      <c r="AA17" s="57"/>
       <c r="AB17" t="s">
         <v>51</v>
       </c>
@@ -2453,7 +2456,7 @@
       <c r="Z18" s="12">
         <v>0</v>
       </c>
-      <c r="AA18" s="56"/>
+      <c r="AA18" s="57"/>
       <c r="AB18" t="s">
         <v>52</v>
       </c>
@@ -2563,7 +2566,7 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="56"/>
+      <c r="AA19" s="57"/>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
@@ -2777,30 +2780,30 @@
       <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
       <c r="AA22" s="34"/>
       <c r="AD22">
         <f t="shared" si="4"/>
@@ -2884,7 +2887,7 @@
       <c r="Z23" s="25">
         <v>2.99</v>
       </c>
-      <c r="AA23" s="55"/>
+      <c r="AA23" s="56"/>
       <c r="AD23">
         <f t="shared" si="4"/>
         <v>644</v>
@@ -2967,7 +2970,7 @@
       <c r="Z24" s="12">
         <v>0</v>
       </c>
-      <c r="AA24" s="56"/>
+      <c r="AA24" s="57"/>
       <c r="AD24">
         <f t="shared" si="4"/>
         <v>515</v>
@@ -3074,7 +3077,7 @@
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="AA25" s="56"/>
+      <c r="AA25" s="57"/>
       <c r="AD25">
         <f t="shared" si="4"/>
         <v>412</v>
@@ -3157,7 +3160,7 @@
       <c r="Z26" s="26">
         <v>30</v>
       </c>
-      <c r="AA26" s="56"/>
+      <c r="AA26" s="57"/>
       <c r="AD26">
         <f t="shared" si="4"/>
         <v>330</v>
@@ -3264,7 +3267,7 @@
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="AA27" s="56"/>
+      <c r="AA27" s="57"/>
       <c r="AD27">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -3495,30 +3498,30 @@
       <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
       <c r="AA30" s="34"/>
       <c r="AD30">
         <f t="shared" si="4"/>
@@ -3602,7 +3605,7 @@
       <c r="Z31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA31" s="55"/>
+      <c r="AA31" s="56"/>
       <c r="AD31">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -3685,7 +3688,7 @@
       <c r="Z32" s="12">
         <v>10</v>
       </c>
-      <c r="AA32" s="56"/>
+      <c r="AA32" s="57"/>
       <c r="AD32">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3792,7 +3795,7 @@
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="AA33" s="56"/>
+      <c r="AA33" s="57"/>
       <c r="AD33">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3875,7 +3878,7 @@
       <c r="Z34" s="26">
         <v>30</v>
       </c>
-      <c r="AA34" s="56"/>
+      <c r="AA34" s="57"/>
       <c r="AD34">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -3982,7 +3985,7 @@
         <f t="shared" si="14"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="AA35" s="56"/>
+      <c r="AA35" s="57"/>
       <c r="AD35">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -4243,30 +4246,30 @@
       <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
       <c r="AA38" s="34"/>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6"/>
@@ -4357,7 +4360,7 @@
       <c r="Z39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA39" s="61"/>
+      <c r="AA39" s="62"/>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
@@ -4447,7 +4450,7 @@
       <c r="Z40" s="12">
         <v>10</v>
       </c>
-      <c r="AA40" s="61"/>
+      <c r="AA40" s="62"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
@@ -4561,7 +4564,7 @@
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="AA41" s="61"/>
+      <c r="AA41" s="62"/>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
@@ -4651,7 +4654,7 @@
       <c r="Z42" s="26">
         <v>30</v>
       </c>
-      <c r="AA42" s="61"/>
+      <c r="AA42" s="62"/>
       <c r="AB42" s="45">
         <f>AA37+AA45+AA53</f>
         <v>1018031.1119999995</v>
@@ -4769,7 +4772,7 @@
         <f t="shared" si="17"/>
         <v>12.593699999999998</v>
       </c>
-      <c r="AA43" s="61"/>
+      <c r="AA43" s="62"/>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
@@ -5021,30 +5024,30 @@
       <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
       <c r="AA46" s="34"/>
     </row>
     <row r="47" spans="1:53" ht="15" x14ac:dyDescent="0.3">
@@ -5124,7 +5127,7 @@
       <c r="Z47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="AA47" s="61"/>
+      <c r="AA47" s="62"/>
     </row>
     <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -5203,7 +5206,7 @@
       <c r="Z48" s="12">
         <v>10</v>
       </c>
-      <c r="AA48" s="61"/>
+      <c r="AA48" s="62"/>
     </row>
     <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -5306,7 +5309,7 @@
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="AA49" s="61"/>
+      <c r="AA49" s="62"/>
     </row>
     <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -5385,7 +5388,7 @@
       <c r="Z50" s="26">
         <v>30</v>
       </c>
-      <c r="AA50" s="61"/>
+      <c r="AA50" s="62"/>
     </row>
     <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -5488,7 +5491,7 @@
         <f t="shared" si="20"/>
         <v>10.703699999999998</v>
       </c>
-      <c r="AA51" s="61"/>
+      <c r="AA51" s="62"/>
     </row>
     <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -5596,7 +5599,7 @@
         <v>29855</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="27" t="s">
         <v>40</v>
@@ -5702,96 +5705,323 @@
         <v>303604.5039999999</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
+      <c r="B54" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5">
+        <f>C28+C12+C36+C44+C52</f>
+        <v>51200</v>
+      </c>
+      <c r="D54" s="5">
+        <f>D28+D12+D36+D44+D52</f>
+        <v>20900</v>
+      </c>
+      <c r="E54" s="5">
+        <f>E28+E12+E36+E44+E52</f>
+        <v>14470</v>
+      </c>
+      <c r="F54" s="5">
+        <f>F28+F12+F36+F44+F52</f>
+        <v>11266</v>
+      </c>
+      <c r="G54" s="5">
+        <f>G28+G12+G36+G44+G52</f>
+        <v>14924</v>
+      </c>
+      <c r="H54" s="5">
+        <f>H28+H12+H36+H44+H52</f>
+        <v>8068</v>
+      </c>
+      <c r="I54" s="5">
+        <f>I28+I12+I36+I44+I52</f>
+        <v>6029</v>
+      </c>
+      <c r="J54" s="5">
+        <f>J28+J12+J36+J44+J52</f>
+        <v>4904</v>
+      </c>
+      <c r="K54" s="5">
+        <f>K28+K12+K36+K44+K52</f>
+        <v>10088</v>
+      </c>
+      <c r="L54" s="5">
+        <f>L28+L12+L36+L44+L52</f>
+        <v>4345</v>
+      </c>
+      <c r="M54" s="5">
+        <f>M28+M12+M36+M44+M52</f>
+        <v>3202</v>
+      </c>
+      <c r="N54" s="5">
+        <f>N28+N12+N36+N44+N52</f>
+        <v>2675</v>
+      </c>
+      <c r="O54" s="5">
+        <f>O28+O12+O36+O44+O52</f>
+        <v>8306</v>
+      </c>
+      <c r="P54" s="5">
+        <f>P28+P12+P36+P44+P52</f>
+        <v>2920</v>
+      </c>
+      <c r="Q54" s="5">
+        <f>Q28+Q12+Q36+Q44+Q52</f>
+        <v>2062</v>
+      </c>
+      <c r="R54" s="5">
+        <f>R28+R12+R36+R44+R52</f>
+        <v>1763</v>
+      </c>
+      <c r="S54" s="5">
+        <f>S28+S12+S36+S44+S52</f>
+        <v>7577</v>
+      </c>
+      <c r="T54" s="5">
+        <f>T28+T12+T36+T44+T52</f>
+        <v>2335</v>
+      </c>
+      <c r="U54" s="5">
+        <f>U28+U12+U36+U44+U52</f>
+        <v>1594</v>
+      </c>
+      <c r="V54" s="5">
+        <f>V28+V12+V36+V44+V52</f>
+        <v>1388</v>
+      </c>
+      <c r="W54" s="5">
+        <f>W28+W12+W36+W44+W52</f>
+        <v>7277</v>
+      </c>
+      <c r="X54" s="5">
+        <f>X28+X12+X36+X44+X52</f>
+        <v>2095</v>
+      </c>
+      <c r="Y54" s="5">
+        <f>Y28+Y12+Y36+Y44+Y52</f>
+        <v>1402</v>
+      </c>
+      <c r="Z54" s="5">
+        <f>Z28+Z12+Z36+Z44+Z52</f>
+        <v>1235</v>
+      </c>
+      <c r="AA54" s="38">
+        <f>SUM(C54:Z54)</f>
+        <v>192025</v>
+      </c>
     </row>
     <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="B55" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="46">
+        <f>C13+C21+C29+C37+C45+C53</f>
+        <v>323569.8</v>
+      </c>
+      <c r="D55" s="46">
+        <f>D13+D21+D29+D37+D45+D53</f>
+        <v>204114.92999999996</v>
+      </c>
+      <c r="E55" s="46">
+        <f>E13+E21+E29+E37+E45+E53</f>
+        <v>151966.11899999998</v>
+      </c>
+      <c r="F55" s="46">
+        <f>F13+F21+F29+F37+F45+F53</f>
+        <v>106981.64539999998</v>
+      </c>
+      <c r="G55" s="46">
+        <f>G13+G21+G29+G37+G45+G53</f>
+        <v>125695.91879999998</v>
+      </c>
+      <c r="H55" s="46">
+        <f>H13+H21+H29+H37+H45+H53</f>
+        <v>80991.4476</v>
+      </c>
+      <c r="I55" s="46">
+        <f>I13+I21+I29+I37+I45+I53</f>
+        <v>56017.530599999984</v>
+      </c>
+      <c r="J55" s="46">
+        <f>J13+J21+J29+J37+J45+J53</f>
+        <v>50398.384799999985</v>
+      </c>
+      <c r="K55" s="46">
+        <f>K13+K21+K29+K37+K45+K53</f>
+        <v>71254.005599999989</v>
+      </c>
+      <c r="L55" s="46">
+        <f>L13+L21+L29+L37+L45+L53</f>
+        <v>33916.118999999992</v>
+      </c>
+      <c r="M55" s="46">
+        <f>M13+M21+M29+M37+M45+M53</f>
+        <v>29065.967399999998</v>
+      </c>
+      <c r="N55" s="46">
+        <f>N13+N21+N29+N37+N45+N53</f>
+        <v>23731.297500000001</v>
+      </c>
+      <c r="O55" s="46">
+        <f>O13+O21+O29+O37+O45+O53</f>
+        <v>32247.351199999997</v>
+      </c>
+      <c r="P55" s="46">
+        <f>P13+P21+P29+P37+P45+P53</f>
+        <v>21118.403999999995</v>
+      </c>
+      <c r="Q55" s="46">
+        <f>Q13+Q21+Q29+Q37+Q45+Q53</f>
+        <v>15427.349399999999</v>
+      </c>
+      <c r="R55" s="46">
+        <f>R13+R21+R29+R37+R45+R53</f>
+        <v>10425.949849999999</v>
+      </c>
+      <c r="S55" s="46">
+        <f>S13+S21+S29+S37+S45+S53</f>
+        <v>41213.154899999994</v>
+      </c>
+      <c r="T55" s="46">
+        <f>T13+T21+T29+T37+T45+T53</f>
+        <v>14119.639499999999</v>
+      </c>
+      <c r="U55" s="46">
+        <f>U13+U21+U29+U37+U45+U53</f>
+        <v>8147.5607999999993</v>
+      </c>
+      <c r="V55" s="46">
+        <f>V13+V21+V29+V37+V45+V53</f>
+        <v>8334.0155999999988</v>
+      </c>
+      <c r="W55" s="46">
+        <f>W13+W21+W29+W37+W45+W53</f>
+        <v>37624.044899999986</v>
+      </c>
+      <c r="X55" s="46">
+        <f>X13+X21+X29+X37+X45+X53</f>
+        <v>8619.419249999999</v>
+      </c>
+      <c r="Y55" s="46">
+        <f>Y13+Y21+Y29+Y37+Y45+Y53</f>
+        <v>7531.3074000000006</v>
+      </c>
+      <c r="Z55" s="46">
+        <f>Z13+Z21+Z29+Z37+Z45+Z53</f>
+        <v>6503.5694999999987</v>
+      </c>
+      <c r="AA55" s="47">
+        <f>SUM(C55:Z55)</f>
+        <v>1469014.932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
+      <c r="B56" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="48">
+        <f>C55</f>
+        <v>323569.8</v>
+      </c>
+      <c r="D56" s="48">
+        <f t="shared" ref="D56:Z56" si="22">D55+C56</f>
+        <v>527684.73</v>
+      </c>
+      <c r="E56" s="49">
+        <f t="shared" si="22"/>
+        <v>679650.84899999993</v>
+      </c>
+      <c r="F56" s="48">
+        <f t="shared" si="22"/>
+        <v>786632.49439999997</v>
+      </c>
+      <c r="G56" s="48">
+        <f t="shared" si="22"/>
+        <v>912328.41319999995</v>
+      </c>
+      <c r="H56" s="49">
+        <f t="shared" si="22"/>
+        <v>993319.86079999991</v>
+      </c>
+      <c r="I56" s="48">
+        <f t="shared" si="22"/>
+        <v>1049337.3913999998</v>
+      </c>
+      <c r="J56" s="48">
+        <f t="shared" si="22"/>
+        <v>1099735.7761999997</v>
+      </c>
+      <c r="K56" s="49">
+        <f t="shared" si="22"/>
+        <v>1170989.7817999998</v>
+      </c>
+      <c r="L56" s="48">
+        <f t="shared" si="22"/>
+        <v>1204905.9007999997</v>
+      </c>
+      <c r="M56" s="48">
+        <f t="shared" si="22"/>
+        <v>1233971.8681999997</v>
+      </c>
+      <c r="N56" s="49">
+        <f t="shared" si="22"/>
+        <v>1257703.1656999998</v>
+      </c>
+      <c r="O56" s="48">
+        <f t="shared" si="22"/>
+        <v>1289950.5168999997</v>
+      </c>
+      <c r="P56" s="48">
+        <f t="shared" si="22"/>
+        <v>1311068.9208999998</v>
+      </c>
+      <c r="Q56" s="49">
+        <f t="shared" si="22"/>
+        <v>1326496.2702999997</v>
+      </c>
+      <c r="R56" s="48">
+        <f t="shared" si="22"/>
+        <v>1336922.2201499997</v>
+      </c>
+      <c r="S56" s="48">
+        <f t="shared" si="22"/>
+        <v>1378135.3750499997</v>
+      </c>
+      <c r="T56" s="49">
+        <f t="shared" si="22"/>
+        <v>1392255.0145499997</v>
+      </c>
+      <c r="U56" s="48">
+        <f t="shared" si="22"/>
+        <v>1400402.5753499998</v>
+      </c>
+      <c r="V56" s="48">
+        <f t="shared" si="22"/>
+        <v>1408736.5909499999</v>
+      </c>
+      <c r="W56" s="49">
+        <f t="shared" si="22"/>
+        <v>1446360.63585</v>
+      </c>
+      <c r="X56" s="48">
+        <f t="shared" si="22"/>
+        <v>1454980.0551</v>
+      </c>
+      <c r="Y56" s="48">
+        <f t="shared" si="22"/>
+        <v>1462511.3625</v>
+      </c>
+      <c r="Z56" s="49">
+        <f t="shared" si="22"/>
+        <v>1469014.932</v>
+      </c>
+      <c r="AA56" s="50"/>
     </row>
     <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5818,23 +6048,29 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -5847,23 +6083,29 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="B59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -5876,338 +6118,101 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="5">
-        <f>C28+C12+C36+C44+C52</f>
-        <v>51200</v>
-      </c>
-      <c r="D60" s="5">
-        <f>D28+D12+D36+D44+D52</f>
-        <v>20900</v>
-      </c>
-      <c r="E60" s="5">
-        <f t="shared" ref="E60:Z60" si="22">E28+E12+E36+E44+E52</f>
-        <v>14470</v>
-      </c>
-      <c r="F60" s="5">
-        <f t="shared" si="22"/>
-        <v>11266</v>
-      </c>
-      <c r="G60" s="5">
-        <f t="shared" si="22"/>
-        <v>14924</v>
-      </c>
-      <c r="H60" s="5">
-        <f t="shared" si="22"/>
-        <v>8068</v>
-      </c>
-      <c r="I60" s="5">
-        <f t="shared" si="22"/>
-        <v>6029</v>
-      </c>
-      <c r="J60" s="5">
-        <f t="shared" si="22"/>
-        <v>4904</v>
-      </c>
-      <c r="K60" s="5">
-        <f t="shared" si="22"/>
-        <v>10088</v>
-      </c>
-      <c r="L60" s="5">
-        <f t="shared" si="22"/>
-        <v>4345</v>
-      </c>
-      <c r="M60" s="5">
-        <f t="shared" si="22"/>
-        <v>3202</v>
-      </c>
-      <c r="N60" s="5">
-        <f t="shared" si="22"/>
-        <v>2675</v>
-      </c>
-      <c r="O60" s="5">
-        <f t="shared" si="22"/>
-        <v>8306</v>
-      </c>
-      <c r="P60" s="5">
-        <f t="shared" si="22"/>
-        <v>2920</v>
-      </c>
-      <c r="Q60" s="5">
-        <f t="shared" si="22"/>
-        <v>2062</v>
-      </c>
-      <c r="R60" s="5">
-        <f t="shared" si="22"/>
-        <v>1763</v>
-      </c>
-      <c r="S60" s="5">
-        <f t="shared" si="22"/>
-        <v>7577</v>
-      </c>
-      <c r="T60" s="5">
-        <f t="shared" si="22"/>
-        <v>2335</v>
-      </c>
-      <c r="U60" s="5">
-        <f t="shared" si="22"/>
-        <v>1594</v>
-      </c>
-      <c r="V60" s="5">
-        <f t="shared" si="22"/>
-        <v>1388</v>
-      </c>
-      <c r="W60" s="5">
-        <f t="shared" si="22"/>
-        <v>7277</v>
-      </c>
-      <c r="X60" s="5">
-        <f t="shared" si="22"/>
-        <v>2095</v>
-      </c>
-      <c r="Y60" s="5">
-        <f t="shared" si="22"/>
-        <v>1402</v>
-      </c>
-      <c r="Z60" s="5">
-        <f t="shared" si="22"/>
-        <v>1235</v>
-      </c>
-      <c r="AA60" s="38">
-        <f>SUM(C60:Z60)</f>
-        <v>192025</v>
-      </c>
+      <c r="B60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="66"/>
     </row>
     <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="62">
-        <f>C13+C21+C29+C37+C45+C53</f>
-        <v>323569.8</v>
-      </c>
-      <c r="D61" s="62">
-        <f>D13+D21+D29+D37+D45+D53</f>
-        <v>204114.92999999996</v>
-      </c>
-      <c r="E61" s="62">
-        <f t="shared" ref="E61:Z61" si="23">E13+E21+E29+E37+E45+E53</f>
-        <v>151966.11899999998</v>
-      </c>
-      <c r="F61" s="62">
-        <f t="shared" si="23"/>
-        <v>106981.64539999998</v>
-      </c>
-      <c r="G61" s="62">
-        <f>G13+G21+G29+G37+G45+G53</f>
-        <v>125695.91879999998</v>
-      </c>
-      <c r="H61" s="62">
-        <f t="shared" si="23"/>
-        <v>80991.4476</v>
-      </c>
-      <c r="I61" s="62">
-        <f t="shared" si="23"/>
-        <v>56017.530599999984</v>
-      </c>
-      <c r="J61" s="62">
-        <f t="shared" si="23"/>
-        <v>50398.384799999985</v>
-      </c>
-      <c r="K61" s="62">
-        <f t="shared" si="23"/>
-        <v>71254.005599999989</v>
-      </c>
-      <c r="L61" s="62">
-        <f t="shared" si="23"/>
-        <v>33916.118999999992</v>
-      </c>
-      <c r="M61" s="62">
-        <f t="shared" si="23"/>
-        <v>29065.967399999998</v>
-      </c>
-      <c r="N61" s="62">
-        <f t="shared" si="23"/>
-        <v>23731.297500000001</v>
-      </c>
-      <c r="O61" s="62">
-        <f t="shared" si="23"/>
-        <v>32247.351199999997</v>
-      </c>
-      <c r="P61" s="62">
-        <f t="shared" si="23"/>
-        <v>21118.403999999995</v>
-      </c>
-      <c r="Q61" s="62">
-        <f t="shared" si="23"/>
-        <v>15427.349399999999</v>
-      </c>
-      <c r="R61" s="62">
-        <f t="shared" si="23"/>
-        <v>10425.949849999999</v>
-      </c>
-      <c r="S61" s="62">
-        <f t="shared" si="23"/>
-        <v>41213.154899999994</v>
-      </c>
-      <c r="T61" s="62">
-        <f t="shared" si="23"/>
-        <v>14119.639499999999</v>
-      </c>
-      <c r="U61" s="62">
-        <f t="shared" si="23"/>
-        <v>8147.5607999999993</v>
-      </c>
-      <c r="V61" s="62">
-        <f t="shared" si="23"/>
-        <v>8334.0155999999988</v>
-      </c>
-      <c r="W61" s="62">
-        <f t="shared" si="23"/>
-        <v>37624.044899999986</v>
-      </c>
-      <c r="X61" s="62">
-        <f t="shared" si="23"/>
-        <v>8619.419249999999</v>
-      </c>
-      <c r="Y61" s="62">
-        <f t="shared" si="23"/>
-        <v>7531.3074000000006</v>
-      </c>
-      <c r="Z61" s="62">
-        <f t="shared" si="23"/>
-        <v>6503.5694999999987</v>
-      </c>
-      <c r="AA61" s="63">
-        <f>SUM(C61:Z61)</f>
-        <v>1469014.932</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+    </row>
+    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="64">
-        <f>C61</f>
-        <v>323569.8</v>
-      </c>
-      <c r="D62" s="64">
-        <f t="shared" ref="D62:Z62" si="24">D61+C62</f>
-        <v>527684.73</v>
-      </c>
-      <c r="E62" s="65">
-        <f t="shared" si="24"/>
-        <v>679650.84899999993</v>
-      </c>
-      <c r="F62" s="64">
-        <f t="shared" si="24"/>
-        <v>786632.49439999997</v>
-      </c>
-      <c r="G62" s="64">
-        <f t="shared" si="24"/>
-        <v>912328.41319999995</v>
-      </c>
-      <c r="H62" s="65">
-        <f t="shared" si="24"/>
-        <v>993319.86079999991</v>
-      </c>
-      <c r="I62" s="64">
-        <f t="shared" si="24"/>
-        <v>1049337.3913999998</v>
-      </c>
-      <c r="J62" s="64">
-        <f t="shared" si="24"/>
-        <v>1099735.7761999997</v>
-      </c>
-      <c r="K62" s="65">
-        <f t="shared" si="24"/>
-        <v>1170989.7817999998</v>
-      </c>
-      <c r="L62" s="64">
-        <f t="shared" si="24"/>
-        <v>1204905.9007999997</v>
-      </c>
-      <c r="M62" s="64">
-        <f t="shared" si="24"/>
-        <v>1233971.8681999997</v>
-      </c>
-      <c r="N62" s="65">
-        <f t="shared" si="24"/>
-        <v>1257703.1656999998</v>
-      </c>
-      <c r="O62" s="64">
-        <f t="shared" si="24"/>
-        <v>1289950.5168999997</v>
-      </c>
-      <c r="P62" s="64">
-        <f t="shared" si="24"/>
-        <v>1311068.9208999998</v>
-      </c>
-      <c r="Q62" s="65">
-        <f t="shared" si="24"/>
-        <v>1326496.2702999997</v>
-      </c>
-      <c r="R62" s="64">
-        <f t="shared" si="24"/>
-        <v>1336922.2201499997</v>
-      </c>
-      <c r="S62" s="64">
-        <f t="shared" si="24"/>
-        <v>1378135.3750499997</v>
-      </c>
-      <c r="T62" s="65">
-        <f t="shared" si="24"/>
-        <v>1392255.0145499997</v>
-      </c>
-      <c r="U62" s="64">
-        <f t="shared" si="24"/>
-        <v>1400402.5753499998</v>
-      </c>
-      <c r="V62" s="64">
-        <f t="shared" si="24"/>
-        <v>1408736.5909499999</v>
-      </c>
-      <c r="W62" s="65">
-        <f t="shared" si="24"/>
-        <v>1446360.63585</v>
-      </c>
-      <c r="X62" s="64">
-        <f t="shared" si="24"/>
-        <v>1454980.0551</v>
-      </c>
-      <c r="Y62" s="64">
-        <f t="shared" si="24"/>
-        <v>1462511.3625</v>
-      </c>
-      <c r="Z62" s="65">
-        <f t="shared" si="24"/>
-        <v>1469014.932</v>
-      </c>
-      <c r="AA62" s="66"/>
+      <c r="B62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="66"/>
     </row>
     <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="B63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -6222,21 +6227,27 @@
     </row>
     <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="B64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -6251,21 +6262,27 @@
     </row>
     <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="B65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -6280,27 +6297,27 @@
     </row>
     <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
+      <c r="B66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6313,29 +6330,29 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
+        <v>27</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -6348,29 +6365,8 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -6383,29 +6379,8 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -6418,29 +6393,8 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -6453,29 +6407,8 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -6488,29 +6421,8 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -6523,29 +6435,8 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -6560,27 +6451,6 @@
     </row>
     <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -6595,27 +6465,6 @@
     </row>
     <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -33310,7 +33159,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="D61:P61"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="D65:P65"/>
+    <mergeCell ref="D63:P63"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="D67:P67"/>
     <mergeCell ref="D66:P66"/>
+    <mergeCell ref="D58:P58"/>
     <mergeCell ref="C6:Z6"/>
     <mergeCell ref="AA7:AA11"/>
     <mergeCell ref="B4:B5"/>
@@ -33324,17 +33182,8 @@
     <mergeCell ref="AA39:AA43"/>
     <mergeCell ref="C46:Z46"/>
     <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="D75:P75"/>
-    <mergeCell ref="D69:P69"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="D68:P68"/>
-    <mergeCell ref="D70:P70"/>
-    <mergeCell ref="D71:P71"/>
-    <mergeCell ref="D73:P73"/>
-    <mergeCell ref="D72:P72"/>
-    <mergeCell ref="D74:P74"/>
   </mergeCells>
-  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;9&amp;K000000Screw Drivers&amp;C&amp;9Creactstudios&amp;R12.01.2025</oddHeader>

--- a/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
+++ b/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1DF34-4028-466A-817C-83C338491221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8921CF1C-A9AA-4241-AFFC-CCCE64EA362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1095" windowWidth="52755" windowHeight="27525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktname_Erlösvorschau" sheetId="1" r:id="rId1"/>
@@ -792,6 +792,21 @@
     <xf numFmtId="164" fontId="23" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -806,21 +821,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:BA995"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
@@ -1246,78 +1246,78 @@
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="41">
+        <v>45870</v>
+      </c>
+      <c r="D5" s="41">
+        <v>45901</v>
+      </c>
+      <c r="E5" s="41">
+        <v>45931</v>
+      </c>
+      <c r="F5" s="41">
+        <v>45962</v>
+      </c>
+      <c r="G5" s="41">
+        <v>45992</v>
+      </c>
+      <c r="H5" s="41">
+        <v>46023</v>
+      </c>
+      <c r="I5" s="41">
         <v>46054</v>
       </c>
-      <c r="D5" s="41">
+      <c r="J5" s="41">
         <v>46082</v>
       </c>
-      <c r="E5" s="41">
+      <c r="K5" s="41">
         <v>46113</v>
       </c>
-      <c r="F5" s="41">
+      <c r="L5" s="41">
         <v>46143</v>
       </c>
-      <c r="G5" s="41">
+      <c r="M5" s="41">
         <v>46174</v>
       </c>
-      <c r="H5" s="41">
+      <c r="N5" s="41">
         <v>46204</v>
       </c>
-      <c r="I5" s="41">
+      <c r="O5" s="41">
         <v>46235</v>
       </c>
-      <c r="J5" s="41">
+      <c r="P5" s="41">
         <v>46266</v>
       </c>
-      <c r="K5" s="41">
+      <c r="Q5" s="41">
         <v>46296</v>
       </c>
-      <c r="L5" s="41">
+      <c r="R5" s="41">
         <v>46327</v>
       </c>
-      <c r="M5" s="41">
+      <c r="S5" s="41">
         <v>46357</v>
       </c>
-      <c r="N5" s="41">
+      <c r="T5" s="41">
         <v>46388</v>
       </c>
-      <c r="O5" s="41">
+      <c r="U5" s="41">
         <v>46419</v>
       </c>
-      <c r="P5" s="41">
+      <c r="V5" s="41">
         <v>46447</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="W5" s="41">
         <v>46478</v>
       </c>
-      <c r="R5" s="41">
+      <c r="X5" s="41">
         <v>46508</v>
       </c>
-      <c r="S5" s="41">
+      <c r="Y5" s="41">
         <v>46539</v>
       </c>
-      <c r="T5" s="41">
+      <c r="Z5" s="41">
         <v>46569</v>
-      </c>
-      <c r="U5" s="41">
-        <v>46600</v>
-      </c>
-      <c r="V5" s="41">
-        <v>46631</v>
-      </c>
-      <c r="W5" s="41">
-        <v>46661</v>
-      </c>
-      <c r="X5" s="41">
-        <v>46692</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>46722</v>
-      </c>
-      <c r="Z5" s="41">
-        <v>46753</v>
       </c>
       <c r="AA5" s="21" t="s">
         <v>1</v>
@@ -1338,30 +1338,30 @@
       <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="55"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="60"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="42" t="s">
         <v>42</v>
@@ -1448,7 +1448,7 @@
       <c r="Z7" s="25">
         <v>7.99</v>
       </c>
-      <c r="AA7" s="56"/>
+      <c r="AA7" s="61"/>
       <c r="AB7" s="42" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="Z8" s="12">
         <v>10</v>
       </c>
-      <c r="AA8" s="57"/>
+      <c r="AA8" s="62"/>
       <c r="AB8" s="42" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1643,7 @@
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="AA9" s="57"/>
+      <c r="AA9" s="62"/>
       <c r="AB9" s="42" t="s">
         <v>45</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="Z10" s="26">
         <v>30</v>
       </c>
-      <c r="AA10" s="57"/>
+      <c r="AA10" s="62"/>
       <c r="AB10" s="42" t="s">
         <v>46</v>
       </c>
@@ -1837,7 +1837,7 @@
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="AA11" s="57"/>
+      <c r="AA11" s="62"/>
       <c r="AB11" s="42"/>
     </row>
     <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.3">
@@ -1846,28 +1846,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="30">
-        <f>((AD5)*10)*5</f>
-        <v>30000</v>
+        <f>((AD5)*10)*4</f>
+        <v>24000</v>
       </c>
       <c r="D12" s="30">
-        <f>((AD6)*10)*5</f>
-        <v>4500</v>
+        <f>((AD6)*10)*4</f>
+        <v>3600</v>
       </c>
       <c r="E12" s="14">
-        <f>((AD7)*10)*5</f>
-        <v>1350</v>
+        <f>((AD7)*10)*4</f>
+        <v>1080</v>
       </c>
       <c r="F12" s="30">
-        <f>((AD8)*10)*5</f>
-        <v>650</v>
+        <f>((AD8)*10)*4</f>
+        <v>520</v>
       </c>
       <c r="G12" s="30">
-        <f>((AD9)*10)*5+(AD5*10)</f>
-        <v>6350</v>
+        <f>((AD9)*10)*4+(AD5*10)</f>
+        <v>6280</v>
       </c>
       <c r="H12" s="14">
-        <f>((AD10)*10)*5+((AD6)*10)</f>
-        <v>1050</v>
+        <f>((AD10)*10)*4+((AD6)*10)</f>
+        <v>1020</v>
       </c>
       <c r="I12" s="30">
         <f>((AD7)*10)</f>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="AA12" s="31">
         <f t="shared" ref="AA12:AA13" si="2">SUM(C12:Z12)</f>
-        <v>73900</v>
+        <v>66500</v>
       </c>
       <c r="AB12" s="42"/>
     </row>
@@ -1954,27 +1954,27 @@
       </c>
       <c r="C13" s="15">
         <f t="shared" ref="C13:Z13" si="3">C11*C12</f>
-        <v>117453</v>
+        <v>93962.4</v>
       </c>
       <c r="D13" s="15">
         <f>D11*D12</f>
-        <v>22651.649999999998</v>
+        <v>18121.32</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="3"/>
-        <v>6795.4949999999999</v>
+        <v>5436.3959999999997</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="3"/>
-        <v>2544.8150000000001</v>
+        <v>2035.8519999999999</v>
       </c>
       <c r="G13" s="15">
         <f t="shared" si="3"/>
-        <v>31963.994999999999</v>
+        <v>31611.635999999999</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="3"/>
-        <v>5285.3849999999993</v>
+        <v>5134.3739999999998</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="3"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="AA13" s="33">
         <f t="shared" si="2"/>
-        <v>319807.73999999993</v>
+        <v>289415.37799999991</v>
       </c>
       <c r="AB13" s="42" t="s">
         <v>47</v>
@@ -2064,30 +2064,30 @@
       <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="42" t="s">
         <v>48</v>
@@ -2174,7 +2174,7 @@
       <c r="Z15" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="56"/>
+      <c r="AA15" s="61"/>
       <c r="AB15" s="42" t="s">
         <v>49</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="Z16" s="12">
         <v>0</v>
       </c>
-      <c r="AA16" s="57"/>
+      <c r="AA16" s="62"/>
       <c r="AB16" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2370,7 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA17" s="57"/>
+      <c r="AA17" s="62"/>
       <c r="AB17" t="s">
         <v>51</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="Z18" s="12">
         <v>0</v>
       </c>
-      <c r="AA18" s="57"/>
+      <c r="AA18" s="62"/>
       <c r="AB18" t="s">
         <v>52</v>
       </c>
@@ -2566,7 +2566,7 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="57"/>
+      <c r="AA19" s="62"/>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
@@ -2780,30 +2780,30 @@
       <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
       <c r="AA22" s="34"/>
       <c r="AD22">
         <f t="shared" si="4"/>
@@ -2887,7 +2887,7 @@
       <c r="Z23" s="25">
         <v>2.99</v>
       </c>
-      <c r="AA23" s="56"/>
+      <c r="AA23" s="61"/>
       <c r="AD23">
         <f t="shared" si="4"/>
         <v>644</v>
@@ -2970,7 +2970,7 @@
       <c r="Z24" s="12">
         <v>0</v>
       </c>
-      <c r="AA24" s="57"/>
+      <c r="AA24" s="62"/>
       <c r="AD24">
         <f t="shared" si="4"/>
         <v>515</v>
@@ -3077,7 +3077,7 @@
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="AA25" s="57"/>
+      <c r="AA25" s="62"/>
       <c r="AD25">
         <f t="shared" si="4"/>
         <v>412</v>
@@ -3160,7 +3160,7 @@
       <c r="Z26" s="26">
         <v>30</v>
       </c>
-      <c r="AA26" s="57"/>
+      <c r="AA26" s="62"/>
       <c r="AD26">
         <f t="shared" si="4"/>
         <v>330</v>
@@ -3267,7 +3267,7 @@
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="AA27" s="57"/>
+      <c r="AA27" s="62"/>
       <c r="AD27">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -3498,30 +3498,30 @@
       <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
       <c r="AA30" s="34"/>
       <c r="AD30">
         <f t="shared" si="4"/>
@@ -3605,7 +3605,7 @@
       <c r="Z31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA31" s="56"/>
+      <c r="AA31" s="61"/>
       <c r="AD31">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -3688,7 +3688,7 @@
       <c r="Z32" s="12">
         <v>10</v>
       </c>
-      <c r="AA32" s="57"/>
+      <c r="AA32" s="62"/>
       <c r="AD32">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3795,7 +3795,7 @@
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="AA33" s="57"/>
+      <c r="AA33" s="62"/>
       <c r="AD33">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3807,78 +3807,78 @@
         <v>5</v>
       </c>
       <c r="C34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y34" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z34" s="26">
-        <v>30</v>
-      </c>
-      <c r="AA34" s="57"/>
+        <v>35</v>
+      </c>
+      <c r="AA34" s="62"/>
       <c r="AD34">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -3891,101 +3891,101 @@
       </c>
       <c r="C35" s="28">
         <f t="shared" ref="C35:Z35" si="14">C33-(C33*C34/100)</f>
-        <v>11.194399999999998</v>
+        <v>10.3948</v>
       </c>
       <c r="D35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="14"/>
-        <v>11.194399999999998</v>
+        <v>10.3948</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="14"/>
-        <v>11.194399999999998</v>
+        <v>10.3948</v>
       </c>
       <c r="J35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="K35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="L35" s="28">
         <f t="shared" si="14"/>
-        <v>11.194399999999998</v>
+        <v>10.3948</v>
       </c>
       <c r="M35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="N35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="O35" s="28">
         <f t="shared" si="14"/>
-        <v>9.0954499999999978</v>
+        <v>8.4457749999999976</v>
       </c>
       <c r="P35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="R35" s="28">
         <f t="shared" si="14"/>
-        <v>9.0954499999999978</v>
+        <v>8.4457749999999976</v>
       </c>
       <c r="S35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="T35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="U35" s="28">
         <f t="shared" si="14"/>
-        <v>9.0954499999999978</v>
+        <v>8.4457749999999976</v>
       </c>
       <c r="V35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="W35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="X35" s="28">
         <f t="shared" si="14"/>
-        <v>9.0954499999999978</v>
+        <v>8.4457749999999976</v>
       </c>
       <c r="Y35" s="28">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
+        <v>11.69415</v>
       </c>
       <c r="Z35" s="13">
         <f t="shared" si="14"/>
-        <v>12.593699999999998</v>
-      </c>
-      <c r="AA35" s="57"/>
+        <v>11.69415</v>
+      </c>
+      <c r="AA35" s="62"/>
       <c r="AD35">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -3996,109 +3996,100 @@
       <c r="B36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="30">
         <f>AD13</f>
         <v>6000</v>
       </c>
-      <c r="D36" s="30">
+      <c r="G36" s="30">
         <f>AD14</f>
         <v>4800</v>
       </c>
-      <c r="E36" s="14">
+      <c r="H36" s="14">
         <f>AD15</f>
         <v>3840</v>
       </c>
-      <c r="F36" s="30">
+      <c r="I36" s="30">
         <f>AD16</f>
         <v>3072</v>
       </c>
-      <c r="G36" s="30">
+      <c r="J36" s="30">
         <f>AD17</f>
         <v>2458</v>
       </c>
-      <c r="H36" s="14">
+      <c r="K36" s="14">
         <f>AD18</f>
         <v>1966</v>
       </c>
-      <c r="I36" s="30">
+      <c r="L36" s="30">
         <f>AD19</f>
         <v>1573</v>
       </c>
-      <c r="J36" s="30">
+      <c r="M36" s="30">
         <f>AD20</f>
         <v>1258</v>
       </c>
-      <c r="K36" s="14">
+      <c r="N36" s="14">
         <f>AD21</f>
         <v>1006</v>
       </c>
-      <c r="L36" s="30">
+      <c r="O36" s="30">
         <f>AD22</f>
         <v>805</v>
       </c>
-      <c r="M36" s="30">
+      <c r="P36" s="30">
         <f>AD23</f>
         <v>644</v>
       </c>
-      <c r="N36" s="14">
+      <c r="Q36" s="14">
         <f>AD24</f>
         <v>515</v>
       </c>
-      <c r="O36" s="30">
+      <c r="R36" s="30">
         <f>AD25</f>
         <v>412</v>
       </c>
-      <c r="P36" s="30">
+      <c r="S36" s="30">
         <f>AD26</f>
         <v>330</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="T36" s="14">
         <f>AD27</f>
         <v>264</v>
       </c>
-      <c r="R36" s="30">
+      <c r="U36" s="30">
         <f>AD28</f>
         <v>211</v>
       </c>
-      <c r="S36" s="30">
+      <c r="V36" s="30">
         <f>AD29</f>
         <v>169</v>
       </c>
-      <c r="T36" s="14">
+      <c r="W36" s="14">
         <f>AD30</f>
         <v>135</v>
       </c>
-      <c r="U36" s="30">
+      <c r="X36" s="30">
         <f>AD31</f>
         <v>108</v>
       </c>
-      <c r="V36" s="30">
+      <c r="Y36" s="30">
         <f>AD32</f>
         <v>86</v>
       </c>
-      <c r="W36" s="14">
+      <c r="Z36" s="14">
         <f>AD33</f>
         <v>69</v>
       </c>
-      <c r="X36" s="30">
-        <f>AD34</f>
-        <v>55</v>
-      </c>
-      <c r="Y36" s="30">
-        <f>AD35</f>
-        <v>44</v>
-      </c>
-      <c r="Z36" s="14">
-        <f>AD36</f>
-        <v>35</v>
-      </c>
       <c r="AA36" s="31">
         <f>SUM(C36:Z36)</f>
-        <v>29855</v>
+        <v>29721</v>
       </c>
       <c r="AB36" s="44">
         <f>SUM(C36:Z36)</f>
-        <v>29855</v>
+        <v>29721</v>
       </c>
       <c r="AD36">
         <f t="shared" si="4"/>
@@ -4122,108 +4113,108 @@
         <v>38</v>
       </c>
       <c r="C37" s="35">
-        <f t="shared" ref="C37:Z37" si="15">C35*C36</f>
-        <v>67166.399999999994</v>
+        <f>C35*C36</f>
+        <v>0</v>
       </c>
       <c r="D37" s="35">
-        <f t="shared" si="15"/>
-        <v>60449.759999999995</v>
+        <f>D35*D36</f>
+        <v>0</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" si="15"/>
-        <v>48359.80799999999</v>
+        <f>E35*E36</f>
+        <v>0</v>
       </c>
       <c r="F37" s="35">
-        <f t="shared" si="15"/>
-        <v>34389.196799999991</v>
+        <f>F35*F36</f>
+        <v>62368.800000000003</v>
       </c>
       <c r="G37" s="35">
-        <f t="shared" si="15"/>
-        <v>30955.314599999994</v>
+        <f>G35*G36</f>
+        <v>56131.920000000006</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="15"/>
-        <v>24759.214199999999</v>
+        <f>H35*H36</f>
+        <v>44905.536</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="15"/>
-        <v>17608.791199999996</v>
+        <f>I35*I36</f>
+        <v>31932.8256</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="15"/>
-        <v>15842.874599999997</v>
+        <f>J35*J36</f>
+        <v>28744.220700000002</v>
       </c>
       <c r="K37" s="17">
-        <f t="shared" si="15"/>
-        <v>12669.262199999999</v>
+        <f>K35*K36</f>
+        <v>22990.698899999999</v>
       </c>
       <c r="L37" s="35">
-        <f t="shared" si="15"/>
-        <v>9011.4919999999984</v>
+        <f>L35*L36</f>
+        <v>16351.020399999999</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="15"/>
-        <v>8110.3427999999985</v>
+        <f>M35*M36</f>
+        <v>14711.2407</v>
       </c>
       <c r="N37" s="17">
-        <f t="shared" si="15"/>
-        <v>6485.7554999999993</v>
+        <f>N35*N36</f>
+        <v>11764.314900000001</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" si="15"/>
-        <v>3747.3253999999993</v>
+        <f>O35*O36</f>
+        <v>6798.8488749999979</v>
       </c>
       <c r="P37" s="35">
-        <f t="shared" si="15"/>
-        <v>4155.9209999999994</v>
+        <f>P35*P36</f>
+        <v>7531.0326000000005</v>
       </c>
       <c r="Q37" s="17">
-        <f t="shared" si="15"/>
-        <v>3324.7367999999997</v>
+        <f>Q35*Q36</f>
+        <v>6022.4872500000001</v>
       </c>
       <c r="R37" s="35">
-        <f t="shared" si="15"/>
-        <v>1919.1399499999995</v>
+        <f>R35*R36</f>
+        <v>3479.6592999999989</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" si="15"/>
-        <v>2128.3352999999997</v>
+        <f>S35*S36</f>
+        <v>3859.0695000000001</v>
       </c>
       <c r="T37" s="17">
-        <f t="shared" si="15"/>
-        <v>1700.1494999999998</v>
+        <f>T35*T36</f>
+        <v>3087.2556</v>
       </c>
       <c r="U37" s="35">
-        <f t="shared" si="15"/>
-        <v>982.30859999999973</v>
+        <f>U35*U36</f>
+        <v>1782.0585249999995</v>
       </c>
       <c r="V37" s="35">
-        <f t="shared" si="15"/>
-        <v>1083.0581999999999</v>
+        <f>V35*V36</f>
+        <v>1976.3113500000002</v>
       </c>
       <c r="W37" s="17">
-        <f t="shared" si="15"/>
-        <v>868.96529999999984</v>
+        <f>W35*W36</f>
+        <v>1578.7102500000001</v>
       </c>
       <c r="X37" s="35">
-        <f t="shared" si="15"/>
-        <v>500.24974999999989</v>
+        <f>X35*X36</f>
+        <v>912.14369999999974</v>
       </c>
       <c r="Y37" s="35">
-        <f t="shared" si="15"/>
-        <v>554.12279999999987</v>
+        <f>Y35*Y36</f>
+        <v>1005.6969</v>
       </c>
       <c r="Z37" s="17">
-        <f t="shared" si="15"/>
-        <v>440.77949999999993</v>
+        <f>Z35*Z36</f>
+        <v>806.89634999999998</v>
       </c>
       <c r="AA37" s="36">
         <f>SUM(C37:Z37)</f>
-        <v>357213.30399999983</v>
+        <v>328740.74739999993</v>
       </c>
       <c r="AB37" s="9">
         <f>AB36*3</f>
-        <v>89565</v>
+        <v>89163</v>
       </c>
       <c r="AD37">
         <f t="shared" si="4"/>
@@ -4246,30 +4237,30 @@
       <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
       <c r="AA38" s="34"/>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6"/>
@@ -4360,7 +4351,7 @@
       <c r="Z39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA39" s="62"/>
+      <c r="AA39" s="67"/>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
@@ -4450,7 +4441,7 @@
       <c r="Z40" s="12">
         <v>10</v>
       </c>
-      <c r="AA40" s="62"/>
+      <c r="AA40" s="67"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
@@ -4469,102 +4460,102 @@
         <v>4</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" ref="C41:Z41" si="16">C39-(C39*C40/100)</f>
+        <f t="shared" ref="C41:Z41" si="15">C39-(C39*C40/100)</f>
         <v>15.991999999999999</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="E41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>15.991999999999999</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>15.991999999999999</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>15.991999999999999</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12.993499999999997</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="Q41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12.993499999999997</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="T41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12.993499999999997</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="W41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12.993499999999997</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
       <c r="Z41" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17.991</v>
       </c>
-      <c r="AA41" s="62"/>
+      <c r="AA41" s="67"/>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
@@ -4583,81 +4574,81 @@
         <v>5</v>
       </c>
       <c r="C42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y42" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z42" s="26">
-        <v>30</v>
-      </c>
-      <c r="AA42" s="62"/>
+        <v>35</v>
+      </c>
+      <c r="AA42" s="67"/>
       <c r="AB42" s="45">
         <f>AA37+AA45+AA53</f>
-        <v>1018031.1119999995</v>
+        <v>936886.46219999995</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6"/>
@@ -4677,102 +4668,102 @@
         <v>6</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" ref="C43:Z43" si="17">C41-(C41*C42/100)</f>
-        <v>11.194399999999998</v>
+        <f t="shared" ref="C43:Z43" si="16">C41-(C41*C42/100)</f>
+        <v>10.3948</v>
       </c>
       <c r="D43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="F43" s="28">
-        <f t="shared" si="17"/>
-        <v>11.194399999999998</v>
+        <f t="shared" si="16"/>
+        <v>10.3948</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="I43" s="28">
-        <f t="shared" si="17"/>
-        <v>11.194399999999998</v>
+        <f t="shared" si="16"/>
+        <v>10.3948</v>
       </c>
       <c r="J43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="K43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="17"/>
-        <v>11.194399999999998</v>
+        <f t="shared" si="16"/>
+        <v>10.3948</v>
       </c>
       <c r="M43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="O43" s="28">
-        <f t="shared" si="17"/>
-        <v>9.0954499999999978</v>
+        <f t="shared" si="16"/>
+        <v>8.4457749999999976</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="Q43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="R43" s="28">
-        <f t="shared" si="17"/>
-        <v>9.0954499999999978</v>
+        <f t="shared" si="16"/>
+        <v>8.4457749999999976</v>
       </c>
       <c r="S43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="T43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="U43" s="28">
-        <f t="shared" si="17"/>
-        <v>9.0954499999999978</v>
+        <f t="shared" si="16"/>
+        <v>8.4457749999999976</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="W43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="17"/>
-        <v>9.0954499999999978</v>
+        <f t="shared" si="16"/>
+        <v>8.4457749999999976</v>
       </c>
       <c r="Y43" s="28">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
       </c>
       <c r="Z43" s="13">
-        <f t="shared" si="17"/>
-        <v>12.593699999999998</v>
-      </c>
-      <c r="AA43" s="62"/>
+        <f t="shared" si="16"/>
+        <v>11.69415</v>
+      </c>
+      <c r="AA43" s="67"/>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
@@ -4790,105 +4781,75 @@
       <c r="B44" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="30">
-        <f>AD13</f>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="30">
         <v>6000</v>
       </c>
-      <c r="D44" s="30">
-        <f>AD14</f>
+      <c r="G44" s="30">
         <v>4800</v>
       </c>
-      <c r="E44" s="14">
-        <f>AD15</f>
+      <c r="H44" s="14">
         <v>3840</v>
       </c>
-      <c r="F44" s="30">
-        <f>AD16</f>
+      <c r="I44" s="30">
         <v>3072</v>
       </c>
-      <c r="G44" s="30">
-        <f>AD17</f>
+      <c r="J44" s="30">
         <v>2458</v>
       </c>
-      <c r="H44" s="14">
-        <f>AD18</f>
+      <c r="K44" s="14">
         <v>1966</v>
       </c>
-      <c r="I44" s="30">
-        <f>AD19</f>
+      <c r="L44" s="30">
         <v>1573</v>
       </c>
-      <c r="J44" s="30">
-        <f>AD20</f>
+      <c r="M44" s="30">
         <v>1258</v>
       </c>
-      <c r="K44" s="14">
-        <f>AD21</f>
+      <c r="N44" s="14">
         <v>1006</v>
       </c>
-      <c r="L44" s="30">
-        <f>AD22</f>
+      <c r="O44" s="30">
         <v>805</v>
       </c>
-      <c r="M44" s="30">
-        <f>AD23</f>
+      <c r="P44" s="30">
         <v>644</v>
       </c>
-      <c r="N44" s="14">
-        <f>AD24</f>
+      <c r="Q44" s="14">
         <v>515</v>
       </c>
-      <c r="O44" s="30">
-        <f>AD25</f>
+      <c r="R44" s="30">
         <v>412</v>
       </c>
-      <c r="P44" s="30">
-        <f>AD26</f>
+      <c r="S44" s="30">
         <v>330</v>
       </c>
-      <c r="Q44" s="14">
-        <f>AD27</f>
+      <c r="T44" s="14">
         <v>264</v>
       </c>
-      <c r="R44" s="30">
-        <f>AD28</f>
+      <c r="U44" s="30">
         <v>211</v>
       </c>
-      <c r="S44" s="30">
-        <f>AD29</f>
+      <c r="V44" s="30">
         <v>169</v>
       </c>
-      <c r="T44" s="14">
-        <f>AD30</f>
+      <c r="W44" s="14">
         <v>135</v>
       </c>
-      <c r="U44" s="30">
-        <f>AD31</f>
+      <c r="X44" s="30">
         <v>108</v>
       </c>
-      <c r="V44" s="30">
-        <f>AD32</f>
+      <c r="Y44" s="30">
         <v>86</v>
       </c>
-      <c r="W44" s="14">
-        <f>AD33</f>
+      <c r="Z44" s="14">
         <v>69</v>
-      </c>
-      <c r="X44" s="30">
-        <f>AD34</f>
-        <v>55</v>
-      </c>
-      <c r="Y44" s="30">
-        <f>AD35</f>
-        <v>44</v>
-      </c>
-      <c r="Z44" s="14">
-        <f>AD36</f>
-        <v>35</v>
       </c>
       <c r="AA44" s="31">
         <f>SUM(C44:Z44)</f>
-        <v>29855</v>
+        <v>29721</v>
       </c>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6"/>
@@ -4908,104 +4869,104 @@
         <v>39</v>
       </c>
       <c r="C45" s="35">
-        <f t="shared" ref="C45:Z45" si="18">C43*C44</f>
-        <v>67166.399999999994</v>
+        <f t="shared" ref="C45:Z45" si="17">C43*C44</f>
+        <v>0</v>
       </c>
       <c r="D45" s="35">
-        <f t="shared" si="18"/>
-        <v>60449.759999999995</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="E45" s="17">
-        <f t="shared" si="18"/>
-        <v>48359.80799999999</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F45" s="35">
-        <f t="shared" si="18"/>
-        <v>34389.196799999991</v>
+        <f t="shared" si="17"/>
+        <v>62368.800000000003</v>
       </c>
       <c r="G45" s="35">
-        <f t="shared" si="18"/>
-        <v>30955.314599999994</v>
+        <f t="shared" si="17"/>
+        <v>56131.920000000006</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="18"/>
-        <v>24759.214199999999</v>
+        <f t="shared" si="17"/>
+        <v>44905.536</v>
       </c>
       <c r="I45" s="35">
-        <f t="shared" si="18"/>
-        <v>17608.791199999996</v>
+        <f t="shared" si="17"/>
+        <v>31932.8256</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" si="18"/>
-        <v>15842.874599999997</v>
+        <f t="shared" si="17"/>
+        <v>28744.220700000002</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="18"/>
-        <v>12669.262199999999</v>
+        <f t="shared" si="17"/>
+        <v>22990.698899999999</v>
       </c>
       <c r="L45" s="35">
-        <f t="shared" si="18"/>
-        <v>9011.4919999999984</v>
+        <f t="shared" si="17"/>
+        <v>16351.020399999999</v>
       </c>
       <c r="M45" s="35">
-        <f t="shared" si="18"/>
-        <v>8110.3427999999985</v>
+        <f t="shared" si="17"/>
+        <v>14711.2407</v>
       </c>
       <c r="N45" s="17">
-        <f t="shared" si="18"/>
-        <v>6485.7554999999993</v>
+        <f t="shared" si="17"/>
+        <v>11764.314900000001</v>
       </c>
       <c r="O45" s="35">
-        <f t="shared" si="18"/>
-        <v>3747.3253999999993</v>
+        <f t="shared" si="17"/>
+        <v>6798.8488749999979</v>
       </c>
       <c r="P45" s="35">
-        <f t="shared" si="18"/>
-        <v>4155.9209999999994</v>
+        <f t="shared" si="17"/>
+        <v>7531.0326000000005</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="18"/>
-        <v>3324.7367999999997</v>
+        <f t="shared" si="17"/>
+        <v>6022.4872500000001</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="18"/>
-        <v>1919.1399499999995</v>
+        <f t="shared" si="17"/>
+        <v>3479.6592999999989</v>
       </c>
       <c r="S45" s="35">
-        <f t="shared" si="18"/>
-        <v>2128.3352999999997</v>
+        <f t="shared" si="17"/>
+        <v>3859.0695000000001</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="18"/>
-        <v>1700.1494999999998</v>
+        <f t="shared" si="17"/>
+        <v>3087.2556</v>
       </c>
       <c r="U45" s="35">
-        <f t="shared" si="18"/>
-        <v>982.30859999999973</v>
+        <f t="shared" si="17"/>
+        <v>1782.0585249999995</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" si="18"/>
-        <v>1083.0581999999999</v>
+        <f t="shared" si="17"/>
+        <v>1976.3113500000002</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="18"/>
-        <v>868.96529999999984</v>
+        <f t="shared" si="17"/>
+        <v>1578.7102500000001</v>
       </c>
       <c r="X45" s="35">
-        <f t="shared" si="18"/>
-        <v>500.24974999999989</v>
+        <f t="shared" si="17"/>
+        <v>912.14369999999974</v>
       </c>
       <c r="Y45" s="35">
-        <f t="shared" si="18"/>
-        <v>554.12279999999987</v>
+        <f t="shared" si="17"/>
+        <v>1005.6969</v>
       </c>
       <c r="Z45" s="17">
-        <f t="shared" si="18"/>
-        <v>440.77949999999993</v>
+        <f t="shared" si="17"/>
+        <v>806.89634999999998</v>
       </c>
       <c r="AA45" s="36">
         <f>SUM(C45:Z45)</f>
-        <v>357213.30399999983</v>
+        <v>328740.74739999993</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
@@ -5024,30 +4985,30 @@
       <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="60"/>
-      <c r="Z46" s="60"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
       <c r="AA46" s="34"/>
     </row>
     <row r="47" spans="1:53" ht="15" x14ac:dyDescent="0.3">
@@ -5127,7 +5088,7 @@
       <c r="Z47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="AA47" s="62"/>
+      <c r="AA47" s="67"/>
     </row>
     <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -5206,7 +5167,7 @@
       <c r="Z48" s="12">
         <v>10</v>
       </c>
-      <c r="AA48" s="62"/>
+      <c r="AA48" s="67"/>
     </row>
     <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -5214,102 +5175,102 @@
         <v>4</v>
       </c>
       <c r="C49" s="28">
-        <f t="shared" ref="C49:Z49" si="19">C47-(C47*C48/100)</f>
+        <f t="shared" ref="C49:Z49" si="18">C47-(C47*C48/100)</f>
         <v>13.591999999999999</v>
       </c>
       <c r="D49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="E49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="F49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13.591999999999999</v>
       </c>
       <c r="G49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="I49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13.591999999999999</v>
       </c>
       <c r="J49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="L49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13.591999999999999</v>
       </c>
       <c r="M49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="O49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.043499999999998</v>
       </c>
       <c r="P49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="Q49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="R49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.043499999999998</v>
       </c>
       <c r="S49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="T49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="U49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.043499999999998</v>
       </c>
       <c r="V49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="W49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="X49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.043499999999998</v>
       </c>
       <c r="Y49" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
       <c r="Z49" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="AA49" s="62"/>
+      <c r="AA49" s="67"/>
     </row>
     <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -5317,78 +5278,78 @@
         <v>5</v>
       </c>
       <c r="C50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z50" s="26">
-        <v>30</v>
-      </c>
-      <c r="AA50" s="62"/>
+        <v>35</v>
+      </c>
+      <c r="AA50" s="67"/>
     </row>
     <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -5396,207 +5357,177 @@
         <v>6</v>
       </c>
       <c r="C51" s="28">
-        <f t="shared" ref="C51:Z51" si="20">C49-(C49*C50/100)</f>
-        <v>9.5143999999999984</v>
+        <f t="shared" ref="C51:Z51" si="19">C49-(C49*C50/100)</f>
+        <v>8.8347999999999978</v>
       </c>
       <c r="D51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="E51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="F51" s="28">
-        <f t="shared" si="20"/>
-        <v>9.5143999999999984</v>
+        <f t="shared" si="19"/>
+        <v>8.8347999999999978</v>
       </c>
       <c r="G51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="I51" s="28">
-        <f t="shared" si="20"/>
-        <v>9.5143999999999984</v>
+        <f t="shared" si="19"/>
+        <v>8.8347999999999978</v>
       </c>
       <c r="J51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="L51" s="28">
-        <f t="shared" si="20"/>
-        <v>9.5143999999999984</v>
+        <f t="shared" si="19"/>
+        <v>8.8347999999999978</v>
       </c>
       <c r="M51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="N51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="O51" s="28">
-        <f t="shared" si="20"/>
-        <v>7.7304499999999985</v>
+        <f t="shared" si="19"/>
+        <v>7.1782749999999993</v>
       </c>
       <c r="P51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="Q51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="R51" s="28">
-        <f t="shared" si="20"/>
-        <v>7.7304499999999985</v>
+        <f t="shared" si="19"/>
+        <v>7.1782749999999993</v>
       </c>
       <c r="S51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="T51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="U51" s="28">
-        <f t="shared" si="20"/>
-        <v>7.7304499999999985</v>
+        <f t="shared" si="19"/>
+        <v>7.1782749999999993</v>
       </c>
       <c r="V51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="W51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="X51" s="28">
-        <f t="shared" si="20"/>
-        <v>7.7304499999999985</v>
+        <f t="shared" si="19"/>
+        <v>7.1782749999999993</v>
       </c>
       <c r="Y51" s="28">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
       </c>
       <c r="Z51" s="13">
-        <f t="shared" si="20"/>
-        <v>10.703699999999998</v>
-      </c>
-      <c r="AA51" s="62"/>
+        <f t="shared" si="19"/>
+        <v>9.9391499999999979</v>
+      </c>
+      <c r="AA51" s="67"/>
     </row>
     <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="30">
-        <f>AD13</f>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="30">
         <v>6000</v>
       </c>
-      <c r="D52" s="30">
-        <f>AD14</f>
+      <c r="G52" s="30">
         <v>4800</v>
       </c>
-      <c r="E52" s="14">
-        <f>AD15</f>
+      <c r="H52" s="14">
         <v>3840</v>
       </c>
-      <c r="F52" s="30">
-        <f>AD16</f>
+      <c r="I52" s="30">
         <v>3072</v>
       </c>
-      <c r="G52" s="30">
-        <f>AD17</f>
+      <c r="J52" s="30">
         <v>2458</v>
       </c>
-      <c r="H52" s="14">
-        <f>AD18</f>
+      <c r="K52" s="14">
         <v>1966</v>
       </c>
-      <c r="I52" s="30">
-        <f>AD19</f>
+      <c r="L52" s="30">
         <v>1573</v>
       </c>
-      <c r="J52" s="30">
-        <f>AD20</f>
+      <c r="M52" s="30">
         <v>1258</v>
       </c>
-      <c r="K52" s="14">
-        <f>AD21</f>
+      <c r="N52" s="14">
         <v>1006</v>
       </c>
-      <c r="L52" s="30">
-        <f>AD22</f>
+      <c r="O52" s="30">
         <v>805</v>
       </c>
-      <c r="M52" s="30">
-        <f>AD23</f>
+      <c r="P52" s="30">
         <v>644</v>
       </c>
-      <c r="N52" s="14">
-        <f>AD24</f>
+      <c r="Q52" s="14">
         <v>515</v>
       </c>
-      <c r="O52" s="30">
-        <f>AD25</f>
+      <c r="R52" s="30">
         <v>412</v>
       </c>
-      <c r="P52" s="30">
-        <f>AD26</f>
+      <c r="S52" s="30">
         <v>330</v>
       </c>
-      <c r="Q52" s="14">
-        <f>AD27</f>
+      <c r="T52" s="14">
         <v>264</v>
       </c>
-      <c r="R52" s="30">
-        <f>AD28</f>
+      <c r="U52" s="30">
         <v>211</v>
       </c>
-      <c r="S52" s="30">
-        <f>AD29</f>
+      <c r="V52" s="30">
         <v>169</v>
       </c>
-      <c r="T52" s="14">
-        <f>AD30</f>
+      <c r="W52" s="14">
         <v>135</v>
       </c>
-      <c r="U52" s="30">
-        <f>AD31</f>
+      <c r="X52" s="30">
         <v>108</v>
       </c>
-      <c r="V52" s="30">
-        <f>AD32</f>
+      <c r="Y52" s="30">
         <v>86</v>
       </c>
-      <c r="W52" s="14">
-        <f>AD33</f>
+      <c r="Z52" s="14">
         <v>69</v>
-      </c>
-      <c r="X52" s="30">
-        <f>AD34</f>
-        <v>55</v>
-      </c>
-      <c r="Y52" s="30">
-        <f>AD35</f>
-        <v>44</v>
-      </c>
-      <c r="Z52" s="14">
-        <f>AD36</f>
-        <v>35</v>
       </c>
       <c r="AA52" s="31">
         <f>SUM(C52:Z52)</f>
-        <v>29855</v>
+        <v>29721</v>
       </c>
     </row>
     <row r="53" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
@@ -5605,104 +5536,104 @@
         <v>40</v>
       </c>
       <c r="C53" s="35">
-        <f t="shared" ref="C53:Z53" si="21">C51*C52</f>
-        <v>57086.399999999987</v>
+        <f t="shared" ref="C53:Z53" si="20">C51*C52</f>
+        <v>0</v>
       </c>
       <c r="D53" s="35">
-        <f t="shared" si="21"/>
-        <v>51377.759999999987</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="E53" s="17">
-        <f t="shared" si="21"/>
-        <v>41102.207999999991</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="F53" s="35">
-        <f t="shared" si="21"/>
-        <v>29228.236799999995</v>
+        <f t="shared" si="20"/>
+        <v>53008.799999999988</v>
       </c>
       <c r="G53" s="35">
-        <f t="shared" si="21"/>
-        <v>26309.694599999995</v>
+        <f t="shared" si="20"/>
+        <v>47707.919999999991</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="21"/>
-        <v>21043.474199999997</v>
+        <f t="shared" si="20"/>
+        <v>38166.335999999996</v>
       </c>
       <c r="I53" s="35">
-        <f t="shared" si="21"/>
-        <v>14966.151199999997</v>
+        <f t="shared" si="20"/>
+        <v>27140.505599999993</v>
       </c>
       <c r="J53" s="35">
-        <f t="shared" si="21"/>
-        <v>13465.254599999997</v>
+        <f t="shared" si="20"/>
+        <v>24430.430699999994</v>
       </c>
       <c r="K53" s="17">
-        <f t="shared" si="21"/>
-        <v>10767.922199999997</v>
+        <f t="shared" si="20"/>
+        <v>19540.368899999998</v>
       </c>
       <c r="L53" s="35">
-        <f t="shared" si="21"/>
-        <v>7659.0919999999987</v>
+        <f t="shared" si="20"/>
+        <v>13897.140399999997</v>
       </c>
       <c r="M53" s="35">
-        <f t="shared" si="21"/>
-        <v>6893.1827999999987</v>
+        <f t="shared" si="20"/>
+        <v>12503.450699999998</v>
       </c>
       <c r="N53" s="17">
-        <f t="shared" si="21"/>
-        <v>5512.4054999999989</v>
+        <f t="shared" si="20"/>
+        <v>9998.7848999999987</v>
       </c>
       <c r="O53" s="35">
-        <f t="shared" si="21"/>
-        <v>3184.9453999999992</v>
+        <f t="shared" si="20"/>
+        <v>5778.5113749999991</v>
       </c>
       <c r="P53" s="35">
-        <f t="shared" si="21"/>
-        <v>3532.2209999999991</v>
+        <f t="shared" si="20"/>
+        <v>6400.8125999999984</v>
       </c>
       <c r="Q53" s="17">
-        <f t="shared" si="21"/>
-        <v>2825.7767999999996</v>
+        <f t="shared" si="20"/>
+        <v>5118.6622499999985</v>
       </c>
       <c r="R53" s="35">
-        <f t="shared" si="21"/>
-        <v>1631.1249499999997</v>
+        <f t="shared" si="20"/>
+        <v>2957.4492999999998</v>
       </c>
       <c r="S53" s="35">
-        <f t="shared" si="21"/>
-        <v>1808.9252999999997</v>
+        <f t="shared" si="20"/>
+        <v>3279.9194999999995</v>
       </c>
       <c r="T53" s="17">
-        <f t="shared" si="21"/>
-        <v>1444.9994999999997</v>
+        <f t="shared" si="20"/>
+        <v>2623.9355999999993</v>
       </c>
       <c r="U53" s="35">
-        <f t="shared" si="21"/>
-        <v>834.88859999999988</v>
+        <f t="shared" si="20"/>
+        <v>1514.6160249999998</v>
       </c>
       <c r="V53" s="35">
-        <f t="shared" si="21"/>
-        <v>920.51819999999975</v>
+        <f t="shared" si="20"/>
+        <v>1679.7163499999997</v>
       </c>
       <c r="W53" s="17">
-        <f t="shared" si="21"/>
-        <v>738.55529999999987</v>
+        <f t="shared" si="20"/>
+        <v>1341.7852499999997</v>
       </c>
       <c r="X53" s="35">
-        <f t="shared" si="21"/>
-        <v>425.1747499999999</v>
+        <f t="shared" si="20"/>
+        <v>775.25369999999998</v>
       </c>
       <c r="Y53" s="35">
-        <f t="shared" si="21"/>
-        <v>470.9627999999999</v>
+        <f t="shared" si="20"/>
+        <v>854.76689999999985</v>
       </c>
       <c r="Z53" s="17">
-        <f t="shared" si="21"/>
-        <v>374.62949999999989</v>
+        <f t="shared" si="20"/>
+        <v>685.80134999999984</v>
       </c>
       <c r="AA53" s="36">
         <f>SUM(C53:Z53)</f>
-        <v>303604.5039999999</v>
+        <v>279404.96740000002</v>
       </c>
     </row>
     <row r="54" spans="1:27" thickTop="1" x14ac:dyDescent="0.3">
@@ -5712,103 +5643,103 @@
       </c>
       <c r="C54" s="5">
         <f>C28+C12+C36+C44+C52</f>
-        <v>51200</v>
+        <v>27200</v>
       </c>
       <c r="D54" s="5">
         <f>D28+D12+D36+D44+D52</f>
-        <v>20900</v>
+        <v>5600</v>
       </c>
       <c r="E54" s="5">
         <f>E28+E12+E36+E44+E52</f>
-        <v>14470</v>
+        <v>2680</v>
       </c>
       <c r="F54" s="5">
         <f>F28+F12+F36+F44+F52</f>
-        <v>11266</v>
+        <v>19920</v>
       </c>
       <c r="G54" s="5">
         <f>G28+G12+G36+G44+G52</f>
-        <v>14924</v>
+        <v>21880</v>
       </c>
       <c r="H54" s="5">
         <f>H28+H12+H36+H44+H52</f>
-        <v>8068</v>
+        <v>13660</v>
       </c>
       <c r="I54" s="5">
         <f>I28+I12+I36+I44+I52</f>
-        <v>6029</v>
+        <v>10526</v>
       </c>
       <c r="J54" s="5">
         <f>J28+J12+J36+J44+J52</f>
-        <v>4904</v>
+        <v>8504</v>
       </c>
       <c r="K54" s="5">
         <f>K28+K12+K36+K44+K52</f>
-        <v>10088</v>
+        <v>12968</v>
       </c>
       <c r="L54" s="5">
         <f>L28+L12+L36+L44+L52</f>
-        <v>4345</v>
+        <v>6649</v>
       </c>
       <c r="M54" s="5">
         <f>M28+M12+M36+M44+M52</f>
-        <v>3202</v>
+        <v>5044</v>
       </c>
       <c r="N54" s="5">
         <f>N28+N12+N36+N44+N52</f>
-        <v>2675</v>
+        <v>4148</v>
       </c>
       <c r="O54" s="5">
         <f>O28+O12+O36+O44+O52</f>
-        <v>8306</v>
+        <v>9485</v>
       </c>
       <c r="P54" s="5">
         <f>P28+P12+P36+P44+P52</f>
-        <v>2920</v>
+        <v>3862</v>
       </c>
       <c r="Q54" s="5">
         <f>Q28+Q12+Q36+Q44+Q52</f>
-        <v>2062</v>
+        <v>2815</v>
       </c>
       <c r="R54" s="5">
         <f>R28+R12+R36+R44+R52</f>
-        <v>1763</v>
+        <v>2366</v>
       </c>
       <c r="S54" s="5">
         <f>S28+S12+S36+S44+S52</f>
-        <v>7577</v>
+        <v>8060</v>
       </c>
       <c r="T54" s="5">
         <f>T28+T12+T36+T44+T52</f>
-        <v>2335</v>
+        <v>2722</v>
       </c>
       <c r="U54" s="5">
         <f>U28+U12+U36+U44+U52</f>
-        <v>1594</v>
+        <v>1903</v>
       </c>
       <c r="V54" s="5">
         <f>V28+V12+V36+V44+V52</f>
-        <v>1388</v>
+        <v>1637</v>
       </c>
       <c r="W54" s="5">
         <f>W28+W12+W36+W44+W52</f>
-        <v>7277</v>
+        <v>7475</v>
       </c>
       <c r="X54" s="5">
         <f>X28+X12+X36+X44+X52</f>
-        <v>2095</v>
+        <v>2254</v>
       </c>
       <c r="Y54" s="5">
         <f>Y28+Y12+Y36+Y44+Y52</f>
-        <v>1402</v>
+        <v>1528</v>
       </c>
       <c r="Z54" s="5">
         <f>Z28+Z12+Z36+Z44+Z52</f>
-        <v>1235</v>
+        <v>1337</v>
       </c>
       <c r="AA54" s="38">
         <f>SUM(C54:Z54)</f>
-        <v>192025</v>
+        <v>184223</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.3">
@@ -5817,104 +5748,104 @@
         <v>11</v>
       </c>
       <c r="C55" s="46">
-        <f>C13+C21+C29+C37+C45+C53</f>
-        <v>323569.8</v>
+        <f t="shared" ref="C55:Z55" si="21">C13+C21+C29+C37+C45+C53</f>
+        <v>108660</v>
       </c>
       <c r="D55" s="46">
-        <f>D13+D21+D29+D37+D45+D53</f>
-        <v>204114.92999999996</v>
+        <f t="shared" si="21"/>
+        <v>27307.32</v>
       </c>
       <c r="E55" s="46">
-        <f>E13+E21+E29+E37+E45+E53</f>
-        <v>151966.11899999998</v>
+        <f t="shared" si="21"/>
+        <v>12785.196</v>
       </c>
       <c r="F55" s="46">
-        <f>F13+F21+F29+F37+F45+F53</f>
-        <v>106981.64539999998</v>
+        <f t="shared" si="21"/>
+        <v>186212.45199999999</v>
       </c>
       <c r="G55" s="46">
-        <f>G13+G21+G29+G37+G45+G53</f>
-        <v>125695.91879999998</v>
+        <f t="shared" si="21"/>
+        <v>197094.99599999998</v>
       </c>
       <c r="H55" s="46">
-        <f>H13+H21+H29+H37+H45+H53</f>
-        <v>80991.4476</v>
+        <f t="shared" si="21"/>
+        <v>138255.94199999998</v>
       </c>
       <c r="I55" s="46">
-        <f>I13+I21+I29+I37+I45+I53</f>
-        <v>56017.530599999984</v>
+        <f t="shared" si="21"/>
+        <v>96839.953799999988</v>
       </c>
       <c r="J55" s="46">
-        <f>J13+J21+J29+J37+J45+J53</f>
-        <v>50398.384799999985</v>
+        <f t="shared" si="21"/>
+        <v>87166.253100000002</v>
       </c>
       <c r="K55" s="46">
-        <f>K13+K21+K29+K37+K45+K53</f>
-        <v>71254.005599999989</v>
+        <f t="shared" si="21"/>
+        <v>100669.3257</v>
       </c>
       <c r="L55" s="46">
-        <f>L13+L21+L29+L37+L45+L53</f>
-        <v>33916.118999999992</v>
+        <f t="shared" si="21"/>
+        <v>54833.224199999997</v>
       </c>
       <c r="M55" s="46">
-        <f>M13+M21+M29+M37+M45+M53</f>
-        <v>29065.967399999998</v>
+        <f t="shared" si="21"/>
+        <v>47878.031099999993</v>
       </c>
       <c r="N55" s="46">
-        <f>N13+N21+N29+N37+N45+N53</f>
-        <v>23731.297500000001</v>
+        <f t="shared" si="21"/>
+        <v>38774.795700000002</v>
       </c>
       <c r="O55" s="46">
-        <f>O13+O21+O29+O37+O45+O53</f>
-        <v>32247.351199999997</v>
+        <f t="shared" si="21"/>
+        <v>40943.964124999999</v>
       </c>
       <c r="P55" s="46">
-        <f>P13+P21+P29+P37+P45+P53</f>
-        <v>21118.403999999995</v>
+        <f t="shared" si="21"/>
+        <v>30737.218799999995</v>
       </c>
       <c r="Q55" s="46">
-        <f>Q13+Q21+Q29+Q37+Q45+Q53</f>
-        <v>15427.349399999999</v>
+        <f t="shared" si="21"/>
+        <v>23115.735749999996</v>
       </c>
       <c r="R55" s="46">
-        <f>R13+R21+R29+R37+R45+R53</f>
-        <v>10425.949849999999</v>
+        <f t="shared" si="21"/>
+        <v>14873.312899999999</v>
       </c>
       <c r="S55" s="46">
-        <f>S13+S21+S29+S37+S45+S53</f>
-        <v>41213.154899999994</v>
+        <f t="shared" si="21"/>
+        <v>46145.617499999986</v>
       </c>
       <c r="T55" s="46">
-        <f>T13+T21+T29+T37+T45+T53</f>
-        <v>14119.639499999999</v>
+        <f t="shared" si="21"/>
+        <v>18072.787800000002</v>
       </c>
       <c r="U55" s="46">
-        <f>U13+U21+U29+U37+U45+U53</f>
-        <v>8147.5607999999993</v>
+        <f t="shared" si="21"/>
+        <v>10426.788074999999</v>
       </c>
       <c r="V55" s="46">
-        <f>V13+V21+V29+V37+V45+V53</f>
-        <v>8334.0155999999988</v>
+        <f t="shared" si="21"/>
+        <v>10879.72005</v>
       </c>
       <c r="W55" s="46">
-        <f>W13+W21+W29+W37+W45+W53</f>
-        <v>37624.044899999986</v>
+        <f t="shared" si="21"/>
+        <v>39646.764750000002</v>
       </c>
       <c r="X55" s="46">
-        <f>X13+X21+X29+X37+X45+X53</f>
-        <v>8619.419249999999</v>
+        <f t="shared" si="21"/>
+        <v>9793.2860999999994</v>
       </c>
       <c r="Y55" s="46">
-        <f>Y13+Y21+Y29+Y37+Y45+Y53</f>
-        <v>7531.3074000000006</v>
+        <f t="shared" si="21"/>
+        <v>8818.2597000000005</v>
       </c>
       <c r="Z55" s="46">
-        <f>Z13+Z21+Z29+Z37+Z45+Z53</f>
-        <v>6503.5694999999987</v>
+        <f t="shared" si="21"/>
+        <v>7546.9750499999991</v>
       </c>
       <c r="AA55" s="47">
         <f>SUM(C55:Z55)</f>
-        <v>1469014.932</v>
+        <v>1357477.9201999998</v>
       </c>
     </row>
     <row r="56" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
@@ -5924,99 +5855,99 @@
       </c>
       <c r="C56" s="48">
         <f>C55</f>
-        <v>323569.8</v>
+        <v>108660</v>
       </c>
       <c r="D56" s="48">
         <f t="shared" ref="D56:Z56" si="22">D55+C56</f>
-        <v>527684.73</v>
+        <v>135967.32</v>
       </c>
       <c r="E56" s="49">
         <f t="shared" si="22"/>
-        <v>679650.84899999993</v>
+        <v>148752.516</v>
       </c>
       <c r="F56" s="48">
         <f t="shared" si="22"/>
-        <v>786632.49439999997</v>
+        <v>334964.96799999999</v>
       </c>
       <c r="G56" s="48">
         <f t="shared" si="22"/>
-        <v>912328.41319999995</v>
+        <v>532059.96399999992</v>
       </c>
       <c r="H56" s="49">
         <f t="shared" si="22"/>
-        <v>993319.86079999991</v>
+        <v>670315.90599999996</v>
       </c>
       <c r="I56" s="48">
         <f t="shared" si="22"/>
-        <v>1049337.3913999998</v>
+        <v>767155.85979999998</v>
       </c>
       <c r="J56" s="48">
         <f t="shared" si="22"/>
-        <v>1099735.7761999997</v>
+        <v>854322.11289999995</v>
       </c>
       <c r="K56" s="49">
         <f t="shared" si="22"/>
-        <v>1170989.7817999998</v>
+        <v>954991.43859999999</v>
       </c>
       <c r="L56" s="48">
         <f t="shared" si="22"/>
-        <v>1204905.9007999997</v>
+        <v>1009824.6628</v>
       </c>
       <c r="M56" s="48">
         <f t="shared" si="22"/>
-        <v>1233971.8681999997</v>
+        <v>1057702.6939000001</v>
       </c>
       <c r="N56" s="49">
         <f t="shared" si="22"/>
-        <v>1257703.1656999998</v>
+        <v>1096477.4896</v>
       </c>
       <c r="O56" s="48">
         <f t="shared" si="22"/>
-        <v>1289950.5168999997</v>
+        <v>1137421.4537249999</v>
       </c>
       <c r="P56" s="48">
         <f t="shared" si="22"/>
-        <v>1311068.9208999998</v>
+        <v>1168158.6725249998</v>
       </c>
       <c r="Q56" s="49">
         <f t="shared" si="22"/>
-        <v>1326496.2702999997</v>
+        <v>1191274.4082749998</v>
       </c>
       <c r="R56" s="48">
         <f t="shared" si="22"/>
-        <v>1336922.2201499997</v>
+        <v>1206147.7211749998</v>
       </c>
       <c r="S56" s="48">
         <f t="shared" si="22"/>
-        <v>1378135.3750499997</v>
+        <v>1252293.3386749998</v>
       </c>
       <c r="T56" s="49">
         <f t="shared" si="22"/>
-        <v>1392255.0145499997</v>
+        <v>1270366.1264749998</v>
       </c>
       <c r="U56" s="48">
         <f t="shared" si="22"/>
-        <v>1400402.5753499998</v>
+        <v>1280792.9145499999</v>
       </c>
       <c r="V56" s="48">
         <f t="shared" si="22"/>
-        <v>1408736.5909499999</v>
+        <v>1291672.6345999998</v>
       </c>
       <c r="W56" s="49">
         <f t="shared" si="22"/>
-        <v>1446360.63585</v>
+        <v>1331319.3993499998</v>
       </c>
       <c r="X56" s="48">
         <f t="shared" si="22"/>
-        <v>1454980.0551</v>
+        <v>1341112.6854499998</v>
       </c>
       <c r="Y56" s="48">
         <f t="shared" si="22"/>
-        <v>1462511.3625</v>
+        <v>1349930.9451499998</v>
       </c>
       <c r="Z56" s="49">
         <f t="shared" si="22"/>
-        <v>1469014.932</v>
+        <v>1357477.9201999998</v>
       </c>
       <c r="AA56" s="50"/>
     </row>
@@ -6056,21 +5987,21 @@
       <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -6091,21 +6022,21 @@
       <c r="C59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -6126,21 +6057,21 @@
       <c r="C60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
     </row>
     <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
@@ -6150,21 +6081,21 @@
       <c r="C61" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
     </row>
     <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -6174,21 +6105,21 @@
       <c r="C62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
     </row>
     <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
@@ -6198,21 +6129,21 @@
       <c r="C63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -6233,21 +6164,21 @@
       <c r="C64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -6268,21 +6199,21 @@
       <c r="C65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -6303,21 +6234,21 @@
       <c r="C66" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6338,21 +6269,21 @@
       <c r="C67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -33159,6 +33090,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="AA15:AA19"/>
+    <mergeCell ref="AA23:AA27"/>
+    <mergeCell ref="C22:Z22"/>
+    <mergeCell ref="D67:P67"/>
+    <mergeCell ref="D66:P66"/>
+    <mergeCell ref="D58:P58"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="AA7:AA11"/>
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="AA31:AA35"/>
+    <mergeCell ref="C38:Z38"/>
+    <mergeCell ref="AA39:AA43"/>
+    <mergeCell ref="C46:Z46"/>
+    <mergeCell ref="AA47:AA51"/>
     <mergeCell ref="D59:P59"/>
     <mergeCell ref="D61:P61"/>
     <mergeCell ref="D64:P64"/>
@@ -33166,22 +33113,6 @@
     <mergeCell ref="D63:P63"/>
     <mergeCell ref="D62:P62"/>
     <mergeCell ref="D60:P60"/>
-    <mergeCell ref="D67:P67"/>
-    <mergeCell ref="D66:P66"/>
-    <mergeCell ref="D58:P58"/>
-    <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="AA7:AA11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C14:Z14"/>
-    <mergeCell ref="AA15:AA19"/>
-    <mergeCell ref="AA23:AA27"/>
-    <mergeCell ref="C22:Z22"/>
-    <mergeCell ref="C30:Z30"/>
-    <mergeCell ref="AA31:AA35"/>
-    <mergeCell ref="C38:Z38"/>
-    <mergeCell ref="AA39:AA43"/>
-    <mergeCell ref="C46:Z46"/>
-    <mergeCell ref="AA47:AA51"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>

--- a/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
+++ b/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8921CF1C-A9AA-4241-AFFC-CCCE64EA362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E487C4-0343-404C-BE1C-95A0C5D1B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,18 +217,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,24 +243,28 @@
       <sz val="8"/>
       <color rgb="FF274E13"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF274E13"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF274E13"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -269,17 +276,20 @@
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -310,22 +320,26 @@
       <b/>
       <sz val="10"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF434343"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF434343"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -792,16 +806,15 @@
     <xf numFmtId="164" fontId="23" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,15 +825,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1090,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:BA995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1181,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
@@ -1246,7 +1260,7 @@
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="41">
         <v>45870</v>
       </c>
@@ -1338,30 +1352,30 @@
       <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="63"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="42" t="s">
         <v>42</v>
@@ -1448,7 +1462,7 @@
       <c r="Z7" s="25">
         <v>7.99</v>
       </c>
-      <c r="AA7" s="61"/>
+      <c r="AA7" s="55"/>
       <c r="AB7" s="42" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1548,7 @@
       <c r="Z8" s="12">
         <v>10</v>
       </c>
-      <c r="AA8" s="62"/>
+      <c r="AA8" s="56"/>
       <c r="AB8" s="42" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1657,7 @@
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="AA9" s="62"/>
+      <c r="AA9" s="56"/>
       <c r="AB9" s="42" t="s">
         <v>45</v>
       </c>
@@ -1728,7 +1742,7 @@
       <c r="Z10" s="26">
         <v>30</v>
       </c>
-      <c r="AA10" s="62"/>
+      <c r="AA10" s="56"/>
       <c r="AB10" s="42" t="s">
         <v>46</v>
       </c>
@@ -1837,7 +1851,7 @@
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="AA11" s="62"/>
+      <c r="AA11" s="56"/>
       <c r="AB11" s="42"/>
     </row>
     <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.3">
@@ -1846,28 +1860,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="30">
-        <f>((AD5)*10)*4</f>
-        <v>24000</v>
+        <f>((AD5)*10)*3</f>
+        <v>18000</v>
       </c>
       <c r="D12" s="30">
-        <f>((AD6)*10)*4</f>
-        <v>3600</v>
+        <f>((AD6)*10)*3</f>
+        <v>2700</v>
       </c>
       <c r="E12" s="14">
-        <f>((AD7)*10)*4</f>
-        <v>1080</v>
+        <f>((AD7)*10)*3</f>
+        <v>810</v>
       </c>
       <c r="F12" s="30">
-        <f>((AD8)*10)*4</f>
-        <v>520</v>
+        <f>((AD8)*10)*3</f>
+        <v>390</v>
       </c>
       <c r="G12" s="30">
-        <f>((AD9)*10)*4+(AD5*10)</f>
-        <v>6280</v>
+        <f>((AD9)*10)*3+(AD5*10)</f>
+        <v>6210</v>
       </c>
       <c r="H12" s="14">
-        <f>((AD10)*10)*4+((AD6)*10)</f>
-        <v>1020</v>
+        <f>((AD10)*10)*3+((AD6)*10)</f>
+        <v>990</v>
       </c>
       <c r="I12" s="30">
         <f>((AD7)*10)</f>
@@ -1943,7 +1957,7 @@
       </c>
       <c r="AA12" s="31">
         <f t="shared" ref="AA12:AA13" si="2">SUM(C12:Z12)</f>
-        <v>66500</v>
+        <v>59100</v>
       </c>
       <c r="AB12" s="42"/>
     </row>
@@ -1954,27 +1968,27 @@
       </c>
       <c r="C13" s="15">
         <f t="shared" ref="C13:Z13" si="3">C11*C12</f>
-        <v>93962.4</v>
+        <v>70471.8</v>
       </c>
       <c r="D13" s="15">
         <f>D11*D12</f>
-        <v>18121.32</v>
+        <v>13590.99</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="3"/>
-        <v>5436.3959999999997</v>
+        <v>4077.2969999999996</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="3"/>
-        <v>2035.8519999999999</v>
+        <v>1526.8889999999999</v>
       </c>
       <c r="G13" s="15">
         <f t="shared" si="3"/>
-        <v>31611.635999999999</v>
+        <v>31259.276999999998</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="3"/>
-        <v>5134.3739999999998</v>
+        <v>4983.3629999999994</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="3"/>
@@ -2050,7 +2064,7 @@
       </c>
       <c r="AA13" s="33">
         <f t="shared" si="2"/>
-        <v>289415.37799999991</v>
+        <v>259023.01599999995</v>
       </c>
       <c r="AB13" s="42" t="s">
         <v>47</v>
@@ -2064,30 +2078,30 @@
       <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="42" t="s">
         <v>48</v>
@@ -2174,7 +2188,7 @@
       <c r="Z15" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="61"/>
+      <c r="AA15" s="55"/>
       <c r="AB15" s="42" t="s">
         <v>49</v>
       </c>
@@ -2260,7 +2274,7 @@
       <c r="Z16" s="12">
         <v>0</v>
       </c>
-      <c r="AA16" s="62"/>
+      <c r="AA16" s="56"/>
       <c r="AB16" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2384,7 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA17" s="62"/>
+      <c r="AA17" s="56"/>
       <c r="AB17" t="s">
         <v>51</v>
       </c>
@@ -2456,7 +2470,7 @@
       <c r="Z18" s="12">
         <v>0</v>
       </c>
-      <c r="AA18" s="62"/>
+      <c r="AA18" s="56"/>
       <c r="AB18" t="s">
         <v>52</v>
       </c>
@@ -2566,7 +2580,7 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="62"/>
+      <c r="AA19" s="56"/>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
@@ -2780,30 +2794,30 @@
       <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
       <c r="AA22" s="34"/>
       <c r="AD22">
         <f t="shared" si="4"/>
@@ -2887,7 +2901,7 @@
       <c r="Z23" s="25">
         <v>2.99</v>
       </c>
-      <c r="AA23" s="61"/>
+      <c r="AA23" s="55"/>
       <c r="AD23">
         <f t="shared" si="4"/>
         <v>644</v>
@@ -2970,7 +2984,7 @@
       <c r="Z24" s="12">
         <v>0</v>
       </c>
-      <c r="AA24" s="62"/>
+      <c r="AA24" s="56"/>
       <c r="AD24">
         <f t="shared" si="4"/>
         <v>515</v>
@@ -3077,7 +3091,7 @@
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="AA25" s="62"/>
+      <c r="AA25" s="56"/>
       <c r="AD25">
         <f t="shared" si="4"/>
         <v>412</v>
@@ -3160,7 +3174,7 @@
       <c r="Z26" s="26">
         <v>30</v>
       </c>
-      <c r="AA26" s="62"/>
+      <c r="AA26" s="56"/>
       <c r="AD26">
         <f t="shared" si="4"/>
         <v>330</v>
@@ -3267,7 +3281,7 @@
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="AA27" s="62"/>
+      <c r="AA27" s="56"/>
       <c r="AD27">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -3498,30 +3512,30 @@
       <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
       <c r="AA30" s="34"/>
       <c r="AD30">
         <f t="shared" si="4"/>
@@ -3605,7 +3619,7 @@
       <c r="Z31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA31" s="61"/>
+      <c r="AA31" s="55"/>
       <c r="AD31">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -3688,7 +3702,7 @@
       <c r="Z32" s="12">
         <v>10</v>
       </c>
-      <c r="AA32" s="62"/>
+      <c r="AA32" s="56"/>
       <c r="AD32">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3795,7 +3809,7 @@
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="AA33" s="62"/>
+      <c r="AA33" s="56"/>
       <c r="AD33">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3878,7 +3892,7 @@
       <c r="Z34" s="26">
         <v>35</v>
       </c>
-      <c r="AA34" s="62"/>
+      <c r="AA34" s="56"/>
       <c r="AD34">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -3985,7 +3999,7 @@
         <f t="shared" si="14"/>
         <v>11.69415</v>
       </c>
-      <c r="AA35" s="62"/>
+      <c r="AA35" s="56"/>
       <c r="AD35">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -4113,99 +4127,99 @@
         <v>38</v>
       </c>
       <c r="C37" s="35">
-        <f>C35*C36</f>
+        <f t="shared" ref="C37:Z37" si="15">C35*C36</f>
         <v>0</v>
       </c>
       <c r="D37" s="35">
-        <f>D35*D36</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E37" s="17">
-        <f>E35*E36</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F37" s="35">
-        <f>F35*F36</f>
+        <f t="shared" si="15"/>
         <v>62368.800000000003</v>
       </c>
       <c r="G37" s="35">
-        <f>G35*G36</f>
+        <f t="shared" si="15"/>
         <v>56131.920000000006</v>
       </c>
       <c r="H37" s="17">
-        <f>H35*H36</f>
+        <f t="shared" si="15"/>
         <v>44905.536</v>
       </c>
       <c r="I37" s="35">
-        <f>I35*I36</f>
+        <f t="shared" si="15"/>
         <v>31932.8256</v>
       </c>
       <c r="J37" s="35">
-        <f>J35*J36</f>
+        <f t="shared" si="15"/>
         <v>28744.220700000002</v>
       </c>
       <c r="K37" s="17">
-        <f>K35*K36</f>
+        <f t="shared" si="15"/>
         <v>22990.698899999999</v>
       </c>
       <c r="L37" s="35">
-        <f>L35*L36</f>
+        <f t="shared" si="15"/>
         <v>16351.020399999999</v>
       </c>
       <c r="M37" s="35">
-        <f>M35*M36</f>
+        <f t="shared" si="15"/>
         <v>14711.2407</v>
       </c>
       <c r="N37" s="17">
-        <f>N35*N36</f>
+        <f t="shared" si="15"/>
         <v>11764.314900000001</v>
       </c>
       <c r="O37" s="35">
-        <f>O35*O36</f>
+        <f t="shared" si="15"/>
         <v>6798.8488749999979</v>
       </c>
       <c r="P37" s="35">
-        <f>P35*P36</f>
+        <f t="shared" si="15"/>
         <v>7531.0326000000005</v>
       </c>
       <c r="Q37" s="17">
-        <f>Q35*Q36</f>
+        <f t="shared" si="15"/>
         <v>6022.4872500000001</v>
       </c>
       <c r="R37" s="35">
-        <f>R35*R36</f>
+        <f t="shared" si="15"/>
         <v>3479.6592999999989</v>
       </c>
       <c r="S37" s="35">
-        <f>S35*S36</f>
+        <f t="shared" si="15"/>
         <v>3859.0695000000001</v>
       </c>
       <c r="T37" s="17">
-        <f>T35*T36</f>
+        <f t="shared" si="15"/>
         <v>3087.2556</v>
       </c>
       <c r="U37" s="35">
-        <f>U35*U36</f>
+        <f t="shared" si="15"/>
         <v>1782.0585249999995</v>
       </c>
       <c r="V37" s="35">
-        <f>V35*V36</f>
+        <f t="shared" si="15"/>
         <v>1976.3113500000002</v>
       </c>
       <c r="W37" s="17">
-        <f>W35*W36</f>
+        <f t="shared" si="15"/>
         <v>1578.7102500000001</v>
       </c>
       <c r="X37" s="35">
-        <f>X35*X36</f>
+        <f t="shared" si="15"/>
         <v>912.14369999999974</v>
       </c>
       <c r="Y37" s="35">
-        <f>Y35*Y36</f>
+        <f t="shared" si="15"/>
         <v>1005.6969</v>
       </c>
       <c r="Z37" s="17">
-        <f>Z35*Z36</f>
+        <f t="shared" si="15"/>
         <v>806.89634999999998</v>
       </c>
       <c r="AA37" s="36">
@@ -4237,30 +4251,30 @@
       <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
       <c r="AA38" s="34"/>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6"/>
@@ -4351,7 +4365,7 @@
       <c r="Z39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA39" s="67"/>
+      <c r="AA39" s="64"/>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
@@ -4441,7 +4455,7 @@
       <c r="Z40" s="12">
         <v>10</v>
       </c>
-      <c r="AA40" s="67"/>
+      <c r="AA40" s="64"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
@@ -4460,102 +4474,102 @@
         <v>4</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" ref="C41:Z41" si="15">C39-(C39*C40/100)</f>
+        <f t="shared" ref="C41:Z41" si="16">C39-(C39*C40/100)</f>
         <v>15.991999999999999</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="E41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.991999999999999</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.991999999999999</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.991999999999999</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="Q41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="T41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="W41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="X41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.993499999999997</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
       <c r="Z41" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="AA41" s="67"/>
+      <c r="AA41" s="64"/>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
@@ -4645,7 +4659,7 @@
       <c r="Z42" s="26">
         <v>35</v>
       </c>
-      <c r="AA42" s="67"/>
+      <c r="AA42" s="64"/>
       <c r="AB42" s="45">
         <f>AA37+AA45+AA53</f>
         <v>936886.46219999995</v>
@@ -4668,102 +4682,102 @@
         <v>6</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" ref="C43:Z43" si="16">C41-(C41*C42/100)</f>
+        <f t="shared" ref="C43:Z43" si="17">C41-(C41*C42/100)</f>
         <v>10.3948</v>
       </c>
       <c r="D43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="F43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.3948</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="I43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.3948</v>
       </c>
       <c r="J43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="K43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.3948</v>
       </c>
       <c r="M43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="O43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.4457749999999976</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="Q43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="R43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.4457749999999976</v>
       </c>
       <c r="S43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="T43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="U43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.4457749999999976</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="W43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.4457749999999976</v>
       </c>
       <c r="Y43" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
       <c r="Z43" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
-      <c r="AA43" s="67"/>
+      <c r="AA43" s="64"/>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
@@ -4869,99 +4883,99 @@
         <v>39</v>
       </c>
       <c r="C45" s="35">
-        <f t="shared" ref="C45:Z45" si="17">C43*C44</f>
+        <f t="shared" ref="C45:Z45" si="18">C43*C44</f>
         <v>0</v>
       </c>
       <c r="D45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>62368.800000000003</v>
       </c>
       <c r="G45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>56131.920000000006</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44905.536</v>
       </c>
       <c r="I45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31932.8256</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28744.220700000002</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22990.698899999999</v>
       </c>
       <c r="L45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16351.020399999999</v>
       </c>
       <c r="M45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14711.2407</v>
       </c>
       <c r="N45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11764.314900000001</v>
       </c>
       <c r="O45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6798.8488749999979</v>
       </c>
       <c r="P45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7531.0326000000005</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6022.4872500000001</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3479.6592999999989</v>
       </c>
       <c r="S45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3859.0695000000001</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3087.2556</v>
       </c>
       <c r="U45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1782.0585249999995</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1976.3113500000002</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1578.7102500000001</v>
       </c>
       <c r="X45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>912.14369999999974</v>
       </c>
       <c r="Y45" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1005.6969</v>
       </c>
       <c r="Z45" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>806.89634999999998</v>
       </c>
       <c r="AA45" s="36">
@@ -4985,30 +4999,30 @@
       <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
       <c r="AA46" s="34"/>
     </row>
     <row r="47" spans="1:53" ht="15" x14ac:dyDescent="0.3">
@@ -5088,7 +5102,7 @@
       <c r="Z47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="AA47" s="67"/>
+      <c r="AA47" s="64"/>
     </row>
     <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -5167,7 +5181,7 @@
       <c r="Z48" s="12">
         <v>10</v>
       </c>
-      <c r="AA48" s="67"/>
+      <c r="AA48" s="64"/>
     </row>
     <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -5175,102 +5189,102 @@
         <v>4</v>
       </c>
       <c r="C49" s="28">
-        <f t="shared" ref="C49:Z49" si="18">C47-(C47*C48/100)</f>
+        <f t="shared" ref="C49:Z49" si="19">C47-(C47*C48/100)</f>
         <v>13.591999999999999</v>
       </c>
       <c r="D49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="E49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="F49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.591999999999999</v>
       </c>
       <c r="G49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="I49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.591999999999999</v>
       </c>
       <c r="J49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="L49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.591999999999999</v>
       </c>
       <c r="M49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="O49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
       <c r="P49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="Q49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="R49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
       <c r="S49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="T49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="U49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
       <c r="V49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="W49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="X49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.043499999999998</v>
       </c>
       <c r="Y49" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
       <c r="Z49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="AA49" s="67"/>
+      <c r="AA49" s="64"/>
     </row>
     <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -5349,7 +5363,7 @@
       <c r="Z50" s="26">
         <v>35</v>
       </c>
-      <c r="AA50" s="67"/>
+      <c r="AA50" s="64"/>
     </row>
     <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -5357,102 +5371,102 @@
         <v>6</v>
       </c>
       <c r="C51" s="28">
-        <f t="shared" ref="C51:Z51" si="19">C49-(C49*C50/100)</f>
+        <f t="shared" ref="C51:Z51" si="20">C49-(C49*C50/100)</f>
         <v>8.8347999999999978</v>
       </c>
       <c r="D51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="E51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="F51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.8347999999999978</v>
       </c>
       <c r="G51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="I51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.8347999999999978</v>
       </c>
       <c r="J51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="L51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.8347999999999978</v>
       </c>
       <c r="M51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="N51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="O51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1782749999999993</v>
       </c>
       <c r="P51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="Q51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="R51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1782749999999993</v>
       </c>
       <c r="S51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="T51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="U51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1782749999999993</v>
       </c>
       <c r="V51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="W51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="X51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1782749999999993</v>
       </c>
       <c r="Y51" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
       <c r="Z51" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
-      <c r="AA51" s="67"/>
+      <c r="AA51" s="64"/>
     </row>
     <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -5536,99 +5550,99 @@
         <v>40</v>
       </c>
       <c r="C53" s="35">
-        <f t="shared" ref="C53:Z53" si="20">C51*C52</f>
+        <f t="shared" ref="C53:Z53" si="21">C51*C52</f>
         <v>0</v>
       </c>
       <c r="D53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>53008.799999999988</v>
       </c>
       <c r="G53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>47707.919999999991</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>38166.335999999996</v>
       </c>
       <c r="I53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>27140.505599999993</v>
       </c>
       <c r="J53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>24430.430699999994</v>
       </c>
       <c r="K53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19540.368899999998</v>
       </c>
       <c r="L53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13897.140399999997</v>
       </c>
       <c r="M53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12503.450699999998</v>
       </c>
       <c r="N53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9998.7848999999987</v>
       </c>
       <c r="O53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5778.5113749999991</v>
       </c>
       <c r="P53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6400.8125999999984</v>
       </c>
       <c r="Q53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5118.6622499999985</v>
       </c>
       <c r="R53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2957.4492999999998</v>
       </c>
       <c r="S53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3279.9194999999995</v>
       </c>
       <c r="T53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2623.9355999999993</v>
       </c>
       <c r="U53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1514.6160249999998</v>
       </c>
       <c r="V53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1679.7163499999997</v>
       </c>
       <c r="W53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1341.7852499999997</v>
       </c>
       <c r="X53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>775.25369999999998</v>
       </c>
       <c r="Y53" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>854.76689999999985</v>
       </c>
       <c r="Z53" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>685.80134999999984</v>
       </c>
       <c r="AA53" s="36">
@@ -5642,104 +5656,104 @@
         <v>10</v>
       </c>
       <c r="C54" s="5">
-        <f>C28+C12+C36+C44+C52</f>
-        <v>27200</v>
+        <f t="shared" ref="C54:Z54" si="22">C28+C12+C36+C44+C52</f>
+        <v>21200</v>
       </c>
       <c r="D54" s="5">
-        <f>D28+D12+D36+D44+D52</f>
-        <v>5600</v>
+        <f t="shared" si="22"/>
+        <v>4700</v>
       </c>
       <c r="E54" s="5">
-        <f>E28+E12+E36+E44+E52</f>
-        <v>2680</v>
+        <f t="shared" si="22"/>
+        <v>2410</v>
       </c>
       <c r="F54" s="5">
-        <f>F28+F12+F36+F44+F52</f>
-        <v>19920</v>
+        <f t="shared" si="22"/>
+        <v>19790</v>
       </c>
       <c r="G54" s="5">
-        <f>G28+G12+G36+G44+G52</f>
-        <v>21880</v>
+        <f t="shared" si="22"/>
+        <v>21810</v>
       </c>
       <c r="H54" s="5">
-        <f>H28+H12+H36+H44+H52</f>
-        <v>13660</v>
+        <f t="shared" si="22"/>
+        <v>13630</v>
       </c>
       <c r="I54" s="5">
-        <f>I28+I12+I36+I44+I52</f>
+        <f t="shared" si="22"/>
         <v>10526</v>
       </c>
       <c r="J54" s="5">
-        <f>J28+J12+J36+J44+J52</f>
+        <f t="shared" si="22"/>
         <v>8504</v>
       </c>
       <c r="K54" s="5">
-        <f>K28+K12+K36+K44+K52</f>
+        <f t="shared" si="22"/>
         <v>12968</v>
       </c>
       <c r="L54" s="5">
-        <f>L28+L12+L36+L44+L52</f>
+        <f t="shared" si="22"/>
         <v>6649</v>
       </c>
       <c r="M54" s="5">
-        <f>M28+M12+M36+M44+M52</f>
+        <f t="shared" si="22"/>
         <v>5044</v>
       </c>
       <c r="N54" s="5">
-        <f>N28+N12+N36+N44+N52</f>
+        <f t="shared" si="22"/>
         <v>4148</v>
       </c>
       <c r="O54" s="5">
-        <f>O28+O12+O36+O44+O52</f>
+        <f t="shared" si="22"/>
         <v>9485</v>
       </c>
       <c r="P54" s="5">
-        <f>P28+P12+P36+P44+P52</f>
+        <f t="shared" si="22"/>
         <v>3862</v>
       </c>
       <c r="Q54" s="5">
-        <f>Q28+Q12+Q36+Q44+Q52</f>
+        <f t="shared" si="22"/>
         <v>2815</v>
       </c>
       <c r="R54" s="5">
-        <f>R28+R12+R36+R44+R52</f>
+        <f t="shared" si="22"/>
         <v>2366</v>
       </c>
       <c r="S54" s="5">
-        <f>S28+S12+S36+S44+S52</f>
+        <f t="shared" si="22"/>
         <v>8060</v>
       </c>
       <c r="T54" s="5">
-        <f>T28+T12+T36+T44+T52</f>
+        <f t="shared" si="22"/>
         <v>2722</v>
       </c>
       <c r="U54" s="5">
-        <f>U28+U12+U36+U44+U52</f>
+        <f t="shared" si="22"/>
         <v>1903</v>
       </c>
       <c r="V54" s="5">
-        <f>V28+V12+V36+V44+V52</f>
+        <f t="shared" si="22"/>
         <v>1637</v>
       </c>
       <c r="W54" s="5">
-        <f>W28+W12+W36+W44+W52</f>
+        <f t="shared" si="22"/>
         <v>7475</v>
       </c>
       <c r="X54" s="5">
-        <f>X28+X12+X36+X44+X52</f>
+        <f t="shared" si="22"/>
         <v>2254</v>
       </c>
       <c r="Y54" s="5">
-        <f>Y28+Y12+Y36+Y44+Y52</f>
+        <f t="shared" si="22"/>
         <v>1528</v>
       </c>
       <c r="Z54" s="5">
-        <f>Z28+Z12+Z36+Z44+Z52</f>
+        <f t="shared" si="22"/>
         <v>1337</v>
       </c>
       <c r="AA54" s="38">
         <f>SUM(C54:Z54)</f>
-        <v>184223</v>
+        <v>176823</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.3">
@@ -5748,104 +5762,104 @@
         <v>11</v>
       </c>
       <c r="C55" s="46">
-        <f t="shared" ref="C55:Z55" si="21">C13+C21+C29+C37+C45+C53</f>
-        <v>108660</v>
+        <f t="shared" ref="C55:Z55" si="23">C13+C21+C29+C37+C45+C53</f>
+        <v>85169.400000000009</v>
       </c>
       <c r="D55" s="46">
-        <f t="shared" si="21"/>
-        <v>27307.32</v>
+        <f t="shared" si="23"/>
+        <v>22776.989999999998</v>
       </c>
       <c r="E55" s="46">
-        <f t="shared" si="21"/>
-        <v>12785.196</v>
+        <f t="shared" si="23"/>
+        <v>11426.097</v>
       </c>
       <c r="F55" s="46">
-        <f t="shared" si="21"/>
-        <v>186212.45199999999</v>
+        <f t="shared" si="23"/>
+        <v>185703.489</v>
       </c>
       <c r="G55" s="46">
-        <f t="shared" si="21"/>
-        <v>197094.99599999998</v>
+        <f t="shared" si="23"/>
+        <v>196742.63699999999</v>
       </c>
       <c r="H55" s="46">
-        <f t="shared" si="21"/>
-        <v>138255.94199999998</v>
+        <f t="shared" si="23"/>
+        <v>138104.93099999998</v>
       </c>
       <c r="I55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>96839.953799999988</v>
       </c>
       <c r="J55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>87166.253100000002</v>
       </c>
       <c r="K55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100669.3257</v>
       </c>
       <c r="L55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>54833.224199999997</v>
       </c>
       <c r="M55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>47878.031099999993</v>
       </c>
       <c r="N55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>38774.795700000002</v>
       </c>
       <c r="O55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>40943.964124999999</v>
       </c>
       <c r="P55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>30737.218799999995</v>
       </c>
       <c r="Q55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23115.735749999996</v>
       </c>
       <c r="R55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14873.312899999999</v>
       </c>
       <c r="S55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>46145.617499999986</v>
       </c>
       <c r="T55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>18072.787800000002</v>
       </c>
       <c r="U55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10426.788074999999</v>
       </c>
       <c r="V55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10879.72005</v>
       </c>
       <c r="W55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>39646.764750000002</v>
       </c>
       <c r="X55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9793.2860999999994</v>
       </c>
       <c r="Y55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8818.2597000000005</v>
       </c>
       <c r="Z55" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7546.9750499999991</v>
       </c>
       <c r="AA55" s="47">
         <f>SUM(C55:Z55)</f>
-        <v>1357477.9201999998</v>
+        <v>1327085.5581999999</v>
       </c>
     </row>
     <row r="56" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
@@ -5855,99 +5869,99 @@
       </c>
       <c r="C56" s="48">
         <f>C55</f>
-        <v>108660</v>
+        <v>85169.400000000009</v>
       </c>
       <c r="D56" s="48">
-        <f t="shared" ref="D56:Z56" si="22">D55+C56</f>
-        <v>135967.32</v>
+        <f t="shared" ref="D56:Z56" si="24">D55+C56</f>
+        <v>107946.39000000001</v>
       </c>
       <c r="E56" s="49">
-        <f t="shared" si="22"/>
-        <v>148752.516</v>
+        <f t="shared" si="24"/>
+        <v>119372.48700000001</v>
       </c>
       <c r="F56" s="48">
-        <f t="shared" si="22"/>
-        <v>334964.96799999999</v>
+        <f t="shared" si="24"/>
+        <v>305075.97600000002</v>
       </c>
       <c r="G56" s="48">
-        <f t="shared" si="22"/>
-        <v>532059.96399999992</v>
+        <f t="shared" si="24"/>
+        <v>501818.61300000001</v>
       </c>
       <c r="H56" s="49">
-        <f t="shared" si="22"/>
-        <v>670315.90599999996</v>
+        <f t="shared" si="24"/>
+        <v>639923.54399999999</v>
       </c>
       <c r="I56" s="48">
-        <f t="shared" si="22"/>
-        <v>767155.85979999998</v>
+        <f t="shared" si="24"/>
+        <v>736763.49780000001</v>
       </c>
       <c r="J56" s="48">
-        <f t="shared" si="22"/>
-        <v>854322.11289999995</v>
+        <f t="shared" si="24"/>
+        <v>823929.75089999998</v>
       </c>
       <c r="K56" s="49">
-        <f t="shared" si="22"/>
-        <v>954991.43859999999</v>
+        <f t="shared" si="24"/>
+        <v>924599.07660000003</v>
       </c>
       <c r="L56" s="48">
-        <f t="shared" si="22"/>
-        <v>1009824.6628</v>
+        <f t="shared" si="24"/>
+        <v>979432.30080000008</v>
       </c>
       <c r="M56" s="48">
-        <f t="shared" si="22"/>
-        <v>1057702.6939000001</v>
+        <f t="shared" si="24"/>
+        <v>1027310.3319000001</v>
       </c>
       <c r="N56" s="49">
-        <f t="shared" si="22"/>
-        <v>1096477.4896</v>
+        <f t="shared" si="24"/>
+        <v>1066085.1276</v>
       </c>
       <c r="O56" s="48">
-        <f t="shared" si="22"/>
-        <v>1137421.4537249999</v>
+        <f t="shared" si="24"/>
+        <v>1107029.0917249999</v>
       </c>
       <c r="P56" s="48">
-        <f t="shared" si="22"/>
-        <v>1168158.6725249998</v>
+        <f t="shared" si="24"/>
+        <v>1137766.3105249999</v>
       </c>
       <c r="Q56" s="49">
-        <f t="shared" si="22"/>
-        <v>1191274.4082749998</v>
+        <f t="shared" si="24"/>
+        <v>1160882.0462749999</v>
       </c>
       <c r="R56" s="48">
-        <f t="shared" si="22"/>
-        <v>1206147.7211749998</v>
+        <f t="shared" si="24"/>
+        <v>1175755.3591749999</v>
       </c>
       <c r="S56" s="48">
-        <f t="shared" si="22"/>
-        <v>1252293.3386749998</v>
+        <f t="shared" si="24"/>
+        <v>1221900.9766749998</v>
       </c>
       <c r="T56" s="49">
-        <f t="shared" si="22"/>
-        <v>1270366.1264749998</v>
+        <f t="shared" si="24"/>
+        <v>1239973.7644749999</v>
       </c>
       <c r="U56" s="48">
-        <f t="shared" si="22"/>
-        <v>1280792.9145499999</v>
+        <f t="shared" si="24"/>
+        <v>1250400.5525499999</v>
       </c>
       <c r="V56" s="48">
-        <f t="shared" si="22"/>
-        <v>1291672.6345999998</v>
+        <f t="shared" si="24"/>
+        <v>1261280.2725999998</v>
       </c>
       <c r="W56" s="49">
-        <f t="shared" si="22"/>
-        <v>1331319.3993499998</v>
+        <f t="shared" si="24"/>
+        <v>1300927.0373499999</v>
       </c>
       <c r="X56" s="48">
-        <f t="shared" si="22"/>
-        <v>1341112.6854499998</v>
+        <f t="shared" si="24"/>
+        <v>1310720.3234499998</v>
       </c>
       <c r="Y56" s="48">
-        <f t="shared" si="22"/>
-        <v>1349930.9451499998</v>
+        <f t="shared" si="24"/>
+        <v>1319538.5831499998</v>
       </c>
       <c r="Z56" s="49">
-        <f t="shared" si="22"/>
-        <v>1357477.9201999998</v>
+        <f t="shared" si="24"/>
+        <v>1327085.5581999999</v>
       </c>
       <c r="AA56" s="50"/>
     </row>
@@ -5987,21 +6001,21 @@
       <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -6022,21 +6036,21 @@
       <c r="C59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -6057,21 +6071,21 @@
       <c r="C60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
     </row>
     <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
@@ -6081,21 +6095,21 @@
       <c r="C61" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
     </row>
     <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -6105,21 +6119,21 @@
       <c r="C62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
     </row>
     <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
@@ -6129,21 +6143,21 @@
       <c r="C63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -6164,21 +6178,21 @@
       <c r="C64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -6199,21 +6213,21 @@
       <c r="C65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="P65" s="65"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -6234,21 +6248,21 @@
       <c r="C66" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="58"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6269,21 +6283,21 @@
       <c r="C67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -33090,11 +33104,8 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C14:Z14"/>
-    <mergeCell ref="AA15:AA19"/>
-    <mergeCell ref="AA23:AA27"/>
-    <mergeCell ref="C22:Z22"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="D60:P60"/>
     <mergeCell ref="D67:P67"/>
     <mergeCell ref="D66:P66"/>
     <mergeCell ref="D58:P58"/>
@@ -33111,8 +33122,11 @@
     <mergeCell ref="D64:P64"/>
     <mergeCell ref="D65:P65"/>
     <mergeCell ref="D63:P63"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="D60:P60"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="AA15:AA19"/>
+    <mergeCell ref="AA23:AA27"/>
+    <mergeCell ref="C22:Z22"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>

--- a/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
+++ b/Produktionsförderung/Anlage_6_Vorlage_Erloesvorschau_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E487C4-0343-404C-BE1C-95A0C5D1B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63465788-A012-4A0B-9768-B8FFAC2D3147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="2565" windowWidth="49155" windowHeight="24345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktname_Erlösvorschau" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Monat</t>
   </si>
@@ -199,6 +199,16 @@
   <si>
     <t>…</t>
   </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Die Verkaufszahlen der DLCs schätzen wir anhand der Verkaufszahlen unseres schon veröffentlichten DLCs "Stunt Showdown". Wir gehen davon aus, dass sich alle weiteren DLCs mindestens so gut verkaufen werden, da das Stunt Showdown DLC unserer Einschätzung nach weniger interessant für die Spielenden ist, als die zurzeit geplanten DLCs.
+Des Weiteren schätzen wir, dass sich unsere Spielerzahl mit dem Full Release im Vergleich zur aktuellen Spielerzahl im Early Access verzehnfacht. Daraus, und aus den Verkaufszahlen des "Stunt Showdown" DLCs schätzen wir die Verkaufszahlen der DLCs ab August 2025.
+Die Impressionen der Ingame Werbung schätzen wir mithilfe von groben Schätzungen unseres Werbepartners "Anzu". Anhand unserer aktuellen Spielerzahlen hat unser Ansprechpartner der Firma Anzu grob die Anzahl der Impressionen geschätzt, sowie die damit verbundene geschätzten Umsätze. Diese haben wir hochgerechnet auf die erwarteten Sielerzahlen zum Full Release, und damit die finalen Umsätze der Ingame Werbung geschätzt.
+Die Verkaufszahlen der Steam Ingame purchases sind für uns schwierig zu schätzen, da wir hier keine Daten haben. Deshalb ist dies nur eine grobe, konservative Schätzung mithilfe der geschätzten Spielerzahlen zum Full Release.
+Die Verkaufszahlen auf den Konsolen sind grob geschätzt basierend auf Erfahrungswerten anderer Spiele befreundeter Gamestudios.</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -357,6 +367,13 @@
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -728,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,15 +823,10 @@
     <xf numFmtId="164" fontId="23" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -825,16 +837,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1104,22 +1125,25 @@
   </sheetPr>
   <dimension ref="A1:BA995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28.42578125" customWidth="1"/>
+    <col min="29" max="29" width="55.7109375" customWidth="1"/>
+    <col min="32" max="34" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>30</v>
@@ -1150,7 +1174,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1179,9 +1203,9 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
@@ -1257,10 +1281,23 @@
         <v>24</v>
       </c>
       <c r="AA4" s="20"/>
-    </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4">
+        <v>600</v>
+      </c>
+      <c r="AJ4">
+        <f>SUM(AH4:AH9)</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="52"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="41">
         <v>45870</v>
       </c>
@@ -1336,56 +1373,56 @@
       <c r="AA5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AB5" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5">
-        <v>600</v>
-      </c>
-      <c r="AE5">
-        <f>SUM(AD5:AD10)</f>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AF5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5">
+        <f>AH4*0.15</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="63"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="58"/>
       <c r="AA6" s="23"/>
-      <c r="AB6" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD6">
-        <f>AD5*0.15</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AC6" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6">
+        <f>AH5*0.3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>2</v>
@@ -1462,16 +1499,16 @@
       <c r="Z7" s="25">
         <v>7.99</v>
       </c>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7">
-        <f>AD6*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA7" s="59"/>
+      <c r="AC7" s="68"/>
+      <c r="AF7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
         <v>3</v>
@@ -1548,15 +1585,16 @@
       <c r="Z8" s="12">
         <v>10</v>
       </c>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA8" s="60"/>
+      <c r="AC8" s="68"/>
+      <c r="AF8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="27" t="s">
         <v>4</v>
@@ -1657,15 +1695,16 @@
         <f t="shared" si="0"/>
         <v>7.1909999999999998</v>
       </c>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA9" s="60"/>
+      <c r="AC9" s="68"/>
+      <c r="AF9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
@@ -1742,15 +1781,11 @@
       <c r="Z10" s="26">
         <v>30</v>
       </c>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA10" s="60"/>
+      <c r="AC10" s="68"/>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
         <v>6</v>
@@ -1851,117 +1886,124 @@
         <f t="shared" si="1"/>
         <v>5.0336999999999996</v>
       </c>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="42"/>
-    </row>
-    <row r="12" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA11" s="60"/>
+      <c r="AC11" s="68"/>
+      <c r="AF11" s="42"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="30">
-        <f>((AD5)*10)*3</f>
+        <f>((AH4)*10)*3</f>
         <v>18000</v>
       </c>
       <c r="D12" s="30">
-        <f>((AD6)*10)*3</f>
+        <f>((AH5)*10)*3</f>
         <v>2700</v>
       </c>
       <c r="E12" s="14">
-        <f>((AD7)*10)*3</f>
+        <f>((AH6)*10)*3</f>
         <v>810</v>
       </c>
       <c r="F12" s="30">
-        <f>((AD8)*10)*3</f>
+        <f>((AH7)*10)*3</f>
         <v>390</v>
       </c>
       <c r="G12" s="30">
-        <f>((AD9)*10)*3+(AD5*10)</f>
+        <f>((AH8)*10)*3+(AH4*10)</f>
         <v>6210</v>
       </c>
       <c r="H12" s="14">
-        <f>((AD10)*10)*3+((AD6)*10)</f>
+        <f>((AH9)*10)*3+((AH5)*10)</f>
         <v>990</v>
       </c>
       <c r="I12" s="30">
-        <f>((AD7)*10)</f>
+        <f>((AH6)*10)</f>
         <v>270</v>
       </c>
       <c r="J12" s="30">
-        <f>((AD8)*10)</f>
+        <f>((AH7)*10)</f>
         <v>130</v>
       </c>
       <c r="K12" s="14">
-        <f>((AD9)*10)+((AD5)*10)</f>
+        <f>((AH8)*10)+((AH4)*10)</f>
         <v>6070</v>
       </c>
       <c r="L12" s="30">
-        <f>((AD10)*10)+((AD6)*10)</f>
+        <f>((AH9)*10)+((AH5)*10)</f>
         <v>930</v>
       </c>
       <c r="M12" s="30">
-        <f>((AD7)*10)</f>
+        <f>((AH6)*10)</f>
         <v>270</v>
       </c>
       <c r="N12" s="14">
-        <f>((AD8)*10)</f>
+        <f>((AH7)*10)</f>
         <v>130</v>
       </c>
       <c r="O12" s="30">
-        <f>((AD9)*10)+((AD5)*10)</f>
+        <f>((AH8)*10)+((AH4)*10)</f>
         <v>6070</v>
       </c>
       <c r="P12" s="30">
-        <f>((AD10)*10)+((AD6)*10)</f>
+        <f>((AH9)*10)+((AH5)*10)</f>
         <v>930</v>
       </c>
       <c r="Q12" s="14">
-        <f>((AD7)*10)</f>
+        <f>((AH6)*10)</f>
         <v>270</v>
       </c>
       <c r="R12" s="30">
-        <f>((AD8)*10)</f>
+        <f>((AH7)*10)</f>
         <v>130</v>
       </c>
       <c r="S12" s="30">
-        <f>((AD9)*10)+((AD5)*10)</f>
+        <f>((AH8)*10)+((AH4)*10)</f>
         <v>6070</v>
       </c>
       <c r="T12" s="14">
-        <f>((AD10)*10)+((AD6)*10)</f>
+        <f>((AH9)*10)+((AH5)*10)</f>
         <v>930</v>
       </c>
       <c r="U12" s="30">
-        <f>((AD7)*10)</f>
+        <f>((AH6)*10)</f>
         <v>270</v>
       </c>
       <c r="V12" s="30">
-        <f>((AD8)*10)</f>
+        <f>((AH7)*10)</f>
         <v>130</v>
       </c>
       <c r="W12" s="14">
-        <f>((AD9)*10)+((AD5)*10)</f>
+        <f>((AH8)*10)+((AH4)*10)</f>
         <v>6070</v>
       </c>
       <c r="X12" s="30">
-        <f>((AD10)*10)+((AD6)*10)</f>
+        <f>((AH9)*10)+((AH5)*10)</f>
         <v>930</v>
       </c>
       <c r="Y12" s="30">
-        <f>((AD7)*10)</f>
+        <f>((AH6)*10)</f>
         <v>270</v>
       </c>
       <c r="Z12" s="14">
-        <f>((AD8)*10)</f>
+        <f>((AH7)*10)</f>
         <v>130</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" ref="AA12:AA13" si="2">SUM(C12:Z12)</f>
         <v>59100</v>
       </c>
-      <c r="AB12" s="42"/>
-    </row>
-    <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AC12" s="68"/>
+      <c r="AF12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="32" t="s">
         <v>8</v>
@@ -2066,52 +2108,55 @@
         <f t="shared" si="2"/>
         <v>259023.01599999995</v>
       </c>
-      <c r="AB13" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD13">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AC13" s="68"/>
+      <c r="AF13" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH13">
+        <f>ROUND(AH12*0.8, 0)</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
       <c r="AA14" s="34"/>
-      <c r="AB14" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD14">
-        <f>ROUND(AD13*0.8, 0)</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AC14" s="68"/>
+      <c r="AF14" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" ref="AH14:AH36" si="4">ROUND(AH13*0.8, 0)</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
         <v>2</v>
@@ -2188,16 +2233,17 @@
       <c r="Z15" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" ref="AD15:AD37" si="4">ROUND(AD14*0.8, 0)</f>
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA15" s="59"/>
+      <c r="AC15" s="68"/>
+      <c r="AF15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="24" t="s">
         <v>3</v>
@@ -2274,16 +2320,17 @@
       <c r="Z16" s="12">
         <v>0</v>
       </c>
-      <c r="AA16" s="56"/>
-      <c r="AB16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD16">
+      <c r="AA16" s="60"/>
+      <c r="AC16" s="68"/>
+      <c r="AF16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="4"/>
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="27" t="s">
         <v>4</v>
@@ -2384,16 +2431,17 @@
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AA17" s="56"/>
-      <c r="AB17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD17">
+      <c r="AA17" s="60"/>
+      <c r="AC17" s="68"/>
+      <c r="AF17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="4"/>
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="24" t="s">
         <v>5</v>
@@ -2470,16 +2518,17 @@
       <c r="Z18" s="12">
         <v>0</v>
       </c>
-      <c r="AA18" s="56"/>
-      <c r="AB18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD18">
+      <c r="AA18" s="60"/>
+      <c r="AC18" s="68"/>
+      <c r="AF18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="4"/>
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="27" t="s">
         <v>6</v>
@@ -2580,16 +2629,18 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="56"/>
-      <c r="AB19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD19">
+      <c r="AA19" s="60"/>
+      <c r="AC19" s="68"/>
+      <c r="AF19" s="43">
+        <f>SUM(C20:Z20)</f>
+        <v>714000</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="4"/>
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
         <v>7</v>
@@ -2670,16 +2721,13 @@
         <f t="shared" ref="AA20:AA21" si="7">SUM(C20:Z20)</f>
         <v>714000</v>
       </c>
-      <c r="AB20" s="43">
-        <f>SUM(C20:Z20)</f>
-        <v>714000</v>
-      </c>
-      <c r="AD20">
+      <c r="AC20" s="68"/>
+      <c r="AH20">
         <f t="shared" si="4"/>
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="32" t="s">
         <v>9</v>
@@ -2784,47 +2832,49 @@
         <f t="shared" si="7"/>
         <v>71400</v>
       </c>
-      <c r="AD21">
+      <c r="AC21" s="68"/>
+      <c r="AH21">
         <f t="shared" si="4"/>
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
       <c r="AA22" s="34"/>
-      <c r="AD22">
+      <c r="AC22" s="68"/>
+      <c r="AH22">
         <f t="shared" si="4"/>
-        <v>805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
         <v>2</v>
@@ -2901,13 +2951,14 @@
       <c r="Z23" s="25">
         <v>2.99</v>
       </c>
-      <c r="AA23" s="55"/>
-      <c r="AD23">
+      <c r="AA23" s="59"/>
+      <c r="AC23" s="68"/>
+      <c r="AH23">
         <f t="shared" si="4"/>
-        <v>644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
         <v>3</v>
@@ -2984,13 +3035,14 @@
       <c r="Z24" s="12">
         <v>0</v>
       </c>
-      <c r="AA24" s="56"/>
-      <c r="AD24">
+      <c r="AA24" s="60"/>
+      <c r="AC24" s="68"/>
+      <c r="AH24">
         <f t="shared" si="4"/>
-        <v>515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="27" t="s">
         <v>4</v>
@@ -3091,13 +3143,14 @@
         <f t="shared" si="9"/>
         <v>2.99</v>
       </c>
-      <c r="AA25" s="56"/>
-      <c r="AD25">
+      <c r="AA25" s="60"/>
+      <c r="AC25" s="68"/>
+      <c r="AH25">
         <f t="shared" si="4"/>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="24" t="s">
         <v>5</v>
@@ -3174,13 +3227,14 @@
       <c r="Z26" s="26">
         <v>30</v>
       </c>
-      <c r="AA26" s="56"/>
-      <c r="AD26">
+      <c r="AA26" s="60"/>
+      <c r="AC26" s="68"/>
+      <c r="AH26">
         <f t="shared" si="4"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="27" t="s">
         <v>6</v>
@@ -3281,13 +3335,14 @@
         <f t="shared" si="10"/>
         <v>2.093</v>
       </c>
-      <c r="AA27" s="56"/>
-      <c r="AD27">
+      <c r="AA27" s="60"/>
+      <c r="AC27" s="68"/>
+      <c r="AH27">
         <f t="shared" si="4"/>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="29" t="s">
         <v>7</v>
@@ -3392,12 +3447,13 @@
         <f>SUM(C28:Z28)</f>
         <v>28560</v>
       </c>
-      <c r="AD28">
+      <c r="AC28" s="68"/>
+      <c r="AH28">
         <f t="shared" si="4"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="27" t="s">
         <v>37</v>
@@ -3502,59 +3558,61 @@
         <f>SUM(C29:Z29)</f>
         <v>59776.08</v>
       </c>
-      <c r="AD29">
+      <c r="AC29" s="68"/>
+      <c r="AH29">
         <f t="shared" si="4"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
       <c r="AA30" s="34"/>
-      <c r="AD30">
+      <c r="AC30" s="68"/>
+      <c r="AH30">
         <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="25">
-        <v>19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="D31" s="25">
-        <v>19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="E31" s="25">
-        <v>19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="F31" s="25">
         <v>19.989999999999998</v>
@@ -3619,25 +3677,26 @@
       <c r="Z31" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA31" s="55"/>
-      <c r="AD31">
+      <c r="AA31" s="59"/>
+      <c r="AC31" s="68"/>
+      <c r="AH31">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D32" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E32" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F32" s="26">
         <v>20</v>
@@ -3702,10 +3761,11 @@
       <c r="Z32" s="12">
         <v>10</v>
       </c>
-      <c r="AA32" s="56"/>
-      <c r="AD32">
+      <c r="AA32" s="60"/>
+      <c r="AC32" s="68"/>
+      <c r="AH32">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3715,15 +3775,15 @@
       </c>
       <c r="C33" s="28">
         <f t="shared" ref="C33:Z33" si="13">C31-(C31*C32/100)</f>
-        <v>15.991999999999999</v>
+        <v>0</v>
       </c>
       <c r="D33" s="28">
         <f t="shared" si="13"/>
-        <v>17.991</v>
+        <v>0</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="13"/>
-        <v>17.991</v>
+        <v>0</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="13"/>
@@ -3809,10 +3869,11 @@
         <f t="shared" si="13"/>
         <v>17.991</v>
       </c>
-      <c r="AA33" s="56"/>
-      <c r="AD33">
+      <c r="AA33" s="60"/>
+      <c r="AC33" s="68"/>
+      <c r="AH33">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3892,10 +3953,11 @@
       <c r="Z34" s="26">
         <v>35</v>
       </c>
-      <c r="AA34" s="56"/>
-      <c r="AD34">
+      <c r="AA34" s="60"/>
+      <c r="AC34" s="68"/>
+      <c r="AH34">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:53" ht="15" x14ac:dyDescent="0.3">
@@ -3905,15 +3967,15 @@
       </c>
       <c r="C35" s="28">
         <f t="shared" ref="C35:Z35" si="14">C33-(C33*C34/100)</f>
-        <v>10.3948</v>
+        <v>0</v>
       </c>
       <c r="D35" s="28">
         <f t="shared" si="14"/>
-        <v>11.69415</v>
+        <v>0</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="14"/>
-        <v>11.69415</v>
+        <v>0</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="14"/>
@@ -3999,11 +4061,18 @@
         <f t="shared" si="14"/>
         <v>11.69415</v>
       </c>
-      <c r="AA35" s="56"/>
-      <c r="AD35">
+      <c r="AA35" s="60"/>
+      <c r="AC35" s="68"/>
+      <c r="AF35" s="44">
+        <f>SUM(C36:Z36)</f>
+        <v>29721</v>
+      </c>
+      <c r="AG35" s="9"/>
+      <c r="AH35">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AM35" s="9"/>
     </row>
     <row r="36" spans="1:53" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -4014,100 +4083,101 @@
       <c r="D36" s="30"/>
       <c r="E36" s="14"/>
       <c r="F36" s="30">
-        <f>AD13</f>
+        <f>AH12</f>
         <v>6000</v>
       </c>
       <c r="G36" s="30">
-        <f>AD14</f>
+        <f>AH13</f>
         <v>4800</v>
       </c>
       <c r="H36" s="14">
-        <f>AD15</f>
+        <f>AH14</f>
         <v>3840</v>
       </c>
       <c r="I36" s="30">
-        <f>AD16</f>
+        <f>AH15</f>
         <v>3072</v>
       </c>
       <c r="J36" s="30">
-        <f>AD17</f>
+        <f>AH16</f>
         <v>2458</v>
       </c>
       <c r="K36" s="14">
-        <f>AD18</f>
+        <f>AH17</f>
         <v>1966</v>
       </c>
       <c r="L36" s="30">
-        <f>AD19</f>
+        <f>AH18</f>
         <v>1573</v>
       </c>
       <c r="M36" s="30">
-        <f>AD20</f>
+        <f>AH19</f>
         <v>1258</v>
       </c>
       <c r="N36" s="14">
-        <f>AD21</f>
+        <f>AH20</f>
         <v>1006</v>
       </c>
       <c r="O36" s="30">
-        <f>AD22</f>
+        <f>AH21</f>
         <v>805</v>
       </c>
       <c r="P36" s="30">
-        <f>AD23</f>
+        <f>AH22</f>
         <v>644</v>
       </c>
       <c r="Q36" s="14">
-        <f>AD24</f>
+        <f>AH23</f>
         <v>515</v>
       </c>
       <c r="R36" s="30">
-        <f>AD25</f>
+        <f>AH24</f>
         <v>412</v>
       </c>
       <c r="S36" s="30">
-        <f>AD26</f>
+        <f>AH25</f>
         <v>330</v>
       </c>
       <c r="T36" s="14">
-        <f>AD27</f>
+        <f>AH26</f>
         <v>264</v>
       </c>
       <c r="U36" s="30">
-        <f>AD28</f>
+        <f>AH27</f>
         <v>211</v>
       </c>
       <c r="V36" s="30">
-        <f>AD29</f>
+        <f>AH28</f>
         <v>169</v>
       </c>
       <c r="W36" s="14">
-        <f>AD30</f>
+        <f>AH29</f>
         <v>135</v>
       </c>
       <c r="X36" s="30">
-        <f>AD31</f>
+        <f>AH30</f>
         <v>108</v>
       </c>
       <c r="Y36" s="30">
-        <f>AD32</f>
+        <f>AH31</f>
         <v>86</v>
       </c>
       <c r="Z36" s="14">
-        <f>AD33</f>
+        <f>AH32</f>
         <v>69</v>
       </c>
       <c r="AA36" s="31">
         <f>SUM(C36:Z36)</f>
         <v>29721</v>
       </c>
-      <c r="AB36" s="44">
-        <f>SUM(C36:Z36)</f>
-        <v>29721</v>
-      </c>
-      <c r="AD36">
+      <c r="AC36" s="68"/>
+      <c r="AF36" s="9">
+        <f>AF35*3</f>
+        <v>89163</v>
+      </c>
+      <c r="AH36">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -4226,14 +4296,7 @@
         <f>SUM(C37:Z37)</f>
         <v>328740.74739999993</v>
       </c>
-      <c r="AB37" s="9">
-        <f>AB36*3</f>
-        <v>89163</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
+      <c r="AC37" s="68"/>
       <c r="AQ37" s="6"/>
       <c r="AR37" s="6"/>
       <c r="AS37" s="6"/>
@@ -4251,31 +4314,32 @@
       <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
       <c r="AA38" s="34"/>
+      <c r="AC38" s="68"/>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6"/>
       <c r="AS38" s="6"/>
@@ -4294,13 +4358,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="25">
-        <v>19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="D39" s="25">
-        <v>19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="E39" s="25">
-        <v>19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="F39" s="25">
         <v>19.989999999999998</v>
@@ -4365,7 +4429,8 @@
       <c r="Z39" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="AA39" s="64"/>
+      <c r="AA39" s="63"/>
+      <c r="AC39" s="68"/>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
@@ -4384,13 +4449,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D40" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F40" s="26">
         <v>20</v>
@@ -4455,7 +4520,8 @@
       <c r="Z40" s="12">
         <v>10</v>
       </c>
-      <c r="AA40" s="64"/>
+      <c r="AA40" s="63"/>
+      <c r="AC40" s="68"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
@@ -4475,15 +4541,15 @@
       </c>
       <c r="C41" s="28">
         <f t="shared" ref="C41:Z41" si="16">C39-(C39*C40/100)</f>
-        <v>15.991999999999999</v>
+        <v>0</v>
       </c>
       <c r="D41" s="28">
         <f t="shared" si="16"/>
-        <v>17.991</v>
+        <v>0</v>
       </c>
       <c r="E41" s="13">
         <f t="shared" si="16"/>
-        <v>17.991</v>
+        <v>0</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" si="16"/>
@@ -4569,7 +4635,12 @@
         <f t="shared" si="16"/>
         <v>17.991</v>
       </c>
-      <c r="AA41" s="64"/>
+      <c r="AA41" s="63"/>
+      <c r="AC41" s="68"/>
+      <c r="AF41" s="45">
+        <f>AA37+AA45+AA53</f>
+        <v>936886.46219999995</v>
+      </c>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
@@ -4659,11 +4730,8 @@
       <c r="Z42" s="26">
         <v>35</v>
       </c>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="45">
-        <f>AA37+AA45+AA53</f>
-        <v>936886.46219999995</v>
-      </c>
+      <c r="AA42" s="63"/>
+      <c r="AC42" s="68"/>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6"/>
       <c r="AS42" s="6"/>
@@ -4683,15 +4751,15 @@
       </c>
       <c r="C43" s="28">
         <f t="shared" ref="C43:Z43" si="17">C41-(C41*C42/100)</f>
-        <v>10.3948</v>
+        <v>0</v>
       </c>
       <c r="D43" s="28">
         <f t="shared" si="17"/>
-        <v>11.69415</v>
+        <v>0</v>
       </c>
       <c r="E43" s="13">
         <f t="shared" si="17"/>
-        <v>11.69415</v>
+        <v>0</v>
       </c>
       <c r="F43" s="28">
         <f t="shared" si="17"/>
@@ -4777,7 +4845,8 @@
         <f t="shared" si="17"/>
         <v>11.69415</v>
       </c>
-      <c r="AA43" s="64"/>
+      <c r="AA43" s="63"/>
+      <c r="AC43" s="68"/>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
@@ -4865,6 +4934,7 @@
         <f>SUM(C44:Z44)</f>
         <v>29721</v>
       </c>
+      <c r="AC44" s="68"/>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
@@ -4982,6 +5052,7 @@
         <f>SUM(C45:Z45)</f>
         <v>328740.74739999993</v>
       </c>
+      <c r="AC45" s="68"/>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
@@ -4999,31 +5070,32 @@
       <c r="B46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
       <c r="AA46" s="34"/>
+      <c r="AC46" s="68"/>
     </row>
     <row r="47" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -5031,13 +5103,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="25">
-        <v>16.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="D47" s="25">
-        <v>16.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="E47" s="25">
-        <v>16.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="F47" s="25">
         <v>16.989999999999998</v>
@@ -5102,7 +5174,8 @@
       <c r="Z47" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="AA47" s="64"/>
+      <c r="AA47" s="63"/>
+      <c r="AC47" s="68"/>
     </row>
     <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -5110,13 +5183,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D48" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E48" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F48" s="26">
         <v>20</v>
@@ -5181,24 +5254,25 @@
       <c r="Z48" s="12">
         <v>10</v>
       </c>
-      <c r="AA48" s="64"/>
-    </row>
-    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA48" s="63"/>
+      <c r="AC48" s="68"/>
+    </row>
+    <row r="49" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="28">
         <f t="shared" ref="C49:Z49" si="19">C47-(C47*C48/100)</f>
-        <v>13.591999999999999</v>
+        <v>0</v>
       </c>
       <c r="D49" s="28">
         <f t="shared" si="19"/>
-        <v>15.290999999999999</v>
+        <v>0</v>
       </c>
       <c r="E49" s="13">
         <f t="shared" si="19"/>
-        <v>15.290999999999999</v>
+        <v>0</v>
       </c>
       <c r="F49" s="28">
         <f t="shared" si="19"/>
@@ -5284,9 +5358,10 @@
         <f t="shared" si="19"/>
         <v>15.290999999999999</v>
       </c>
-      <c r="AA49" s="64"/>
-    </row>
-    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA49" s="63"/>
+      <c r="AC49" s="68"/>
+    </row>
+    <row r="50" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="24" t="s">
         <v>5</v>
@@ -5363,24 +5438,25 @@
       <c r="Z50" s="26">
         <v>35</v>
       </c>
-      <c r="AA50" s="64"/>
-    </row>
-    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA50" s="63"/>
+      <c r="AC50" s="68"/>
+    </row>
+    <row r="51" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="28">
         <f t="shared" ref="C51:Z51" si="20">C49-(C49*C50/100)</f>
-        <v>8.8347999999999978</v>
+        <v>0</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" si="20"/>
-        <v>9.9391499999999979</v>
+        <v>0</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="20"/>
-        <v>9.9391499999999979</v>
+        <v>0</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="20"/>
@@ -5466,9 +5542,10 @@
         <f t="shared" si="20"/>
         <v>9.9391499999999979</v>
       </c>
-      <c r="AA51" s="64"/>
-    </row>
-    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="AA51" s="63"/>
+      <c r="AC51" s="68"/>
+    </row>
+    <row r="52" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="29" t="s">
         <v>7</v>
@@ -5543,8 +5620,9 @@
         <f>SUM(C52:Z52)</f>
         <v>29721</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC52" s="68"/>
+    </row>
+    <row r="53" spans="1:29" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="27" t="s">
         <v>40</v>
@@ -5649,8 +5727,9 @@
         <f>SUM(C53:Z53)</f>
         <v>279404.96740000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AC53" s="68"/>
+    </row>
+    <row r="54" spans="1:29" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="37" t="s">
         <v>10</v>
@@ -5755,8 +5834,9 @@
         <f>SUM(C54:Z54)</f>
         <v>176823</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="AC54" s="68"/>
+    </row>
+    <row r="55" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="39" t="s">
         <v>11</v>
@@ -5862,7 +5942,7 @@
         <v>1327085.5581999999</v>
       </c>
     </row>
-    <row r="56" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="40" t="s">
         <v>12</v>
@@ -5965,7 +6045,7 @@
       </c>
       <c r="AA56" s="50"/>
     </row>
-    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5993,7 +6073,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
         <v>13</v>
@@ -6001,21 +6081,21 @@
       <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -6028,7 +6108,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
         <v>0</v>
@@ -6036,21 +6116,21 @@
       <c r="C59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -6063,7 +6143,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>18</v>
@@ -6071,23 +6151,23 @@
       <c r="C60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D60" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-    </row>
-    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+    </row>
+    <row r="61" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="10" t="s">
         <v>2</v>
@@ -6095,23 +6175,23 @@
       <c r="C61" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-    </row>
-    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+    </row>
+    <row r="62" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
         <v>3</v>
@@ -6119,23 +6199,23 @@
       <c r="C62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-    </row>
-    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+    </row>
+    <row r="63" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
         <v>4</v>
@@ -6143,21 +6223,21 @@
       <c r="C63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -6170,7 +6250,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
         <v>23</v>
@@ -6178,21 +6258,21 @@
       <c r="C64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -6213,21 +6293,21 @@
       <c r="C65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -6248,21 +6328,21 @@
       <c r="C66" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6283,21 +6363,21 @@
       <c r="C67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -33103,30 +33183,31 @@
       <c r="AA995" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="AC6:AC54"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="AA15:AA19"/>
+    <mergeCell ref="AA23:AA27"/>
+    <mergeCell ref="C22:Z22"/>
+    <mergeCell ref="AA39:AA43"/>
+    <mergeCell ref="C46:Z46"/>
+    <mergeCell ref="AA47:AA51"/>
+    <mergeCell ref="D59:P59"/>
+    <mergeCell ref="D61:P61"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="AA7:AA11"/>
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="AA31:AA35"/>
+    <mergeCell ref="C38:Z38"/>
     <mergeCell ref="D62:P62"/>
     <mergeCell ref="D60:P60"/>
     <mergeCell ref="D67:P67"/>
     <mergeCell ref="D66:P66"/>
     <mergeCell ref="D58:P58"/>
-    <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="AA7:AA11"/>
-    <mergeCell ref="C30:Z30"/>
-    <mergeCell ref="AA31:AA35"/>
-    <mergeCell ref="C38:Z38"/>
-    <mergeCell ref="AA39:AA43"/>
-    <mergeCell ref="C46:Z46"/>
-    <mergeCell ref="AA47:AA51"/>
-    <mergeCell ref="D59:P59"/>
-    <mergeCell ref="D61:P61"/>
     <mergeCell ref="D64:P64"/>
     <mergeCell ref="D65:P65"/>
     <mergeCell ref="D63:P63"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C14:Z14"/>
-    <mergeCell ref="AA15:AA19"/>
-    <mergeCell ref="AA23:AA27"/>
-    <mergeCell ref="C22:Z22"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
